--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10580" yWindow="0" windowWidth="31980" windowHeight="20240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11060" yWindow="0" windowWidth="21560" windowHeight="18920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
   <si>
     <t>1.获取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,218 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.修改用户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/update_profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户认证Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像二进制图片数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname=xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别，1表示男，2表示女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender=1或2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constellation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户星座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constellation=水瓶座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signature=我是一个帅气的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.达人排行榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter=goal_geek或supervise_geek或popular_geek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /users/:filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /users/goal_geek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.获取用户详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /users/show/:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜过滤参数，参数的值只能为goal_geek,supervise_geek, popular_geek三个之一，分别表示为：目标大人，监督达人，人气达人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /users/show/32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.我的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /user/goals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /user/goals?token=xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /user/supervised_goals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /user/supervised_goals?token=xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.我关注的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.我督促的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /user/followed_goals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /user/followed_goals?token=xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.关注某一个用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被关注用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.取消对某一个用户的关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/friendships/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/friendships/destroy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +474,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -280,12 +492,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,35 +550,41 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="63">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -332,6 +593,29 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -340,6 +624,29 @@
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -689,411 +996,1303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="52.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="48" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="44" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="29" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="45" customHeight="1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="44" customHeight="1">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="29" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="48" customHeight="1">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" ht="45" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" ht="44" customHeight="1">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="29" customHeight="1">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="29" customHeight="1">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" ht="48" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" ht="45" customHeight="1">
+      <c r="A49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" ht="44" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" ht="33" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="29" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="29" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" ht="30" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="25" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="24" customHeight="1">
+      <c r="A58" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="29" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="27" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+    </row>
+    <row r="63" spans="1:4" ht="48" customHeight="1">
+      <c r="A63" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" ht="45" customHeight="1">
+      <c r="A65" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" ht="44" customHeight="1">
+      <c r="A67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" ht="33" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="138" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="1:4" ht="44" customHeight="1">
+      <c r="A72" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" ht="48" customHeight="1">
+      <c r="A75" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" ht="45" customHeight="1">
+      <c r="A77" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" ht="44" customHeight="1">
+      <c r="A79" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" ht="33" customHeight="1">
+      <c r="A81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="29" customHeight="1">
+      <c r="A82" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="1:4" ht="44" customHeight="1">
+      <c r="A84" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+    </row>
+    <row r="87" spans="1:4" ht="48" customHeight="1">
+      <c r="A87" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" ht="45" customHeight="1">
+      <c r="A89" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" ht="44" customHeight="1">
+      <c r="A91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" ht="33" customHeight="1">
+      <c r="A93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="29" customHeight="1">
+      <c r="A94" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" spans="1:4" ht="44" customHeight="1">
+      <c r="A96" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+    </row>
+    <row r="99" spans="1:4" ht="48" customHeight="1">
+      <c r="A99" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" ht="45" customHeight="1">
+      <c r="A101" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" ht="44" customHeight="1">
+      <c r="A103" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" ht="33" customHeight="1">
+      <c r="A105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="29" customHeight="1">
+      <c r="A106" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+    </row>
+    <row r="108" spans="1:4" ht="44" customHeight="1">
+      <c r="A108" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+    </row>
+    <row r="111" spans="1:4" ht="48" customHeight="1">
+      <c r="A111" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="1:4" ht="45" customHeight="1">
+      <c r="A113" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="1:4" ht="44" customHeight="1">
+      <c r="A115" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="1:4" ht="33" customHeight="1">
+      <c r="A117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="29" customHeight="1">
+      <c r="A118" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+    </row>
+    <row r="120" spans="1:4" ht="44" customHeight="1">
+      <c r="A120" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+    </row>
+    <row r="123" spans="1:4" ht="48" customHeight="1">
+      <c r="A123" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="1:4" ht="45" customHeight="1">
+      <c r="A125" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="1:4" ht="44" customHeight="1">
+      <c r="A127" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="1:4" ht="33" customHeight="1">
+      <c r="A129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="29" customHeight="1">
+      <c r="A130" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="29" customHeight="1">
+      <c r="A131" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+    </row>
+    <row r="134" spans="1:4" ht="48" customHeight="1">
+      <c r="A134" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="1:4" ht="45" customHeight="1">
+      <c r="A136" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="1:4" ht="44" customHeight="1">
+      <c r="A138" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="1:4" ht="33" customHeight="1">
+      <c r="A140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="29" customHeight="1">
+      <c r="A141" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="29" customHeight="1">
+      <c r="A142" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A34:D35"/>
+  <mergeCells count="95">
+    <mergeCell ref="A143:D144"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A121:D122"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A109:D110"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A73:D74"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
     <mergeCell ref="A45:D46"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A24:D25"/>
@@ -1101,6 +2300,11 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A34:D35"/>
     <mergeCell ref="A13:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
@@ -1112,7 +2316,11 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="0" windowWidth="21560" windowHeight="18920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14640" yWindow="1400" windowWidth="21560" windowHeight="18920" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
     <sheet name="用户相关接口" sheetId="3" r:id="rId2"/>
+    <sheet name="类别相关接口" sheetId="4" r:id="rId3"/>
+    <sheet name="Banner广告相关接口" sheetId="6" r:id="rId4"/>
+    <sheet name="目标相关接口" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="166">
   <si>
     <t>1.获取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +346,346 @@
   </si>
   <si>
     <t>POST /user/friendships/destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别相关接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.获取所有类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banner广告相关接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.获取某个类别下面的banner广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /banners</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /banners?type_id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标相关接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.获取附近的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度，数字字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude＝20.032987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度，数字字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude＝120.032987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender＝1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别，值为1或2，如果不传该值，则获取某个类别下的所有数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别id, 如果不传该参数，表示获取所有类别数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id＝2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token＝xxxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户认证Token, 该参数会直接影响数据的社交属性，例如：表示该目标是否被当前用户关注过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /goals/nearby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /goals/nearby?latitude=20.134321&amp;longitude=104.032456&amp;gender=1&amp;type_id=2&amp;token=xxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.获取目标列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /goals/:filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤参数,值为：hot, recent, unsupervise三者之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /goals/popular?type_id=2&amp;token=xxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.获取目标详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /goals/show/:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /goals/show/23?token=xxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.获取一个目标的某一条记录的详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /goals/:goal_id/notes/:note_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_id=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note_id=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /goals/12/notes/3?token=xxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /goals/:goal_id/follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=3xxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /goals/12/follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /goals/:goal_id/unfollow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /goals/12/unfollow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /goals/:goal_id/cheer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /goals/12/cheer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /goals/:goal_id/uncheer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /goals/12/uncheer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /goals/:goal_id/abandon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /goals/12/abandon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /goals/:goal_id/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /goals/12/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.创建目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /goals/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.关注目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title=xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expired_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标到期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expired_at=2000-10-10 12:12:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_supervise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要督促,值为0或1，其中0表示不督促，1表示要督促</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_supervise=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体目标计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body=xxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.取消关注目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.给目标加油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.取消目标加油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.放弃目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.删除目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +693,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -420,6 +763,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -441,7 +792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -473,8 +824,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -538,8 +898,64 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -556,8 +972,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -565,7 +981,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -577,14 +993,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="119">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -616,6 +1074,34 @@
     <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -647,6 +1133,34 @@
     <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -998,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:D144"/>
+    <sheetView showRuler="0" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1037,12 +1551,12 @@
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7"/>
@@ -1065,12 +1579,12 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7"/>
@@ -1119,12 +1633,12 @@
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="48" customHeight="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="12"/>
@@ -1133,12 +1647,12 @@
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="12"/>
@@ -1147,12 +1661,12 @@
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="44" customHeight="1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7"/>
@@ -1215,12 +1729,12 @@
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="12"/>
@@ -1229,12 +1743,12 @@
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="45" customHeight="1">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="12"/>
@@ -1243,12 +1757,12 @@
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="44" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="7"/>
@@ -1297,12 +1811,12 @@
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="48" customHeight="1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="7"/>
@@ -1325,12 +1839,12 @@
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" ht="44" customHeight="1">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="7"/>
@@ -1391,12 +1905,12 @@
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" ht="48" customHeight="1">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="7"/>
@@ -1419,12 +1933,12 @@
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" ht="44" customHeight="1">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="7"/>
@@ -1555,12 +2069,12 @@
       <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4" ht="48" customHeight="1">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="7"/>
@@ -1583,12 +2097,12 @@
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" ht="44" customHeight="1">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="7"/>
@@ -1617,7 +2131,7 @@
       <c r="B70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -1631,12 +2145,12 @@
       <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4" ht="44" customHeight="1">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="7"/>
@@ -1651,12 +2165,12 @@
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" ht="48" customHeight="1">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="7"/>
@@ -1679,12 +2193,12 @@
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" ht="44" customHeight="1">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="7"/>
@@ -1725,12 +2239,12 @@
       <c r="D83" s="11"/>
     </row>
     <row r="84" spans="1:4" ht="44" customHeight="1">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="12"/>
@@ -1745,12 +2259,12 @@
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" ht="48" customHeight="1">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="7"/>
@@ -1773,12 +2287,12 @@
       <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" ht="44" customHeight="1">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="7"/>
@@ -1821,12 +2335,12 @@
       <c r="D95" s="11"/>
     </row>
     <row r="96" spans="1:4" ht="44" customHeight="1">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12"/>
@@ -1841,12 +2355,12 @@
       <c r="D98" s="12"/>
     </row>
     <row r="99" spans="1:4" ht="48" customHeight="1">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="7"/>
@@ -1869,12 +2383,12 @@
       <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4" ht="44" customHeight="1">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="7"/>
@@ -1917,12 +2431,12 @@
       <c r="D107" s="11"/>
     </row>
     <row r="108" spans="1:4" ht="44" customHeight="1">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="12"/>
@@ -1937,12 +2451,12 @@
       <c r="D110" s="12"/>
     </row>
     <row r="111" spans="1:4" ht="48" customHeight="1">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="7"/>
@@ -1965,12 +2479,12 @@
       <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" ht="44" customHeight="1">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="7"/>
@@ -2013,12 +2527,12 @@
       <c r="D119" s="11"/>
     </row>
     <row r="120" spans="1:4" ht="44" customHeight="1">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="12"/>
@@ -2033,12 +2547,12 @@
       <c r="D122" s="12"/>
     </row>
     <row r="123" spans="1:4" ht="48" customHeight="1">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="7"/>
@@ -2061,12 +2575,12 @@
       <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:4" ht="44" customHeight="1">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="7"/>
@@ -2129,12 +2643,12 @@
       <c r="D133" s="12"/>
     </row>
     <row r="134" spans="1:4" ht="48" customHeight="1">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="7"/>
@@ -2157,12 +2671,12 @@
       <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" ht="44" customHeight="1">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="7"/>
@@ -2288,10 +2802,6 @@
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A45:D46"/>
     <mergeCell ref="A20:D20"/>
@@ -2303,6 +2813,16 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="A13:D14"/>
@@ -2315,12 +2835,1714 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A7:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="44" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="33" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" ht="44" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:D144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="26"/>
+    <col min="3" max="3" width="26" style="26" customWidth="1"/>
+    <col min="4" max="4" width="67.6640625" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" ht="44" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="33" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="76" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="64" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="94" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" ht="85" customHeight="1">
+      <c r="A18" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" ht="48" customHeight="1">
+      <c r="A21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4" ht="45" customHeight="1">
+      <c r="A23" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" ht="44" customHeight="1">
+      <c r="A25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" ht="33" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="66" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" ht="29" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="94" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" ht="50" customHeight="1">
+      <c r="A32" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+    </row>
+    <row r="35" spans="1:4" ht="48" customHeight="1">
+      <c r="A35" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="1:4" ht="45" customHeight="1">
+      <c r="A37" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" ht="44" customHeight="1">
+      <c r="A39" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="1:4" ht="33" customHeight="1">
+      <c r="A41" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="37" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="94" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+    </row>
+    <row r="45" spans="1:4" ht="85" customHeight="1">
+      <c r="A45" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+    </row>
+    <row r="48" spans="1:4" ht="48" customHeight="1">
+      <c r="A48" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" ht="45" customHeight="1">
+      <c r="A50" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" ht="44" customHeight="1">
+      <c r="A52" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" ht="33" customHeight="1">
+      <c r="A54" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="46" customHeight="1">
+      <c r="A55" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="46" customHeight="1">
+      <c r="A56" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="94" customHeight="1">
+      <c r="A57" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="1:4" ht="43" customHeight="1">
+      <c r="A59" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+    </row>
+    <row r="62" spans="1:4" ht="48" customHeight="1">
+      <c r="A62" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:4" ht="45" customHeight="1">
+      <c r="A64" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="1:4" ht="44" customHeight="1">
+      <c r="A66" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+    </row>
+    <row r="68" spans="1:4" ht="33" customHeight="1">
+      <c r="A68" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" customHeight="1">
+      <c r="A69" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30" customHeight="1">
+      <c r="A70" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" customHeight="1">
+      <c r="A71" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="63" customHeight="1">
+      <c r="A72" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" customHeight="1">
+      <c r="A73" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" customHeight="1">
+      <c r="A74" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+    </row>
+    <row r="77" spans="1:4" ht="48" customHeight="1">
+      <c r="A77" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+    </row>
+    <row r="79" spans="1:4" ht="45" customHeight="1">
+      <c r="A79" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+    </row>
+    <row r="81" spans="1:4" ht="44" customHeight="1">
+      <c r="A81" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+    </row>
+    <row r="83" spans="1:4" ht="33" customHeight="1">
+      <c r="A83" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="40" customHeight="1">
+      <c r="A84" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30" customHeight="1">
+      <c r="A85" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+    </row>
+    <row r="87" spans="1:4" ht="43" customHeight="1">
+      <c r="A87" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+    </row>
+    <row r="90" spans="1:4" ht="48" customHeight="1">
+      <c r="A90" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+    </row>
+    <row r="92" spans="1:4" ht="45" customHeight="1">
+      <c r="A92" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+    </row>
+    <row r="94" spans="1:4" ht="44" customHeight="1">
+      <c r="A94" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+    </row>
+    <row r="96" spans="1:4" ht="33" customHeight="1">
+      <c r="A96" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="40" customHeight="1">
+      <c r="A97" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30" customHeight="1">
+      <c r="A98" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+    </row>
+    <row r="100" spans="1:4" ht="43" customHeight="1">
+      <c r="A100" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+    </row>
+    <row r="103" spans="1:4" ht="48" customHeight="1">
+      <c r="A103" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+    </row>
+    <row r="105" spans="1:4" ht="45" customHeight="1">
+      <c r="A105" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+    </row>
+    <row r="107" spans="1:4" ht="44" customHeight="1">
+      <c r="A107" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+    </row>
+    <row r="109" spans="1:4" ht="33" customHeight="1">
+      <c r="A109" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="40" customHeight="1">
+      <c r="A110" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="30" customHeight="1">
+      <c r="A111" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+    </row>
+    <row r="113" spans="1:4" ht="43" customHeight="1">
+      <c r="A113" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+    </row>
+    <row r="116" spans="1:4" ht="48" customHeight="1">
+      <c r="A116" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="20"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+    </row>
+    <row r="118" spans="1:4" ht="45" customHeight="1">
+      <c r="A118" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+    </row>
+    <row r="120" spans="1:4" ht="44" customHeight="1">
+      <c r="A120" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+    </row>
+    <row r="122" spans="1:4" ht="33" customHeight="1">
+      <c r="A122" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="40" customHeight="1">
+      <c r="A123" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="30" customHeight="1">
+      <c r="A124" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+    </row>
+    <row r="126" spans="1:4" ht="43" customHeight="1">
+      <c r="A126" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="27"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+    </row>
+    <row r="129" spans="1:4" ht="48" customHeight="1">
+      <c r="A129" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="20"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+    </row>
+    <row r="131" spans="1:4" ht="45" customHeight="1">
+      <c r="A131" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" s="21"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+    </row>
+    <row r="133" spans="1:4" ht="44" customHeight="1">
+      <c r="A133" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+    </row>
+    <row r="135" spans="1:4" ht="33" customHeight="1">
+      <c r="A135" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="40" customHeight="1">
+      <c r="A136" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="30" customHeight="1">
+      <c r="A137" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B137" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
+    </row>
+    <row r="139" spans="1:4" ht="43" customHeight="1">
+      <c r="A139" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="27"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="27"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="27"/>
+    </row>
+    <row r="142" spans="1:4" ht="48" customHeight="1">
+      <c r="A142" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="20"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+    </row>
+    <row r="144" spans="1:4" ht="45" customHeight="1">
+      <c r="A144" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="20"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+    </row>
+    <row r="146" spans="1:4" ht="44" customHeight="1">
+      <c r="A146" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="20"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+    </row>
+    <row r="148" spans="1:4" ht="33" customHeight="1">
+      <c r="A148" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="40" customHeight="1">
+      <c r="A149" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B149" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="30" customHeight="1">
+      <c r="A150" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B150" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="25"/>
+    </row>
+    <row r="152" spans="1:4" ht="43" customHeight="1">
+      <c r="A152" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="27"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="27"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="98">
+    <mergeCell ref="A153:D154"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A140:D141"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A127:D128"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A88:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A60:D61"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="1400" windowWidth="21560" windowHeight="18920" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="280" yWindow="0" windowWidth="38340" windowHeight="21140" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="类别相关接口" sheetId="4" r:id="rId3"/>
     <sheet name="Banner广告相关接口" sheetId="6" r:id="rId4"/>
     <sheet name="目标相关接口" sheetId="7" r:id="rId5"/>
+    <sheet name="目标记录相关接口" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="178">
   <si>
     <t>1.获取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,18 +466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET /goals/:filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过滤参数,值为：hot, recent, unsupervise三者之一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类别id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,10 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调用示例：GET /goals/show/23?token=xxxxxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,18 +510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>note_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>note_id=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调用示例：GET /goals/12/notes/3?token=xxxxxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,6 +659,82 @@
   </si>
   <si>
     <t>11.删除目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标记录相关接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.创建目标记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /notes/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body=3xxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片数据数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.评论目标记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /notes/:note_id/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /notes/12/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /goals/:filter  ( 备注：filter值为 hot, recent, unsupervise 三者之一，分别对应热门，最新，求督促 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.点赞目标记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /notes/:note_id/like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /notes/12/like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /notes/:note_id/cancel_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /notes/12/cancel_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.取消点赞目标记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,8 +883,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1042,7 +1107,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="135">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1102,6 +1167,14 @@
     <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1161,6 +1234,14 @@
     <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3083,10 +3164,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:D144"/>
+    <sheetView showRuler="0" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3289,9 +3370,9 @@
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
     </row>
-    <row r="23" spans="1:4" ht="45" customHeight="1">
+    <row r="23" spans="1:4" ht="55" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -3331,59 +3412,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="66" customHeight="1">
+    <row r="28" spans="1:4" ht="29" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="94" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" ht="50" customHeight="1">
+      <c r="A31" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="29" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="94" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-    </row>
-    <row r="32" spans="1:4" ht="50" customHeight="1">
-      <c r="A32" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="27"/>
@@ -3391,129 +3466,123 @@
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-    </row>
-    <row r="35" spans="1:4" ht="48" customHeight="1">
-      <c r="A35" s="19" t="s">
+    <row r="34" spans="1:4" ht="48" customHeight="1">
+      <c r="A34" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="1:4" ht="45" customHeight="1">
+      <c r="A36" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="1:4" ht="44" customHeight="1">
+      <c r="A38" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="1:4" ht="33" customHeight="1">
+      <c r="A40" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="94" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" ht="85" customHeight="1">
+      <c r="A43" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:4" ht="45" customHeight="1">
-      <c r="A37" s="21" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" ht="48" customHeight="1">
+      <c r="A46" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" ht="44" customHeight="1">
-      <c r="A39" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:4" ht="33" customHeight="1">
-      <c r="A41" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="37" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" ht="45" customHeight="1">
+      <c r="A48" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="94" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-    </row>
-    <row r="45" spans="1:4" ht="85" customHeight="1">
-      <c r="A45" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-    </row>
-    <row r="48" spans="1:4" ht="48" customHeight="1">
-      <c r="A48" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="20"/>
@@ -3521,13 +3590,13 @@
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
     </row>
-    <row r="50" spans="1:4" ht="45" customHeight="1">
-      <c r="A50" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+    <row r="50" spans="1:4" ht="44" customHeight="1">
+      <c r="A50" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="20"/>
@@ -3535,725 +3604,695 @@
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
     </row>
-    <row r="52" spans="1:4" ht="44" customHeight="1">
-      <c r="A52" s="19" t="s">
+    <row r="52" spans="1:4" ht="33" customHeight="1">
+      <c r="A52" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="94" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+    </row>
+    <row r="55" spans="1:4" ht="43" customHeight="1">
+      <c r="A55" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+    </row>
+    <row r="58" spans="1:4" ht="48" customHeight="1">
+      <c r="A58" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" ht="45" customHeight="1">
+      <c r="A60" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" ht="44" customHeight="1">
+      <c r="A62" s="19" t="s">
         <v>2</v>
-      </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-    </row>
-    <row r="54" spans="1:4" ht="33" customHeight="1">
-      <c r="A54" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="46" customHeight="1">
-      <c r="A55" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="46" customHeight="1">
-      <c r="A56" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="94" customHeight="1">
-      <c r="A57" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-    </row>
-    <row r="59" spans="1:4" ht="43" customHeight="1">
-      <c r="A59" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-    </row>
-    <row r="62" spans="1:4" ht="48" customHeight="1">
-      <c r="A62" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:4" ht="45" customHeight="1">
-      <c r="A64" s="21" t="s">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+    </row>
+    <row r="64" spans="1:4" ht="33" customHeight="1">
+      <c r="A64" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" customHeight="1">
+      <c r="A65" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" customHeight="1">
+      <c r="A66" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" customHeight="1">
+      <c r="A67" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-    </row>
-    <row r="66" spans="1:4" ht="44" customHeight="1">
-      <c r="A66" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-    </row>
-    <row r="68" spans="1:4" ht="33" customHeight="1">
-      <c r="A68" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>6</v>
+    </row>
+    <row r="68" spans="1:4" ht="63" customHeight="1">
+      <c r="A68" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="B69" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="30" customHeight="1">
-      <c r="A71" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="63" customHeight="1">
-      <c r="A72" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="30" customHeight="1">
-      <c r="A73" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="30" customHeight="1">
-      <c r="A74" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+    </row>
+    <row r="73" spans="1:4" ht="48" customHeight="1">
+      <c r="A73" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+    </row>
+    <row r="75" spans="1:4" ht="45" customHeight="1">
+      <c r="A75" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-    </row>
-    <row r="77" spans="1:4" ht="48" customHeight="1">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+    </row>
+    <row r="77" spans="1:4" ht="44" customHeight="1">
       <c r="A77" s="19" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-    </row>
-    <row r="79" spans="1:4" ht="45" customHeight="1">
-      <c r="A79" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-    </row>
-    <row r="81" spans="1:4" ht="44" customHeight="1">
-      <c r="A81" s="19" t="s">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+    </row>
+    <row r="79" spans="1:4" ht="33" customHeight="1">
+      <c r="A79" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" customHeight="1">
+      <c r="A80" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+    </row>
+    <row r="82" spans="1:4" ht="43" customHeight="1">
+      <c r="A82" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+    </row>
+    <row r="85" spans="1:4" ht="48" customHeight="1">
+      <c r="A85" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+    </row>
+    <row r="87" spans="1:4" ht="45" customHeight="1">
+      <c r="A87" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+    </row>
+    <row r="89" spans="1:4" ht="44" customHeight="1">
+      <c r="A89" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-    </row>
-    <row r="83" spans="1:4" ht="33" customHeight="1">
-      <c r="A83" s="22" t="s">
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+    </row>
+    <row r="91" spans="1:4" ht="33" customHeight="1">
+      <c r="A91" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B91" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C91" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D91" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="40" customHeight="1">
-      <c r="A84" s="6" t="s">
+    <row r="92" spans="1:4" ht="30" customHeight="1">
+      <c r="A92" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="6" t="s">
+      <c r="D92" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30" customHeight="1">
-      <c r="A85" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-    </row>
-    <row r="87" spans="1:4" ht="43" customHeight="1">
-      <c r="A87" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-    </row>
-    <row r="90" spans="1:4" ht="48" customHeight="1">
-      <c r="A90" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-    </row>
-    <row r="92" spans="1:4" ht="45" customHeight="1">
-      <c r="A92" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-    </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-    </row>
-    <row r="94" spans="1:4" ht="44" customHeight="1">
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+    </row>
+    <row r="94" spans="1:4" ht="43" customHeight="1">
       <c r="A94" s="19" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-    </row>
-    <row r="96" spans="1:4" ht="33" customHeight="1">
-      <c r="A96" s="22" t="s">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+    </row>
+    <row r="97" spans="1:4" ht="48" customHeight="1">
+      <c r="A97" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+    </row>
+    <row r="99" spans="1:4" ht="45" customHeight="1">
+      <c r="A99" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+    </row>
+    <row r="101" spans="1:4" ht="44" customHeight="1">
+      <c r="A101" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+    </row>
+    <row r="103" spans="1:4" ht="33" customHeight="1">
+      <c r="A103" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B103" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C103" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D103" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="40" customHeight="1">
-      <c r="A97" s="6" t="s">
+    <row r="104" spans="1:4" ht="30" customHeight="1">
+      <c r="A104" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B97" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D97" s="6" t="s">
+      <c r="D104" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30" customHeight="1">
-      <c r="A98" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="6" t="s">
+    <row r="105" spans="1:4">
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+    </row>
+    <row r="106" spans="1:4" ht="43" customHeight="1">
+      <c r="A106" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+    </row>
+    <row r="109" spans="1:4" ht="48" customHeight="1">
+      <c r="A109" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+    </row>
+    <row r="111" spans="1:4" ht="45" customHeight="1">
+      <c r="A111" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-    </row>
-    <row r="100" spans="1:4" ht="43" customHeight="1">
-      <c r="A100" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-    </row>
-    <row r="103" spans="1:4" ht="48" customHeight="1">
-      <c r="A103" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-    </row>
-    <row r="105" spans="1:4" ht="45" customHeight="1">
-      <c r="A105" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-    </row>
-    <row r="107" spans="1:4" ht="44" customHeight="1">
-      <c r="A107" s="19" t="s">
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+    </row>
+    <row r="113" spans="1:4" ht="44" customHeight="1">
+      <c r="A113" s="19" t="s">
         <v>2</v>
-      </c>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="20"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-    </row>
-    <row r="109" spans="1:4" ht="33" customHeight="1">
-      <c r="A109" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="40" customHeight="1">
-      <c r="A110" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B110" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="30" customHeight="1">
-      <c r="A111" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B111" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-    </row>
-    <row r="113" spans="1:4" ht="43" customHeight="1">
-      <c r="A113" s="19" t="s">
-        <v>136</v>
       </c>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="27"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-    </row>
-    <row r="116" spans="1:4" ht="48" customHeight="1">
-      <c r="A116" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+    </row>
+    <row r="115" spans="1:4" ht="33" customHeight="1">
+      <c r="A115" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="30" customHeight="1">
+      <c r="A116" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-    </row>
-    <row r="118" spans="1:4" ht="45" customHeight="1">
-      <c r="A118" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B118" s="21"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="21"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+    </row>
+    <row r="118" spans="1:4" ht="43" customHeight="1">
+      <c r="A118" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="20"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-    </row>
-    <row r="120" spans="1:4" ht="44" customHeight="1">
-      <c r="A120" s="19" t="s">
+      <c r="A119" s="27"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="27"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+    </row>
+    <row r="121" spans="1:4" ht="48" customHeight="1">
+      <c r="A121" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+    </row>
+    <row r="123" spans="1:4" ht="45" customHeight="1">
+      <c r="A123" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+    </row>
+    <row r="125" spans="1:4" ht="44" customHeight="1">
+      <c r="A125" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="20"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
-    </row>
-    <row r="122" spans="1:4" ht="33" customHeight="1">
-      <c r="A122" s="22" t="s">
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="20"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+    </row>
+    <row r="127" spans="1:4" ht="33" customHeight="1">
+      <c r="A127" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B127" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C127" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D127" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="40" customHeight="1">
-      <c r="A123" s="6" t="s">
+    <row r="128" spans="1:4" ht="30" customHeight="1">
+      <c r="A128" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D123" s="6" t="s">
+      <c r="D128" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="30" customHeight="1">
-      <c r="A124" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B124" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="25"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
-    </row>
-    <row r="126" spans="1:4" ht="43" customHeight="1">
-      <c r="A126" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="27"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-    </row>
-    <row r="129" spans="1:4" ht="48" customHeight="1">
-      <c r="A129" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="20"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
-    </row>
-    <row r="131" spans="1:4" ht="45" customHeight="1">
-      <c r="A131" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
+    <row r="129" spans="1:4">
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+    </row>
+    <row r="130" spans="1:4" ht="43" customHeight="1">
+      <c r="A130" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="27"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="20"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-    </row>
-    <row r="133" spans="1:4" ht="44" customHeight="1">
+      <c r="A132" s="27"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+    </row>
+    <row r="133" spans="1:4" ht="48" customHeight="1">
       <c r="A133" s="19" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
@@ -4265,272 +4304,176 @@
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
     </row>
-    <row r="135" spans="1:4" ht="33" customHeight="1">
-      <c r="A135" s="22" t="s">
+    <row r="135" spans="1:4" ht="45" customHeight="1">
+      <c r="A135" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+    </row>
+    <row r="137" spans="1:4" ht="44" customHeight="1">
+      <c r="A137" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+    </row>
+    <row r="139" spans="1:4" ht="33" customHeight="1">
+      <c r="A139" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="B139" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C135" s="22" t="s">
+      <c r="C139" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D135" s="22" t="s">
+      <c r="D139" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="40" customHeight="1">
-      <c r="A136" s="6" t="s">
+    <row r="140" spans="1:4" ht="30" customHeight="1">
+      <c r="A140" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B136" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D136" s="6" t="s">
+      <c r="D140" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="30" customHeight="1">
-      <c r="A137" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B137" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="25"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
-    </row>
-    <row r="139" spans="1:4" ht="43" customHeight="1">
-      <c r="A139" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
-    </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="27"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="27"/>
-      <c r="D141" s="27"/>
-    </row>
-    <row r="142" spans="1:4" ht="48" customHeight="1">
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
+    </row>
+    <row r="142" spans="1:4" ht="43" customHeight="1">
       <c r="A142" s="19" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="20"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-    </row>
-    <row r="144" spans="1:4" ht="45" customHeight="1">
-      <c r="A144" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="21"/>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="20"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="20"/>
-    </row>
-    <row r="146" spans="1:4" ht="44" customHeight="1">
-      <c r="A146" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="20"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
-    </row>
-    <row r="148" spans="1:4" ht="33" customHeight="1">
-      <c r="A148" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B148" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="40" customHeight="1">
-      <c r="A149" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B149" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="30" customHeight="1">
-      <c r="A150" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B150" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="25"/>
-      <c r="B151" s="25"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
-    </row>
-    <row r="152" spans="1:4" ht="43" customHeight="1">
-      <c r="A152" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="27"/>
-      <c r="B153" s="27"/>
-      <c r="C153" s="27"/>
-      <c r="D153" s="27"/>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="27"/>
-      <c r="B154" s="27"/>
-      <c r="C154" s="27"/>
-      <c r="D154" s="27"/>
+      <c r="A143" s="27"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="27"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A153:D154"/>
+    <mergeCell ref="A143:D144"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A152:D152"/>
-    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:D137"/>
     <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A140:D141"/>
+    <mergeCell ref="A141:D141"/>
     <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A127:D128"/>
+    <mergeCell ref="A126:D126"/>
     <mergeCell ref="A129:D129"/>
     <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A131:D132"/>
     <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A119:D120"/>
     <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A124:D124"/>
     <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A111:D111"/>
     <mergeCell ref="A112:D112"/>
     <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D115"/>
-    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A114:D114"/>
     <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A102:D102"/>
     <mergeCell ref="A105:D105"/>
     <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A95:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:D90"/>
     <mergeCell ref="A93:D93"/>
     <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A78:D78"/>
     <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A88:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A60:D61"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
     <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A1:D4"/>
@@ -4553,4 +4496,505 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="66.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" ht="44" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" ht="33" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" ht="48" customHeight="1">
+      <c r="A18" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" ht="45" customHeight="1">
+      <c r="A20" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" ht="44" customHeight="1">
+      <c r="A22" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" ht="33" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" ht="43" customHeight="1">
+      <c r="A28" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" ht="48" customHeight="1">
+      <c r="A31" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="1:4" ht="45" customHeight="1">
+      <c r="A33" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" spans="1:4" ht="44" customHeight="1">
+      <c r="A35" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+    </row>
+    <row r="37" spans="1:4" ht="33" customHeight="1">
+      <c r="A37" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" ht="43" customHeight="1">
+      <c r="A40" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" ht="48" customHeight="1">
+      <c r="A43" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:4" ht="45" customHeight="1">
+      <c r="A45" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:4" ht="44" customHeight="1">
+      <c r="A47" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="1:4" ht="33" customHeight="1">
+      <c r="A49" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" ht="43" customHeight="1">
+      <c r="A52" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="0" windowWidth="38340" windowHeight="21140" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="9760" yWindow="0" windowWidth="38340" windowHeight="21140" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="Banner广告相关接口" sheetId="6" r:id="rId4"/>
     <sheet name="目标相关接口" sheetId="7" r:id="rId5"/>
     <sheet name="目标记录相关接口" sheetId="8" r:id="rId6"/>
+    <sheet name="督促目标相关接口" sheetId="9" r:id="rId7"/>
+    <sheet name="消息相关接口" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="237">
   <si>
     <t>1.获取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -735,6 +737,242 @@
   </si>
   <si>
     <t>4.取消点赞目标记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>督促目标相关接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.督促目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /supervises/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.接受督促</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /supervises/:supervise_id/accept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /supervises/12/accept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.拒绝督促</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /supervises/:supervise_id/refuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /supervises/12/refuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.更换目标督促人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /supervises/destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息相关接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.获取用户未读消息条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /messages/unread_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /messages/unread_count?token=xxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.根据消息类别汇总消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /messages/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /messages/list?token=xxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.读某个消息类别下的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /messages/read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类别，值为：1,2,3,4中的一个，分别对应：系统消息，评论消息，加油消息，粉丝消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_type=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /messages/read?token=xxxxxx&amp;message_type=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /talks/send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content=xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息接受者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_id=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /talks/read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender_id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /talks/read?token=xxxxxx&amp;sender_id=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.发送聊天信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.获取某个用户与我的聊天记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.意见反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /feedbacks/send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body=xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：前端在展示聊天记录时，需要像QQ消息那样展示。可以通过比较sender_id与每一条聊天记录的sender_id进行比较，如果二者相等表示是我自己发布的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model=iPod4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os=iOS 8.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang=zh_CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app当前版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version=1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备id，如果是iOS 可以使用open udid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid=osAXCDD234kdddddd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,8 +1121,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1107,7 +1383,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="173">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1175,6 +1451,25 @@
     <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1242,6 +1537,25 @@
     <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1593,7 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A71" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
@@ -3019,7 +3333,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A5" sqref="A5:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3154,6 +3468,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4502,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:D45"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4997,4 +5312,1287 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="65.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" ht="44" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" ht="33" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" ht="48" customHeight="1">
+      <c r="A16" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" ht="45" customHeight="1">
+      <c r="A18" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" ht="44" customHeight="1">
+      <c r="A20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4" ht="33" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" ht="43" customHeight="1">
+      <c r="A26" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" ht="48" customHeight="1">
+      <c r="A29" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="1:4" ht="45" customHeight="1">
+      <c r="A31" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="1:4" ht="44" customHeight="1">
+      <c r="A33" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+    </row>
+    <row r="35" spans="1:4" ht="33" customHeight="1">
+      <c r="A35" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="40" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" ht="43" customHeight="1">
+      <c r="A39" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" ht="48" customHeight="1">
+      <c r="A42" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:4" ht="45" customHeight="1">
+      <c r="A44" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" ht="44" customHeight="1">
+      <c r="A46" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="1:4" ht="33" customHeight="1">
+      <c r="A48" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="40" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="44" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="33" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" ht="44" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" ht="48" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="45" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="44" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="33" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" ht="44" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" ht="48" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" ht="45" customHeight="1">
+      <c r="A31" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="44" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" ht="33" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="83" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" ht="44" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" ht="48" customHeight="1">
+      <c r="A42" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:4" ht="45" customHeight="1">
+      <c r="A44" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" ht="44" customHeight="1">
+      <c r="A46" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="1:4" ht="33" customHeight="1">
+      <c r="A48" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="40" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" spans="1:4" ht="48" customHeight="1">
+      <c r="A54" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" ht="45" customHeight="1">
+      <c r="A56" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" ht="44" customHeight="1">
+      <c r="A58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" ht="33" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" customHeight="1">
+      <c r="A61" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="40" customHeight="1">
+      <c r="A62" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="1:4" ht="44" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+    </row>
+    <row r="66" spans="1:4" ht="71" customHeight="1">
+      <c r="A66" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+    </row>
+    <row r="69" spans="1:4" ht="48" customHeight="1">
+      <c r="A69" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+    </row>
+    <row r="71" spans="1:4" ht="45" customHeight="1">
+      <c r="A71" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+    </row>
+    <row r="73" spans="1:4" ht="44" customHeight="1">
+      <c r="A73" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+    </row>
+    <row r="75" spans="1:4" ht="33" customHeight="1">
+      <c r="A75" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="40" customHeight="1">
+      <c r="A76" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" customHeight="1">
+      <c r="A77" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" customHeight="1">
+      <c r="A78" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" customHeight="1">
+      <c r="A79" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" customHeight="1">
+      <c r="A80" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="48" customHeight="1">
+      <c r="A81" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D68"/>
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="0" windowWidth="38340" windowHeight="21140" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="2320" yWindow="460" windowWidth="35420" windowHeight="18220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="271">
   <si>
     <t>1.获取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -973,6 +973,142 @@
   </si>
   <si>
     <t>uid=osAXCDD234kdddddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Host: http://ip/api/v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示操作成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态码说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要拒绝的督促不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要更换的督促不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不正确的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一手机号1分钟内只能获取一次验证码，请稍后重试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一手机号24小时内只能获取5次验证码，请稍后再试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新用户资料失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注用户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关注失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能关注自己的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您已经关注了该目标，不能多次关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注目标失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关注目标失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消加油失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃目标失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除目标失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建记录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消点赞失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属类别不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建目标失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己不能督促自己的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要接受的督促不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受督促失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信服务商报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号被禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户未登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1075,6 +1211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,7 +1263,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1295,8 +1437,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,22 +1462,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1340,17 +1495,17 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1361,29 +1516,47 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="177">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1470,6 +1643,8 @@
     <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1556,6 +1731,8 @@
     <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1885,16 +2062,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="45" customHeight="1">
+      <c r="A1" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" ht="39" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="23" customHeight="1">
+      <c r="A3" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="29" customHeight="1">
+      <c r="A4" s="34">
+        <v>0</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" ht="29" customHeight="1">
+      <c r="A5" s="34">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" ht="29" customHeight="1">
+      <c r="A6" s="34">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" ht="29" customHeight="1">
+      <c r="A7" s="34">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" ht="29" customHeight="1">
+      <c r="A8" s="34">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" ht="29" customHeight="1">
+      <c r="A9" s="34">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6" ht="29" customHeight="1">
+      <c r="A10" s="34">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" ht="29" customHeight="1">
+      <c r="A11" s="34">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6" ht="29" customHeight="1">
+      <c r="A12" s="34">
+        <v>1012</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" ht="29" customHeight="1">
+      <c r="A13" s="34">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" ht="29" customHeight="1">
+      <c r="A14" s="34">
+        <v>2002</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:6" ht="29" customHeight="1">
+      <c r="A15" s="34">
+        <v>2003</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:6" ht="29" customHeight="1">
+      <c r="A16" s="34">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" ht="29" customHeight="1">
+      <c r="A17" s="34">
+        <v>2005</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" spans="1:6" ht="29" customHeight="1">
+      <c r="A18" s="34">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" ht="29" customHeight="1">
+      <c r="A19" s="34">
+        <v>2007</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" ht="29" customHeight="1">
+      <c r="A20" s="34">
+        <v>2008</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" ht="29" customHeight="1">
+      <c r="A21" s="34">
+        <v>3001</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:6" ht="29" customHeight="1">
+      <c r="A22" s="34">
+        <v>3002</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" ht="29" customHeight="1">
+      <c r="A23" s="34">
+        <v>3003</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:6" ht="29" customHeight="1">
+      <c r="A24" s="34">
+        <v>4001</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" ht="29" customHeight="1">
+      <c r="A25" s="34">
+        <v>4002</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:6" ht="29" customHeight="1">
+      <c r="A26" s="34">
+        <v>4003</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="1:6" ht="29" customHeight="1">
+      <c r="A27" s="34">
+        <v>4004</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" ht="29" customHeight="1">
+      <c r="A28" s="34">
+        <v>4005</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:6" ht="29" customHeight="1">
+      <c r="A29" s="34">
+        <v>4006</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="1:6" ht="29" customHeight="1">
+      <c r="A30" s="34">
+        <v>4007</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" ht="29" customHeight="1">
+      <c r="A31" s="34">
+        <v>-1</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" spans="1:6" ht="29" customHeight="1">
+      <c r="A32" s="34">
+        <v>-10</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:6" ht="29" customHeight="1">
+      <c r="A33" s="34">
+        <v>401</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1920,72 +2501,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -2028,12 +2609,12 @@
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="48" customHeight="1">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="12"/>
@@ -2042,12 +2623,12 @@
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="12"/>
@@ -2056,18 +2637,18 @@
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="44" customHeight="1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1">
       <c r="A21" s="2" t="s">
@@ -2124,12 +2705,12 @@
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="12"/>
@@ -2138,12 +2719,12 @@
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="45" customHeight="1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="12"/>
@@ -2152,18 +2733,18 @@
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="44" customHeight="1">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1">
       <c r="A32" s="2" t="s">
@@ -2206,46 +2787,46 @@
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="48" customHeight="1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" ht="45" customHeight="1">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4" ht="44" customHeight="1">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -2300,46 +2881,46 @@
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" ht="48" customHeight="1">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
     </row>
     <row r="49" spans="1:4" ht="45" customHeight="1">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4" ht="44" customHeight="1">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" ht="33" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -2464,46 +3045,46 @@
       <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4" ht="48" customHeight="1">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
     </row>
     <row r="65" spans="1:4" ht="45" customHeight="1">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
     </row>
     <row r="67" spans="1:4" ht="44" customHeight="1">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
     </row>
     <row r="69" spans="1:4" ht="33" customHeight="1">
       <c r="A69" s="2" t="s">
@@ -2540,66 +3121,66 @@
       <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4" ht="44" customHeight="1">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4" ht="48" customHeight="1">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="77" spans="1:4" ht="45" customHeight="1">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
     </row>
     <row r="79" spans="1:4" ht="44" customHeight="1">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
     </row>
     <row r="81" spans="1:4" ht="33" customHeight="1">
       <c r="A81" s="2" t="s">
@@ -2634,12 +3215,12 @@
       <c r="D83" s="11"/>
     </row>
     <row r="84" spans="1:4" ht="44" customHeight="1">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="12"/>
@@ -2654,46 +3235,46 @@
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" ht="48" customHeight="1">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
     </row>
     <row r="89" spans="1:4" ht="45" customHeight="1">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
     </row>
     <row r="91" spans="1:4" ht="44" customHeight="1">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
     </row>
     <row r="93" spans="1:4" ht="33" customHeight="1">
       <c r="A93" s="2" t="s">
@@ -2730,12 +3311,12 @@
       <c r="D95" s="11"/>
     </row>
     <row r="96" spans="1:4" ht="44" customHeight="1">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12"/>
@@ -2750,46 +3331,46 @@
       <c r="D98" s="12"/>
     </row>
     <row r="99" spans="1:4" ht="48" customHeight="1">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
     </row>
     <row r="103" spans="1:4" ht="44" customHeight="1">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
     </row>
     <row r="105" spans="1:4" ht="33" customHeight="1">
       <c r="A105" s="2" t="s">
@@ -2826,12 +3407,12 @@
       <c r="D107" s="11"/>
     </row>
     <row r="108" spans="1:4" ht="44" customHeight="1">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="12"/>
@@ -2846,46 +3427,46 @@
       <c r="D110" s="12"/>
     </row>
     <row r="111" spans="1:4" ht="48" customHeight="1">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
     </row>
     <row r="113" spans="1:4" ht="45" customHeight="1">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
     </row>
     <row r="115" spans="1:4" ht="44" customHeight="1">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
     </row>
     <row r="117" spans="1:4" ht="33" customHeight="1">
       <c r="A117" s="2" t="s">
@@ -2922,12 +3503,12 @@
       <c r="D119" s="11"/>
     </row>
     <row r="120" spans="1:4" ht="44" customHeight="1">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="12"/>
@@ -2942,46 +3523,46 @@
       <c r="D122" s="12"/>
     </row>
     <row r="123" spans="1:4" ht="48" customHeight="1">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
     </row>
     <row r="125" spans="1:4" ht="45" customHeight="1">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
     </row>
     <row r="127" spans="1:4" ht="44" customHeight="1">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
     </row>
     <row r="129" spans="1:4" ht="33" customHeight="1">
       <c r="A129" s="2" t="s">
@@ -3038,46 +3619,46 @@
       <c r="D133" s="12"/>
     </row>
     <row r="134" spans="1:4" ht="48" customHeight="1">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
     </row>
     <row r="136" spans="1:4" ht="45" customHeight="1">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
     </row>
     <row r="138" spans="1:4" ht="44" customHeight="1">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
     </row>
     <row r="140" spans="1:4" ht="33" customHeight="1">
       <c r="A140" s="2" t="s">
@@ -3135,6 +3716,85 @@
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A73:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A109:D110"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A121:D122"/>
+    <mergeCell ref="A119:D119"/>
     <mergeCell ref="A143:D144"/>
     <mergeCell ref="A96:D96"/>
     <mergeCell ref="A95:D95"/>
@@ -3151,85 +3811,6 @@
     <mergeCell ref="A134:D134"/>
     <mergeCell ref="A135:D135"/>
     <mergeCell ref="A132:D133"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A121:D122"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A109:D110"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A73:D74"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3256,58 +3837,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3345,72 +3926,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -3447,12 +4028,12 @@
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3487,91 +4068,91 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="26"/>
-    <col min="3" max="3" width="26" style="26" customWidth="1"/>
-    <col min="4" max="4" width="67.6640625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="19" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="10"/>
+    <col min="3" max="3" width="26" style="10" customWidth="1"/>
+    <col min="4" max="4" width="67.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3579,7 +4160,7 @@
       <c r="A12" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3593,7 +4174,7 @@
       <c r="A13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -3607,7 +4188,7 @@
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3621,7 +4202,7 @@
       <c r="A15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -3635,7 +4216,7 @@
       <c r="A16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -3646,84 +4227,84 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" ht="85" customHeight="1">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" ht="48" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:4" ht="55" customHeight="1">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4" ht="44" customHeight="1">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3731,7 +4312,7 @@
       <c r="A28" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -3745,7 +4326,7 @@
       <c r="A29" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -3756,84 +4337,84 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4" ht="50" customHeight="1">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" ht="48" customHeight="1">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" ht="45" customHeight="1">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:4" ht="44" customHeight="1">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3841,7 +4422,7 @@
       <c r="A41" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -3852,84 +4433,84 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
     </row>
     <row r="43" spans="1:4" ht="85" customHeight="1">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" ht="48" customHeight="1">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" ht="45" customHeight="1">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" ht="44" customHeight="1">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:4" ht="33" customHeight="1">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3937,7 +4518,7 @@
       <c r="A53" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -3948,84 +4529,84 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="43" customHeight="1">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" ht="48" customHeight="1">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" ht="45" customHeight="1">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" ht="44" customHeight="1">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
     </row>
     <row r="64" spans="1:4" ht="33" customHeight="1">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4033,7 +4614,7 @@
       <c r="A65" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -4047,7 +4628,7 @@
       <c r="A66" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -4061,7 +4642,7 @@
       <c r="A67" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="6" t="s">
@@ -4075,7 +4656,7 @@
       <c r="A68" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -4089,7 +4670,7 @@
       <c r="A69" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="6" t="s">
@@ -4103,7 +4684,7 @@
       <c r="A70" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -4114,70 +4695,70 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" ht="48" customHeight="1">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
     </row>
     <row r="75" spans="1:4" ht="45" customHeight="1">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
     </row>
     <row r="77" spans="1:4" ht="44" customHeight="1">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
     </row>
     <row r="79" spans="1:4" ht="33" customHeight="1">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4185,7 +4766,7 @@
       <c r="A80" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -4196,84 +4777,84 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
     </row>
     <row r="82" spans="1:4" ht="43" customHeight="1">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4" ht="48" customHeight="1">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
     </row>
     <row r="87" spans="1:4" ht="45" customHeight="1">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
     </row>
     <row r="89" spans="1:4" ht="44" customHeight="1">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
     </row>
     <row r="91" spans="1:4" ht="33" customHeight="1">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4281,7 +4862,7 @@
       <c r="A92" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="6" t="s">
@@ -4292,84 +4873,84 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
     </row>
     <row r="94" spans="1:4" ht="43" customHeight="1">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
     </row>
     <row r="97" spans="1:4" ht="48" customHeight="1">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
     </row>
     <row r="99" spans="1:4" ht="45" customHeight="1">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
     </row>
     <row r="101" spans="1:4" ht="44" customHeight="1">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
+      <c r="A102" s="23"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
     </row>
     <row r="103" spans="1:4" ht="33" customHeight="1">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="C103" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="22" t="s">
+      <c r="D103" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4377,7 +4958,7 @@
       <c r="A104" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="24" t="s">
+      <c r="B104" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="6" t="s">
@@ -4388,84 +4969,84 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
     </row>
     <row r="106" spans="1:4" ht="43" customHeight="1">
-      <c r="A106" s="19" t="s">
+      <c r="A106" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
     </row>
     <row r="109" spans="1:4" ht="48" customHeight="1">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
     </row>
     <row r="111" spans="1:4" ht="45" customHeight="1">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="21"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
     </row>
     <row r="113" spans="1:4" ht="44" customHeight="1">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="20"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
     </row>
     <row r="115" spans="1:4" ht="33" customHeight="1">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B115" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D115" s="22" t="s">
+      <c r="D115" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4473,7 +5054,7 @@
       <c r="A116" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -4484,84 +5065,84 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="25"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
     </row>
     <row r="118" spans="1:4" ht="43" customHeight="1">
-      <c r="A118" s="19" t="s">
+      <c r="A118" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
+      <c r="A119" s="21"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="27"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
     </row>
     <row r="121" spans="1:4" ht="48" customHeight="1">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="20"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
     </row>
     <row r="123" spans="1:4" ht="45" customHeight="1">
-      <c r="A123" s="21" t="s">
+      <c r="A123" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="21"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="20"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="20"/>
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
     </row>
     <row r="125" spans="1:4" ht="44" customHeight="1">
-      <c r="A125" s="19" t="s">
+      <c r="A125" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="20"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="20"/>
+      <c r="A126" s="23"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" ht="33" customHeight="1">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B127" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C127" s="22" t="s">
+      <c r="C127" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D127" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4569,7 +5150,7 @@
       <c r="A128" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B128" s="24" t="s">
+      <c r="B128" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C128" s="6" t="s">
@@ -4580,84 +5161,84 @@
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
     </row>
     <row r="130" spans="1:4" ht="43" customHeight="1">
-      <c r="A130" s="19" t="s">
+      <c r="A130" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="27"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
+      <c r="A131" s="21"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
+      <c r="A132" s="21"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
     </row>
     <row r="133" spans="1:4" ht="48" customHeight="1">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="20"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
+      <c r="A134" s="23"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
     </row>
     <row r="135" spans="1:4" ht="45" customHeight="1">
-      <c r="A135" s="21" t="s">
+      <c r="A135" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="21"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="21"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="20"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
+      <c r="A136" s="23"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
     </row>
     <row r="137" spans="1:4" ht="44" customHeight="1">
-      <c r="A137" s="19" t="s">
+      <c r="A137" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="22"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="20"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="20"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
     </row>
     <row r="139" spans="1:4" ht="33" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="23" t="s">
+      <c r="B139" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C139" s="22" t="s">
+      <c r="C139" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D139" s="22" t="s">
+      <c r="D139" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4665,7 +5246,7 @@
       <c r="A140" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B140" s="24" t="s">
+      <c r="B140" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C140" s="6" t="s">
@@ -4676,33 +5257,115 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="25"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="25"/>
-      <c r="D141" s="25"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="26"/>
     </row>
     <row r="142" spans="1:4" ht="43" customHeight="1">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="27"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="27"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A131:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
     <mergeCell ref="A143:D144"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:D59"/>
@@ -4719,88 +5382,6 @@
     <mergeCell ref="A142:D142"/>
     <mergeCell ref="A126:D126"/>
     <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A131:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A95:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4829,84 +5410,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4914,7 +5495,7 @@
       <c r="A12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -4928,7 +5509,7 @@
       <c r="A13" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -4942,7 +5523,7 @@
       <c r="A14" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -4956,7 +5537,7 @@
       <c r="A15" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -4965,70 +5546,70 @@
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" ht="48" customHeight="1">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" ht="45" customHeight="1">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" ht="44" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5036,7 +5617,7 @@
       <c r="A25" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -5050,7 +5631,7 @@
       <c r="A26" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -5067,12 +5648,12 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="43" customHeight="1">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="12"/>
@@ -5087,58 +5668,58 @@
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" ht="48" customHeight="1">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" ht="45" customHeight="1">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" ht="44" customHeight="1">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5146,7 +5727,7 @@
       <c r="A38" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -5163,12 +5744,12 @@
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" ht="43" customHeight="1">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="12"/>
@@ -5183,58 +5764,58 @@
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="48" customHeight="1">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" ht="45" customHeight="1">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" ht="44" customHeight="1">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:4" ht="33" customHeight="1">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5242,7 +5823,7 @@
       <c r="A50" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -5259,15 +5840,39 @@
       <c r="D51" s="11"/>
     </row>
     <row r="52" spans="1:4" ht="43" customHeight="1">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A51:D51"/>
@@ -5278,30 +5883,6 @@
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5330,84 +5911,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5415,7 +5996,7 @@
       <c r="A12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -5429,7 +6010,7 @@
       <c r="A13" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -5452,58 +6033,58 @@
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="48" customHeight="1">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" ht="44" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5511,7 +6092,7 @@
       <c r="A23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -5525,7 +6106,7 @@
       <c r="A24" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -5542,12 +6123,12 @@
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="43" customHeight="1">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="12"/>
@@ -5562,58 +6143,58 @@
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5621,7 +6202,7 @@
       <c r="A36" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -5635,7 +6216,7 @@
       <c r="A37" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -5652,12 +6233,12 @@
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" ht="43" customHeight="1">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="12"/>
@@ -5672,58 +6253,58 @@
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" ht="48" customHeight="1">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" ht="45" customHeight="1">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5731,7 +6312,7 @@
       <c r="A49" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -5745,7 +6326,7 @@
       <c r="A50" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -5757,6 +6338,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A39:D39"/>
@@ -5765,30 +6370,6 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5805,7 +6386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A62" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A62" workbookViewId="0">
       <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
@@ -5817,72 +6398,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -5902,7 +6483,7 @@
       <c r="A12" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -5919,12 +6500,12 @@
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="12"/>
@@ -5939,46 +6520,46 @@
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="48" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" ht="44" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -5998,7 +6579,7 @@
       <c r="A24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -6015,12 +6596,12 @@
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="44" customHeight="1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="12"/>
@@ -6035,46 +6616,46 @@
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -6094,7 +6675,7 @@
       <c r="A36" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -6108,7 +6689,7 @@
       <c r="A37" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -6125,12 +6706,12 @@
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" ht="44" customHeight="1">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="12"/>
@@ -6145,58 +6726,58 @@
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" ht="48" customHeight="1">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" ht="45" customHeight="1">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6204,7 +6785,7 @@
       <c r="A49" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -6218,7 +6799,7 @@
       <c r="A50" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -6232,7 +6813,7 @@
       <c r="A51" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -6255,46 +6836,46 @@
       <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="48" customHeight="1">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4" ht="45" customHeight="1">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
     </row>
     <row r="58" spans="1:4" ht="44" customHeight="1">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
     </row>
     <row r="60" spans="1:4" ht="33" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -6314,7 +6895,7 @@
       <c r="A61" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -6328,7 +6909,7 @@
       <c r="A62" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -6345,12 +6926,12 @@
       <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" ht="44" customHeight="1">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="12"/>
@@ -6359,12 +6940,12 @@
       <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:4" ht="71" customHeight="1">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="12"/>
@@ -6379,58 +6960,58 @@
       <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:4" ht="48" customHeight="1">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" spans="1:4" ht="45" customHeight="1">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
     </row>
     <row r="73" spans="1:4" ht="44" customHeight="1">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
     </row>
     <row r="75" spans="1:4" ht="33" customHeight="1">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6438,7 +7019,7 @@
       <c r="A76" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -6452,7 +7033,7 @@
       <c r="A77" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="6" t="s">
@@ -6466,7 +7047,7 @@
       <c r="A78" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -6480,7 +7061,7 @@
       <c r="A79" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -6494,7 +7075,7 @@
       <c r="A80" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -6508,7 +7089,7 @@
       <c r="A81" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="6" t="s">
@@ -6532,46 +7113,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D68"/>
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
@@ -6585,6 +7126,46 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="460" windowWidth="35420" windowHeight="18220" tabRatio="500"/>
+    <workbookView xWindow="2320" yWindow="460" windowWidth="35420" windowHeight="18220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="279">
   <si>
     <t>1.获取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调用示例：GET /users/goal_geek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7.获取用户详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1109,6 +1105,42 @@
   </si>
   <si>
     <t>用户未登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别id, 可选参数，整形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?gender=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?type_id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /users/goal_geek?gender=1&amp;type_id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户性别，可选参数，整形，值为1或2，1表示男，2表示女，如果该参数不传值则表示取所有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1263,8 +1295,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="177">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1474,65 +1510,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1555,8 +1534,65 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="177">
+  <cellStyles count="181">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1645,6 +1681,8 @@
     <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1733,6 +1771,8 @@
     <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2064,7 +2104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2077,396 +2117,396 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="39" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="23" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" ht="39" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="B3" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="29" customHeight="1">
+      <c r="A4" s="15">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="29" customHeight="1">
+      <c r="A5" s="15">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="29" customHeight="1">
+      <c r="A6" s="15">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="29" customHeight="1">
+      <c r="A7" s="15">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="29" customHeight="1">
+      <c r="A8" s="15">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="29" customHeight="1">
+      <c r="A9" s="15">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="29" customHeight="1">
+      <c r="A10" s="15">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="29" customHeight="1">
+      <c r="A11" s="15">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="29" customHeight="1">
+      <c r="A12" s="15">
+        <v>1012</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="29" customHeight="1">
+      <c r="A13" s="15">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="29" customHeight="1">
+      <c r="A14" s="15">
+        <v>2002</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="29" customHeight="1">
+      <c r="A15" s="15">
+        <v>2003</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="29" customHeight="1">
+      <c r="A16" s="15">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="29" customHeight="1">
+      <c r="A17" s="15">
+        <v>2005</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="29" customHeight="1">
+      <c r="A18" s="15">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="29" customHeight="1">
+      <c r="A19" s="15">
+        <v>2007</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="29" customHeight="1">
+      <c r="A20" s="15">
+        <v>2008</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="29" customHeight="1">
+      <c r="A21" s="15">
+        <v>3001</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" ht="29" customHeight="1">
+      <c r="A22" s="15">
+        <v>3002</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="29" customHeight="1">
+      <c r="A23" s="15">
+        <v>3003</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" ht="29" customHeight="1">
+      <c r="A24" s="15">
+        <v>4001</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" ht="29" customHeight="1">
+      <c r="A25" s="15">
+        <v>4002</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="29" customHeight="1">
+      <c r="A26" s="15">
+        <v>4003</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="29" customHeight="1">
+      <c r="A27" s="15">
+        <v>4004</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="29" customHeight="1">
+      <c r="A28" s="15">
+        <v>4005</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="29" customHeight="1">
+      <c r="A29" s="15">
+        <v>4006</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:6" ht="23" customHeight="1">
-      <c r="A3" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="29" customHeight="1">
-      <c r="A4" s="34">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:6" ht="29" customHeight="1">
-      <c r="A5" s="34">
-        <v>1001</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="1:6" ht="29" customHeight="1">
-      <c r="A6" s="34">
-        <v>1002</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="1:6" ht="29" customHeight="1">
-      <c r="A7" s="34">
-        <v>1003</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="1:6" ht="29" customHeight="1">
-      <c r="A8" s="34">
-        <v>1004</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-    </row>
-    <row r="9" spans="1:6" ht="29" customHeight="1">
-      <c r="A9" s="34">
-        <v>1005</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="1:6" ht="29" customHeight="1">
-      <c r="A10" s="34">
-        <v>1006</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-    </row>
-    <row r="11" spans="1:6" ht="29" customHeight="1">
-      <c r="A11" s="34">
-        <v>1011</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-    </row>
-    <row r="12" spans="1:6" ht="29" customHeight="1">
-      <c r="A12" s="34">
-        <v>1012</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:6" ht="29" customHeight="1">
-      <c r="A13" s="34">
-        <v>2001</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:6" ht="29" customHeight="1">
-      <c r="A14" s="34">
-        <v>2002</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:6" ht="29" customHeight="1">
-      <c r="A15" s="34">
-        <v>2003</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:6" ht="29" customHeight="1">
-      <c r="A16" s="34">
-        <v>2004</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="1:6" ht="29" customHeight="1">
-      <c r="A17" s="34">
-        <v>2005</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="18" spans="1:6" ht="29" customHeight="1">
-      <c r="A18" s="34">
-        <v>2006</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="1:6" ht="29" customHeight="1">
-      <c r="A19" s="34">
-        <v>2007</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:6" ht="29" customHeight="1">
-      <c r="A20" s="34">
-        <v>2008</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:6" ht="29" customHeight="1">
-      <c r="A21" s="34">
-        <v>3001</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" spans="1:6" ht="29" customHeight="1">
-      <c r="A22" s="34">
-        <v>3002</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:6" ht="29" customHeight="1">
-      <c r="A23" s="34">
-        <v>3003</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="1:6" ht="29" customHeight="1">
-      <c r="A24" s="34">
-        <v>4001</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:6" ht="29" customHeight="1">
-      <c r="A25" s="34">
-        <v>4002</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" spans="1:6" ht="29" customHeight="1">
-      <c r="A26" s="34">
-        <v>4003</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="27" spans="1:6" ht="29" customHeight="1">
-      <c r="A27" s="34">
-        <v>4004</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:6" ht="29" customHeight="1">
-      <c r="A28" s="34">
-        <v>4005</v>
-      </c>
-      <c r="B28" s="33" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" ht="29" customHeight="1">
+      <c r="A30" s="15">
+        <v>4007</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="29" customHeight="1">
+      <c r="A31" s="15">
+        <v>-1</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" spans="1:6" ht="29" customHeight="1">
-      <c r="A29" s="34">
-        <v>4006</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:6" ht="29" customHeight="1">
-      <c r="A30" s="34">
-        <v>4007</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="1:6" ht="29" customHeight="1">
-      <c r="A31" s="34">
-        <v>-1</v>
-      </c>
-      <c r="B31" s="33" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="29" customHeight="1">
+      <c r="A32" s="15">
+        <v>-10</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-    </row>
-    <row r="32" spans="1:6" ht="29" customHeight="1">
-      <c r="A32" s="34">
-        <v>-10</v>
-      </c>
-      <c r="B32" s="33" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="29" customHeight="1">
+      <c r="A33" s="15">
+        <v>401</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="1:6" ht="29" customHeight="1">
-      <c r="A33" s="34">
-        <v>401</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2486,10 +2526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2501,72 +2541,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -2597,58 +2637,58 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4" ht="48" customHeight="1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" ht="44" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1">
       <c r="A21" s="2" t="s">
@@ -2693,58 +2733,58 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" ht="45" customHeight="1">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:4" ht="44" customHeight="1">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1">
       <c r="A32" s="2" t="s">
@@ -2775,58 +2815,58 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:4" ht="48" customHeight="1">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" spans="1:4" ht="45" customHeight="1">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" spans="1:4" ht="44" customHeight="1">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -2869,58 +2909,58 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" ht="48" customHeight="1">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:4" ht="45" customHeight="1">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
     </row>
     <row r="51" spans="1:4" ht="44" customHeight="1">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
     </row>
     <row r="53" spans="1:4" ht="33" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -3033,58 +3073,58 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:4" ht="48" customHeight="1">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
     </row>
     <row r="65" spans="1:4" ht="45" customHeight="1">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
     </row>
     <row r="67" spans="1:4" ht="44" customHeight="1">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4" ht="33" customHeight="1">
       <c r="A69" s="2" t="s">
@@ -3108,614 +3148,723 @@
         <v>9</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-    </row>
-    <row r="72" spans="1:4" ht="44" customHeight="1">
-      <c r="A72" s="13" t="s">
+    <row r="71" spans="1:4" ht="88" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="27" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+    </row>
+    <row r="74" spans="1:4" ht="44" customHeight="1">
+      <c r="A74" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" ht="48" customHeight="1">
+      <c r="A77" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-    </row>
-    <row r="75" spans="1:4" ht="48" customHeight="1">
-      <c r="A75" s="13" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+    </row>
+    <row r="79" spans="1:4" ht="45" customHeight="1">
+      <c r="A79" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-    </row>
-    <row r="77" spans="1:4" ht="45" customHeight="1">
-      <c r="A77" s="14" t="s">
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+    </row>
+    <row r="81" spans="1:4" ht="44" customHeight="1">
+      <c r="A81" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+    </row>
+    <row r="83" spans="1:4" ht="33" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="29" customHeight="1">
+      <c r="A84" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-    </row>
-    <row r="79" spans="1:4" ht="44" customHeight="1">
-      <c r="A79" s="13" t="s">
+      <c r="B84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+    </row>
+    <row r="86" spans="1:4" ht="44" customHeight="1">
+      <c r="A86" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+    </row>
+    <row r="89" spans="1:4" ht="48" customHeight="1">
+      <c r="A89" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+    </row>
+    <row r="91" spans="1:4" ht="45" customHeight="1">
+      <c r="A91" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+    </row>
+    <row r="93" spans="1:4" ht="44" customHeight="1">
+      <c r="A93" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-    </row>
-    <row r="81" spans="1:4" ht="33" customHeight="1">
-      <c r="A81" s="2" t="s">
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+    </row>
+    <row r="95" spans="1:4" ht="33" customHeight="1">
+      <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="29" customHeight="1">
-      <c r="A82" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" s="5" t="s">
+    <row r="96" spans="1:4" ht="29" customHeight="1">
+      <c r="A96" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-    </row>
-    <row r="84" spans="1:4" ht="44" customHeight="1">
-      <c r="A84" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-    </row>
-    <row r="87" spans="1:4" ht="48" customHeight="1">
-      <c r="A87" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-    </row>
-    <row r="89" spans="1:4" ht="45" customHeight="1">
-      <c r="A89" s="14" t="s">
+      <c r="C96" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+    </row>
+    <row r="98" spans="1:4" ht="44" customHeight="1">
+      <c r="A98" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="22"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+    </row>
+    <row r="101" spans="1:4" ht="48" customHeight="1">
+      <c r="A101" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+    </row>
+    <row r="103" spans="1:4" ht="45" customHeight="1">
+      <c r="A103" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+    </row>
+    <row r="105" spans="1:4" ht="44" customHeight="1">
+      <c r="A105" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+    </row>
+    <row r="107" spans="1:4" ht="33" customHeight="1">
+      <c r="A107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="29" customHeight="1">
+      <c r="A108" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-    </row>
-    <row r="91" spans="1:4" ht="44" customHeight="1">
-      <c r="A91" s="13" t="s">
+      <c r="B108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="21"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+    </row>
+    <row r="110" spans="1:4" ht="44" customHeight="1">
+      <c r="A110" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="22"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="22"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+    </row>
+    <row r="113" spans="1:4" ht="48" customHeight="1">
+      <c r="A113" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" s="26"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+    </row>
+    <row r="115" spans="1:4" ht="45" customHeight="1">
+      <c r="A115" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="25"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+    </row>
+    <row r="117" spans="1:4" ht="44" customHeight="1">
+      <c r="A117" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-    </row>
-    <row r="93" spans="1:4" ht="33" customHeight="1">
-      <c r="A93" s="2" t="s">
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+    </row>
+    <row r="119" spans="1:4" ht="33" customHeight="1">
+      <c r="A119" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="29" customHeight="1">
-      <c r="A94" s="4" t="s">
+    <row r="120" spans="1:4" ht="29" customHeight="1">
+      <c r="A120" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="D120" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="21"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+    </row>
+    <row r="122" spans="1:4" ht="44" customHeight="1">
+      <c r="A122" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="22"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="22"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+    </row>
+    <row r="125" spans="1:4" ht="48" customHeight="1">
+      <c r="A125" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B125" s="26"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+    </row>
+    <row r="127" spans="1:4" ht="45" customHeight="1">
+      <c r="A127" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+    </row>
+    <row r="129" spans="1:4" ht="44" customHeight="1">
+      <c r="A129" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="26"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+    </row>
+    <row r="131" spans="1:4" ht="33" customHeight="1">
+      <c r="A131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="29" customHeight="1">
+      <c r="A132" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C132" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-    </row>
-    <row r="96" spans="1:4" ht="44" customHeight="1">
-      <c r="A96" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-    </row>
-    <row r="99" spans="1:4" ht="48" customHeight="1">
-      <c r="A99" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-    </row>
-    <row r="101" spans="1:4" ht="45" customHeight="1">
-      <c r="A101" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-    </row>
-    <row r="103" spans="1:4" ht="44" customHeight="1">
-      <c r="A103" s="13" t="s">
+    </row>
+    <row r="133" spans="1:4" ht="29" customHeight="1">
+      <c r="A133" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="21"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="22"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+    </row>
+    <row r="136" spans="1:4" ht="48" customHeight="1">
+      <c r="A136" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B136" s="26"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="26"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="25"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+    </row>
+    <row r="138" spans="1:4" ht="45" customHeight="1">
+      <c r="A138" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B138" s="27"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
+    </row>
+    <row r="140" spans="1:4" ht="44" customHeight="1">
+      <c r="A140" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-    </row>
-    <row r="105" spans="1:4" ht="33" customHeight="1">
-      <c r="A105" s="2" t="s">
+      <c r="B140" s="26"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="26"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
+    </row>
+    <row r="142" spans="1:4" ht="33" customHeight="1">
+      <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B142" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="29" customHeight="1">
-      <c r="A106" s="4" t="s">
+    <row r="143" spans="1:4" ht="29" customHeight="1">
+      <c r="A143" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="D143" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="29" customHeight="1">
+      <c r="A144" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B144" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-    </row>
-    <row r="108" spans="1:4" ht="44" customHeight="1">
-      <c r="A108" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-    </row>
-    <row r="111" spans="1:4" ht="48" customHeight="1">
-      <c r="A111" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-    </row>
-    <row r="113" spans="1:4" ht="45" customHeight="1">
-      <c r="A113" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-    </row>
-    <row r="115" spans="1:4" ht="44" customHeight="1">
-      <c r="A115" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-    </row>
-    <row r="117" spans="1:4" ht="33" customHeight="1">
-      <c r="A117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="29" customHeight="1">
-      <c r="A118" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-    </row>
-    <row r="120" spans="1:4" ht="44" customHeight="1">
-      <c r="A120" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-    </row>
-    <row r="123" spans="1:4" ht="48" customHeight="1">
-      <c r="A123" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-    </row>
-    <row r="125" spans="1:4" ht="45" customHeight="1">
-      <c r="A125" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-    </row>
-    <row r="127" spans="1:4" ht="44" customHeight="1">
-      <c r="A127" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-    </row>
-    <row r="129" spans="1:4" ht="33" customHeight="1">
-      <c r="A129" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="29" customHeight="1">
-      <c r="A130" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="29" customHeight="1">
-      <c r="A131" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" s="4" t="s">
+      <c r="D144" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-    </row>
-    <row r="134" spans="1:4" ht="48" customHeight="1">
-      <c r="A134" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B134" s="13"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="15"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-    </row>
-    <row r="136" spans="1:4" ht="45" customHeight="1">
-      <c r="A136" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="15"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-    </row>
-    <row r="138" spans="1:4" ht="44" customHeight="1">
-      <c r="A138" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="15"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-    </row>
-    <row r="140" spans="1:4" ht="33" customHeight="1">
-      <c r="A140" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="29" customHeight="1">
-      <c r="A141" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="29" customHeight="1">
-      <c r="A142" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="12"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="21"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="22"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="A145:D146"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A134:D135"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D124"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="A13:D14"/>
@@ -3730,87 +3879,6 @@
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A73:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A109:D110"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A121:D122"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A143:D144"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A132:D133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3837,58 +3905,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1">
+      <c r="A5" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1">
+      <c r="A7" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3926,72 +3994,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1">
+      <c r="A5" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1">
+      <c r="A7" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -4009,31 +4077,31 @@
     </row>
     <row r="12" spans="1:4" ht="29" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" ht="44" customHeight="1">
+      <c r="A14" s="26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4075,72 +4143,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1">
+      <c r="A5" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -4158,30 +4226,30 @@
     </row>
     <row r="12" spans="1:4" ht="29" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="76" customHeight="1">
@@ -4192,107 +4260,107 @@
         <v>27</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="64" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="94" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4" ht="85" customHeight="1">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" ht="48" customHeight="1">
+      <c r="A21" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="48" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4" ht="55" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4" ht="44" customHeight="1">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1">
       <c r="A27" s="7" t="s">
@@ -4310,99 +4378,99 @@
     </row>
     <row r="28" spans="1:4" ht="29" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="94" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:4" ht="50" customHeight="1">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+    </row>
+    <row r="34" spans="1:4" ht="48" customHeight="1">
+      <c r="A34" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" ht="48" customHeight="1">
-      <c r="A34" s="22" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="1:4" ht="45" customHeight="1">
+      <c r="A36" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-    </row>
-    <row r="36" spans="1:4" ht="45" customHeight="1">
-      <c r="A36" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" ht="44" customHeight="1">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1">
       <c r="A40" s="7" t="s">
@@ -4420,85 +4488,85 @@
     </row>
     <row r="41" spans="1:4" ht="94" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="1:4" ht="85" customHeight="1">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+    </row>
+    <row r="46" spans="1:4" ht="48" customHeight="1">
+      <c r="A46" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-    </row>
-    <row r="46" spans="1:4" ht="48" customHeight="1">
-      <c r="A46" s="22" t="s">
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:4" ht="45" customHeight="1">
+      <c r="A48" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-    </row>
-    <row r="48" spans="1:4" ht="45" customHeight="1">
-      <c r="A48" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
     </row>
     <row r="50" spans="1:4" ht="44" customHeight="1">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4" ht="33" customHeight="1">
       <c r="A52" s="7" t="s">
@@ -4516,85 +4584,85 @@
     </row>
     <row r="53" spans="1:4" ht="94" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
     </row>
     <row r="55" spans="1:4" ht="43" customHeight="1">
-      <c r="A55" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="A55" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
     </row>
     <row r="58" spans="1:4" ht="48" customHeight="1">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60" spans="1:4" ht="45" customHeight="1">
+      <c r="A60" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-    </row>
-    <row r="60" spans="1:4" ht="45" customHeight="1">
-      <c r="A60" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
     </row>
     <row r="62" spans="1:4" ht="44" customHeight="1">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="1:4" ht="33" customHeight="1">
       <c r="A64" s="7" t="s">
@@ -4612,141 +4680,141 @@
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="63" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
     </row>
     <row r="73" spans="1:4" ht="48" customHeight="1">
-      <c r="A73" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+      <c r="A73" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
     </row>
     <row r="75" spans="1:4" ht="45" customHeight="1">
-      <c r="A75" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
     </row>
     <row r="77" spans="1:4" ht="44" customHeight="1">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
     </row>
     <row r="79" spans="1:4" ht="33" customHeight="1">
       <c r="A79" s="7" t="s">
@@ -4764,85 +4832,85 @@
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D80" s="6" t="s">
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+    </row>
+    <row r="82" spans="1:4" ht="43" customHeight="1">
+      <c r="A82" s="31" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-    </row>
-    <row r="82" spans="1:4" ht="43" customHeight="1">
-      <c r="A82" s="22" t="s">
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+    </row>
+    <row r="85" spans="1:4" ht="48" customHeight="1">
+      <c r="A85" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+    </row>
+    <row r="87" spans="1:4" ht="45" customHeight="1">
+      <c r="A87" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-    </row>
-    <row r="85" spans="1:4" ht="48" customHeight="1">
-      <c r="A85" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="23"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-    </row>
-    <row r="87" spans="1:4" ht="45" customHeight="1">
-      <c r="A87" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
     </row>
     <row r="89" spans="1:4" ht="44" customHeight="1">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
     </row>
     <row r="91" spans="1:4" ht="33" customHeight="1">
       <c r="A91" s="7" t="s">
@@ -4860,85 +4928,85 @@
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
     </row>
     <row r="94" spans="1:4" ht="43" customHeight="1">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+    </row>
+    <row r="97" spans="1:4" ht="48" customHeight="1">
+      <c r="A97" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+    </row>
+    <row r="99" spans="1:4" ht="45" customHeight="1">
+      <c r="A99" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="21"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="21"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-    </row>
-    <row r="97" spans="1:4" ht="48" customHeight="1">
-      <c r="A97" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="23"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-    </row>
-    <row r="99" spans="1:4" ht="45" customHeight="1">
-      <c r="A99" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="23"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
+      <c r="A100" s="30"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
     </row>
     <row r="101" spans="1:4" ht="44" customHeight="1">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="23"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
     </row>
     <row r="103" spans="1:4" ht="33" customHeight="1">
       <c r="A103" s="7" t="s">
@@ -4956,85 +5024,85 @@
     </row>
     <row r="104" spans="1:4" ht="30" customHeight="1">
       <c r="A104" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="26"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
     </row>
     <row r="106" spans="1:4" ht="43" customHeight="1">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="36"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+    </row>
+    <row r="109" spans="1:4" ht="48" customHeight="1">
+      <c r="A109" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="30"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+    </row>
+    <row r="111" spans="1:4" ht="45" customHeight="1">
+      <c r="A111" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="21"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="21"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-    </row>
-    <row r="109" spans="1:4" ht="48" customHeight="1">
-      <c r="A109" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="23"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-    </row>
-    <row r="111" spans="1:4" ht="45" customHeight="1">
-      <c r="A111" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
+      <c r="A112" s="30"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
     </row>
     <row r="113" spans="1:4" ht="44" customHeight="1">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="23"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
+      <c r="A114" s="30"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
     </row>
     <row r="115" spans="1:4" ht="33" customHeight="1">
       <c r="A115" s="7" t="s">
@@ -5052,85 +5120,85 @@
     </row>
     <row r="116" spans="1:4" ht="30" customHeight="1">
       <c r="A116" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="26"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
     </row>
     <row r="118" spans="1:4" ht="43" customHeight="1">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="36"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="36"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+    </row>
+    <row r="121" spans="1:4" ht="48" customHeight="1">
+      <c r="A121" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="30"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+    </row>
+    <row r="123" spans="1:4" ht="45" customHeight="1">
+      <c r="A123" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="21"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="21"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="21"/>
-    </row>
-    <row r="121" spans="1:4" ht="48" customHeight="1">
-      <c r="A121" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B121" s="22"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="23"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-    </row>
-    <row r="123" spans="1:4" ht="45" customHeight="1">
-      <c r="A123" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B123" s="24"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="23"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
+      <c r="A124" s="30"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
     </row>
     <row r="125" spans="1:4" ht="44" customHeight="1">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="23"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
+      <c r="A126" s="30"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
     </row>
     <row r="127" spans="1:4" ht="33" customHeight="1">
       <c r="A127" s="7" t="s">
@@ -5148,85 +5216,85 @@
     </row>
     <row r="128" spans="1:4" ht="30" customHeight="1">
       <c r="A128" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C128" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D128" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="26"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
     </row>
     <row r="130" spans="1:4" ht="43" customHeight="1">
-      <c r="A130" s="22" t="s">
+      <c r="A130" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="36"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="36"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+    </row>
+    <row r="133" spans="1:4" ht="48" customHeight="1">
+      <c r="A133" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="31"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="30"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+    </row>
+    <row r="135" spans="1:4" ht="45" customHeight="1">
+      <c r="A135" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="21"/>
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="21"/>
-      <c r="B132" s="21"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="21"/>
-    </row>
-    <row r="133" spans="1:4" ht="48" customHeight="1">
-      <c r="A133" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B133" s="22"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="23"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-    </row>
-    <row r="135" spans="1:4" ht="45" customHeight="1">
-      <c r="A135" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="23"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
+      <c r="A136" s="30"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
     </row>
     <row r="137" spans="1:4" ht="44" customHeight="1">
-      <c r="A137" s="22" t="s">
+      <c r="A137" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="22"/>
-      <c r="C137" s="22"/>
-      <c r="D137" s="22"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="23"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
+      <c r="A138" s="30"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
     </row>
     <row r="139" spans="1:4" ht="33" customHeight="1">
       <c r="A139" s="7" t="s">
@@ -5244,128 +5312,46 @@
     </row>
     <row r="140" spans="1:4" ht="30" customHeight="1">
       <c r="A140" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C140" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D140" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D140" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="26"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
     </row>
     <row r="142" spans="1:4" ht="43" customHeight="1">
-      <c r="A142" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B142" s="22"/>
-      <c r="C142" s="22"/>
-      <c r="D142" s="22"/>
+      <c r="A142" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="21"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="21"/>
+      <c r="A143" s="36"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="21"/>
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="21"/>
+      <c r="A144" s="36"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A131:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
     <mergeCell ref="A143:D144"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:D59"/>
@@ -5382,6 +5368,88 @@
     <mergeCell ref="A142:D142"/>
     <mergeCell ref="A126:D126"/>
     <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A131:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5410,72 +5478,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1">
+      <c r="A5" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1">
+      <c r="A7" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -5493,111 +5561,111 @@
     </row>
     <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:4" ht="48" customHeight="1">
+      <c r="A18" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" ht="48" customHeight="1">
-      <c r="A18" s="22" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:4" ht="45" customHeight="1">
+      <c r="A20" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-    </row>
-    <row r="20" spans="1:4" ht="45" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" ht="44" customHeight="1">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1">
       <c r="A24" s="7" t="s">
@@ -5615,99 +5683,99 @@
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" ht="43" customHeight="1">
+      <c r="A28" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" ht="43" customHeight="1">
-      <c r="A28" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:4" ht="48" customHeight="1">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="1:4" ht="45" customHeight="1">
+      <c r="A33" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-    </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1">
-      <c r="A33" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4" ht="44" customHeight="1">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1">
       <c r="A37" s="7" t="s">
@@ -5725,85 +5793,85 @@
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" ht="43" customHeight="1">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+    </row>
+    <row r="43" spans="1:4" ht="48" customHeight="1">
+      <c r="A43" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:4" ht="45" customHeight="1">
+      <c r="A45" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:4" ht="48" customHeight="1">
-      <c r="A43" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-    </row>
-    <row r="45" spans="1:4" ht="45" customHeight="1">
-      <c r="A45" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4" ht="44" customHeight="1">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="1:4" ht="33" customHeight="1">
       <c r="A49" s="7" t="s">
@@ -5821,46 +5889,44 @@
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4" ht="43" customHeight="1">
-      <c r="A52" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
@@ -5873,16 +5939,18 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5911,72 +5979,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1">
+      <c r="A5" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1">
+      <c r="A7" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -5994,85 +6062,85 @@
     </row>
     <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" ht="48" customHeight="1">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:4" ht="45" customHeight="1">
+      <c r="A18" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" ht="45" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" ht="44" customHeight="1">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -6090,99 +6158,99 @@
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="40" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" ht="43" customHeight="1">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" ht="48" customHeight="1">
+      <c r="A29" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="22" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+    </row>
+    <row r="31" spans="1:4" ht="45" customHeight="1">
+      <c r="A31" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-    </row>
-    <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="7" t="s">
@@ -6200,99 +6268,99 @@
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="40" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" ht="43" customHeight="1">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+    </row>
+    <row r="42" spans="1:4" ht="48" customHeight="1">
+      <c r="A42" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:4" ht="48" customHeight="1">
-      <c r="A42" s="22" t="s">
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:4" ht="45" customHeight="1">
+      <c r="A44" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-    </row>
-    <row r="44" spans="1:4" ht="45" customHeight="1">
-      <c r="A44" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
       <c r="A48" s="7" t="s">
@@ -6310,46 +6378,42 @@
     </row>
     <row r="49" spans="1:4" ht="40" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
@@ -6362,14 +6426,18 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6398,72 +6466,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1">
+      <c r="A5" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1">
+      <c r="A7" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -6481,85 +6549,85 @@
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" ht="48" customHeight="1">
+      <c r="A17" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" ht="48" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" ht="45" customHeight="1">
+      <c r="A19" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" ht="45" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" ht="44" customHeight="1">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -6577,85 +6645,85 @@
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" ht="44" customHeight="1">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" ht="48" customHeight="1">
+      <c r="A29" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="13" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" ht="45" customHeight="1">
+      <c r="A31" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -6673,99 +6741,99 @@
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="83" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D37" s="6" t="s">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="44" customHeight="1">
+      <c r="A39" s="26" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="1:4" ht="44" customHeight="1">
-      <c r="A39" s="13" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+    </row>
+    <row r="42" spans="1:4" ht="48" customHeight="1">
+      <c r="A42" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:4" ht="45" customHeight="1">
+      <c r="A44" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:4" ht="48" customHeight="1">
-      <c r="A42" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-    </row>
-    <row r="44" spans="1:4" ht="45" customHeight="1">
-      <c r="A44" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
       <c r="A48" s="7" t="s">
@@ -6783,99 +6851,99 @@
     </row>
     <row r="49" spans="1:4" ht="40" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D51" s="6" t="s">
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+    </row>
+    <row r="54" spans="1:4" ht="48" customHeight="1">
+      <c r="A54" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="45" customHeight="1">
+      <c r="A56" s="27" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-    </row>
-    <row r="54" spans="1:4" ht="48" customHeight="1">
-      <c r="A54" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-    </row>
-    <row r="56" spans="1:4" ht="45" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
     </row>
     <row r="58" spans="1:4" ht="44" customHeight="1">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:4" ht="33" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -6893,113 +6961,113 @@
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="40" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D62" s="6" t="s">
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:4" ht="44" customHeight="1">
+      <c r="A64" s="26" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" spans="1:4" ht="44" customHeight="1">
-      <c r="A64" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
     </row>
     <row r="66" spans="1:4" ht="71" customHeight="1">
-      <c r="A66" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+      <c r="A66" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="48" customHeight="1">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+    </row>
+    <row r="71" spans="1:4" ht="45" customHeight="1">
+      <c r="A71" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-    </row>
-    <row r="71" spans="1:4" ht="45" customHeight="1">
-      <c r="A71" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4" ht="44" customHeight="1">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
     </row>
     <row r="75" spans="1:4" ht="33" customHeight="1">
       <c r="A75" s="7" t="s">
@@ -7017,102 +7085,139 @@
     </row>
     <row r="76" spans="1:4" ht="40" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="48" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D68"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
@@ -7129,43 +7234,6 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="460" windowWidth="35420" windowHeight="18220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
@@ -664,10 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.创建目标记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST /notes/create</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -684,14 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>photos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片数据数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.评论目标记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1142,24 +1130,43 @@
   <si>
     <t>用户性别，可选参数，整形，值为1或2，1表示男，2表示女，如果该参数不传值则表示取所有</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo0—8</t>
+  </si>
+  <si>
+    <t>图片数据，可选参数，参数名字以'photo'开头，以数字结尾</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>创建目标记录    (注意Content-Type为：multiple/form-data)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1167,14 +1174,14 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1182,7 +1189,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1191,7 +1198,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1200,31 +1207,41 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Libian SC Regular"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Libian SC Regular"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1478,7 +1495,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1537,13 +1554,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1552,14 +1575,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1567,14 +1584,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1585,195 +1608,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="181">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2118,7 +2138,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="17"/>
@@ -2128,7 +2148,7 @@
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="16"/>
@@ -2138,10 +2158,10 @@
     </row>
     <row r="3" spans="1:6" ht="23" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2153,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2165,7 +2185,7 @@
         <v>1001</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2177,7 +2197,7 @@
         <v>1002</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2189,7 +2209,7 @@
         <v>1003</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -2201,7 +2221,7 @@
         <v>1004</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2213,7 +2233,7 @@
         <v>1005</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2225,7 +2245,7 @@
         <v>1006</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2237,7 +2257,7 @@
         <v>1011</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2249,7 +2269,7 @@
         <v>1012</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -2261,7 +2281,7 @@
         <v>2001</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2273,7 +2293,7 @@
         <v>2002</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -2285,7 +2305,7 @@
         <v>2003</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -2297,7 +2317,7 @@
         <v>2004</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2309,7 +2329,7 @@
         <v>2005</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -2321,7 +2341,7 @@
         <v>2006</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2333,7 +2353,7 @@
         <v>2007</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -2345,7 +2365,7 @@
         <v>2008</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2357,7 +2377,7 @@
         <v>3001</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2369,7 +2389,7 @@
         <v>3002</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2381,7 +2401,7 @@
         <v>3003</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -2393,7 +2413,7 @@
         <v>4001</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2405,7 +2425,7 @@
         <v>4002</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2417,7 +2437,7 @@
         <v>4003</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2429,7 +2449,7 @@
         <v>4004</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2441,7 +2461,7 @@
         <v>4005</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2453,7 +2473,7 @@
         <v>4006</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2465,7 +2485,7 @@
         <v>4007</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2477,7 +2497,7 @@
         <v>-1</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2489,7 +2509,7 @@
         <v>-10</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2501,7 +2521,7 @@
         <v>401</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2515,7 +2535,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2528,7 +2547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A62" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A45" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -2541,72 +2560,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -2637,58 +2656,58 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" ht="48" customHeight="1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" ht="44" customHeight="1">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1">
       <c r="A21" s="2" t="s">
@@ -2733,58 +2752,58 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" ht="45" customHeight="1">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" ht="44" customHeight="1">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1">
       <c r="A32" s="2" t="s">
@@ -2815,58 +2834,58 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" ht="48" customHeight="1">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="45" customHeight="1">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
     </row>
     <row r="40" spans="1:4" ht="44" customHeight="1">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -2909,58 +2928,58 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" ht="48" customHeight="1">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" ht="45" customHeight="1">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" ht="44" customHeight="1">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" ht="33" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -3073,58 +3092,58 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" ht="48" customHeight="1">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" ht="45" customHeight="1">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
     </row>
     <row r="67" spans="1:4" ht="44" customHeight="1">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" spans="1:4" ht="33" customHeight="1">
       <c r="A69" s="2" t="s">
@@ -3156,99 +3175,99 @@
     </row>
     <row r="71" spans="1:4" ht="88" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="27" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C72" s="6" t="s">
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+    </row>
+    <row r="74" spans="1:4" ht="44" customHeight="1">
+      <c r="A74" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-    </row>
-    <row r="74" spans="1:4" ht="44" customHeight="1">
-      <c r="A74" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:4" ht="48" customHeight="1">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
     </row>
     <row r="79" spans="1:4" ht="45" customHeight="1">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
     </row>
     <row r="81" spans="1:4" ht="44" customHeight="1">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="33" customHeight="1">
       <c r="A83" s="2" t="s">
@@ -3277,72 +3296,72 @@
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
     </row>
     <row r="86" spans="1:4" ht="44" customHeight="1">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" ht="48" customHeight="1">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
     </row>
     <row r="91" spans="1:4" ht="45" customHeight="1">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
     </row>
     <row r="93" spans="1:4" ht="44" customHeight="1">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
     </row>
     <row r="95" spans="1:4" ht="33" customHeight="1">
       <c r="A95" s="2" t="s">
@@ -3373,72 +3392,72 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
     </row>
     <row r="98" spans="1:4" ht="44" customHeight="1">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4" ht="48" customHeight="1">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
     </row>
     <row r="103" spans="1:4" ht="45" customHeight="1">
-      <c r="A103" s="27" t="s">
+      <c r="A103" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
     </row>
     <row r="105" spans="1:4" ht="44" customHeight="1">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
     </row>
     <row r="107" spans="1:4" ht="33" customHeight="1">
       <c r="A107" s="2" t="s">
@@ -3469,72 +3488,72 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="21"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
     </row>
     <row r="110" spans="1:4" ht="44" customHeight="1">
-      <c r="A110" s="26" t="s">
+      <c r="A110" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="22"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="22"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
     </row>
     <row r="113" spans="1:4" ht="48" customHeight="1">
-      <c r="A113" s="26" t="s">
+      <c r="A113" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="25"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
     </row>
     <row r="115" spans="1:4" ht="45" customHeight="1">
-      <c r="A115" s="27" t="s">
+      <c r="A115" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="25"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
     </row>
     <row r="117" spans="1:4" ht="44" customHeight="1">
-      <c r="A117" s="26" t="s">
+      <c r="A117" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
     </row>
     <row r="119" spans="1:4" ht="33" customHeight="1">
       <c r="A119" s="2" t="s">
@@ -3565,72 +3584,72 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="21"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="21"/>
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
     </row>
     <row r="122" spans="1:4" ht="44" customHeight="1">
-      <c r="A122" s="26" t="s">
+      <c r="A122" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="22"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="22"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
+      <c r="A124" s="21"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
     </row>
     <row r="125" spans="1:4" ht="48" customHeight="1">
-      <c r="A125" s="26" t="s">
+      <c r="A125" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="26"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="25"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
     </row>
     <row r="127" spans="1:4" ht="45" customHeight="1">
-      <c r="A127" s="27" t="s">
+      <c r="A127" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
+      <c r="A128" s="24"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
     </row>
     <row r="129" spans="1:4" ht="44" customHeight="1">
-      <c r="A129" s="26" t="s">
+      <c r="A129" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
+      <c r="A130" s="24"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
     </row>
     <row r="131" spans="1:4" ht="33" customHeight="1">
       <c r="A131" s="2" t="s">
@@ -3675,58 +3694,58 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="21"/>
-      <c r="B134" s="21"/>
-      <c r="C134" s="21"/>
-      <c r="D134" s="21"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="22"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
     </row>
     <row r="136" spans="1:4" ht="48" customHeight="1">
-      <c r="A136" s="26" t="s">
+      <c r="A136" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="26"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="25"/>
-      <c r="B137" s="25"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" ht="45" customHeight="1">
-      <c r="A138" s="27" t="s">
+      <c r="A138" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="27"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="25"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
     </row>
     <row r="140" spans="1:4" ht="44" customHeight="1">
-      <c r="A140" s="26" t="s">
+      <c r="A140" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="25"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="25"/>
-      <c r="D141" s="25"/>
+      <c r="A141" s="24"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
     </row>
     <row r="142" spans="1:4" ht="33" customHeight="1">
       <c r="A142" s="2" t="s">
@@ -3771,19 +3790,98 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="21"/>
-      <c r="B145" s="21"/>
-      <c r="C145" s="21"/>
-      <c r="D145" s="21"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="22"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D124"/>
+    <mergeCell ref="A121:D121"/>
     <mergeCell ref="A145:D146"/>
     <mergeCell ref="A98:D98"/>
     <mergeCell ref="A97:D97"/>
@@ -3800,89 +3898,9 @@
     <mergeCell ref="A136:D136"/>
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A134:D135"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D124"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3931,32 +3949,32 @@
       <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3968,7 +3986,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4020,46 +4037,46 @@
       <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -4090,18 +4107,18 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4117,7 +4134,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4130,7 +4146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A127" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A137" sqref="A137:D137"/>
     </sheetView>
   </sheetViews>
@@ -4143,30 +4159,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
       <c r="A5" s="31" t="s">
@@ -4177,24 +4193,24 @@
       <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -4205,10 +4221,10 @@
       <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -4295,10 +4311,10 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4" ht="85" customHeight="1">
       <c r="A18" s="31" t="s">
@@ -4309,16 +4325,16 @@
       <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" ht="48" customHeight="1">
       <c r="A21" s="31" t="s">
@@ -4329,24 +4345,24 @@
       <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" ht="55" customHeight="1">
-      <c r="A23" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="A23" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4" ht="44" customHeight="1">
       <c r="A25" s="31" t="s">
@@ -4357,10 +4373,10 @@
       <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1">
       <c r="A27" s="7" t="s">
@@ -4405,10 +4421,10 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
     </row>
     <row r="31" spans="1:4" ht="50" customHeight="1">
       <c r="A31" s="31" t="s">
@@ -4419,16 +4435,16 @@
       <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" ht="48" customHeight="1">
       <c r="A34" s="31" t="s">
@@ -4439,24 +4455,24 @@
       <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" ht="45" customHeight="1">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:4" ht="44" customHeight="1">
       <c r="A38" s="31" t="s">
@@ -4467,10 +4483,10 @@
       <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1">
       <c r="A40" s="7" t="s">
@@ -4501,10 +4517,10 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
     </row>
     <row r="43" spans="1:4" ht="85" customHeight="1">
       <c r="A43" s="31" t="s">
@@ -4515,16 +4531,16 @@
       <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" ht="48" customHeight="1">
       <c r="A46" s="31" t="s">
@@ -4535,24 +4551,24 @@
       <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
     </row>
     <row r="48" spans="1:4" ht="45" customHeight="1">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
     </row>
     <row r="50" spans="1:4" ht="44" customHeight="1">
       <c r="A50" s="31" t="s">
@@ -4563,10 +4579,10 @@
       <c r="D50" s="31"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
     </row>
     <row r="52" spans="1:4" ht="33" customHeight="1">
       <c r="A52" s="7" t="s">
@@ -4597,10 +4613,10 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
     </row>
     <row r="55" spans="1:4" ht="43" customHeight="1">
       <c r="A55" s="31" t="s">
@@ -4611,16 +4627,16 @@
       <c r="D55" s="31"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
     </row>
     <row r="58" spans="1:4" ht="48" customHeight="1">
       <c r="A58" s="31" t="s">
@@ -4631,24 +4647,24 @@
       <c r="D58" s="31"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
     </row>
     <row r="60" spans="1:4" ht="45" customHeight="1">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
     </row>
     <row r="62" spans="1:4" ht="44" customHeight="1">
       <c r="A62" s="31" t="s">
@@ -4659,10 +4675,10 @@
       <c r="D62" s="31"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
     </row>
     <row r="64" spans="1:4" ht="33" customHeight="1">
       <c r="A64" s="7" t="s">
@@ -4763,16 +4779,16 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="36"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4" ht="48" customHeight="1">
       <c r="A73" s="31" t="s">
@@ -4783,24 +4799,24 @@
       <c r="D73" s="31"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
     </row>
     <row r="75" spans="1:4" ht="45" customHeight="1">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
     </row>
     <row r="77" spans="1:4" ht="44" customHeight="1">
       <c r="A77" s="31" t="s">
@@ -4811,10 +4827,10 @@
       <c r="D77" s="31"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
     </row>
     <row r="79" spans="1:4" ht="33" customHeight="1">
       <c r="A79" s="7" t="s">
@@ -4845,10 +4861,10 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
     </row>
     <row r="82" spans="1:4" ht="43" customHeight="1">
       <c r="A82" s="31" t="s">
@@ -4859,16 +4875,16 @@
       <c r="D82" s="31"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="36"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
     </row>
     <row r="85" spans="1:4" ht="48" customHeight="1">
       <c r="A85" s="31" t="s">
@@ -4879,24 +4895,24 @@
       <c r="D85" s="31"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
     </row>
     <row r="87" spans="1:4" ht="45" customHeight="1">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
     </row>
     <row r="89" spans="1:4" ht="44" customHeight="1">
       <c r="A89" s="31" t="s">
@@ -4907,10 +4923,10 @@
       <c r="D89" s="31"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
     </row>
     <row r="91" spans="1:4" ht="33" customHeight="1">
       <c r="A91" s="7" t="s">
@@ -4941,10 +4957,10 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
     </row>
     <row r="94" spans="1:4" ht="43" customHeight="1">
       <c r="A94" s="31" t="s">
@@ -4955,16 +4971,16 @@
       <c r="D94" s="31"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="36"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="36"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
     </row>
     <row r="97" spans="1:4" ht="48" customHeight="1">
       <c r="A97" s="31" t="s">
@@ -4975,24 +4991,24 @@
       <c r="D97" s="31"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="30"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
     </row>
     <row r="99" spans="1:4" ht="45" customHeight="1">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
     </row>
     <row r="101" spans="1:4" ht="44" customHeight="1">
       <c r="A101" s="31" t="s">
@@ -5003,10 +5019,10 @@
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="30"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
     </row>
     <row r="103" spans="1:4" ht="33" customHeight="1">
       <c r="A103" s="7" t="s">
@@ -5037,10 +5053,10 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="33"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
+      <c r="A105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
     </row>
     <row r="106" spans="1:4" ht="43" customHeight="1">
       <c r="A106" s="31" t="s">
@@ -5051,16 +5067,16 @@
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="36"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="36"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
+      <c r="A108" s="30"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
     </row>
     <row r="109" spans="1:4" ht="48" customHeight="1">
       <c r="A109" s="31" t="s">
@@ -5071,24 +5087,24 @@
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="30"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
+      <c r="A110" s="32"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
     </row>
     <row r="111" spans="1:4" ht="45" customHeight="1">
-      <c r="A111" s="32" t="s">
+      <c r="A111" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="32"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="30"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
+      <c r="A112" s="32"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
     </row>
     <row r="113" spans="1:4" ht="44" customHeight="1">
       <c r="A113" s="31" t="s">
@@ -5099,10 +5115,10 @@
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="30"/>
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
+      <c r="A114" s="32"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
     </row>
     <row r="115" spans="1:4" ht="33" customHeight="1">
       <c r="A115" s="7" t="s">
@@ -5133,10 +5149,10 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="33"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
     </row>
     <row r="118" spans="1:4" ht="43" customHeight="1">
       <c r="A118" s="31" t="s">
@@ -5147,16 +5163,16 @@
       <c r="D118" s="31"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="36"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
+      <c r="A119" s="30"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="36"/>
-      <c r="B120" s="36"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
+      <c r="A120" s="30"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
     </row>
     <row r="121" spans="1:4" ht="48" customHeight="1">
       <c r="A121" s="31" t="s">
@@ -5167,24 +5183,24 @@
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="30"/>
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
+      <c r="A122" s="32"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
     </row>
     <row r="123" spans="1:4" ht="45" customHeight="1">
-      <c r="A123" s="32" t="s">
+      <c r="A123" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="30"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
     </row>
     <row r="125" spans="1:4" ht="44" customHeight="1">
       <c r="A125" s="31" t="s">
@@ -5195,10 +5211,10 @@
       <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="30"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
+      <c r="A126" s="32"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
     </row>
     <row r="127" spans="1:4" ht="33" customHeight="1">
       <c r="A127" s="7" t="s">
@@ -5229,10 +5245,10 @@
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="33"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
     </row>
     <row r="130" spans="1:4" ht="43" customHeight="1">
       <c r="A130" s="31" t="s">
@@ -5243,16 +5259,16 @@
       <c r="D130" s="31"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="36"/>
-      <c r="B131" s="36"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="36"/>
+      <c r="A131" s="30"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="36"/>
-      <c r="B132" s="36"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="36"/>
+      <c r="A132" s="30"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
     </row>
     <row r="133" spans="1:4" ht="48" customHeight="1">
       <c r="A133" s="31" t="s">
@@ -5263,24 +5279,24 @@
       <c r="D133" s="31"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="30"/>
-      <c r="B134" s="30"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
+      <c r="A134" s="32"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
     </row>
     <row r="135" spans="1:4" ht="45" customHeight="1">
-      <c r="A135" s="32" t="s">
+      <c r="A135" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="30"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
+      <c r="A136" s="32"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
     </row>
     <row r="137" spans="1:4" ht="44" customHeight="1">
       <c r="A137" s="31" t="s">
@@ -5291,10 +5307,10 @@
       <c r="D137" s="31"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="30"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
+      <c r="A138" s="32"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
     </row>
     <row r="139" spans="1:4" ht="33" customHeight="1">
       <c r="A139" s="7" t="s">
@@ -5325,10 +5341,10 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="33"/>
-      <c r="B141" s="33"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
+      <c r="A141" s="35"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
     </row>
     <row r="142" spans="1:4" ht="43" customHeight="1">
       <c r="A142" s="31" t="s">
@@ -5339,19 +5355,101 @@
       <c r="D142" s="31"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="36"/>
-      <c r="B143" s="36"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36"/>
+      <c r="A143" s="30"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="36"/>
-      <c r="B144" s="36"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="36"/>
+      <c r="A144" s="30"/>
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A131:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
     <mergeCell ref="A143:D144"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:D59"/>
@@ -5368,92 +5466,9 @@
     <mergeCell ref="A142:D142"/>
     <mergeCell ref="A126:D126"/>
     <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A131:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5466,8 +5481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD28"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5505,31 +5520,31 @@
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>159</v>
+        <v>278</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="A7" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -5540,10 +5555,10 @@
       <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -5589,69 +5604,69 @@
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1">
+    </row>
+    <row r="15" spans="1:4" ht="70" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>165</v>
+      <c r="C15" s="38" t="s">
+        <v>277</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" ht="48" customHeight="1">
       <c r="A18" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" ht="45" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="A20" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4" ht="44" customHeight="1">
       <c r="A22" s="31" t="s">
@@ -5662,10 +5677,10 @@
       <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1">
       <c r="A24" s="7" t="s">
@@ -5697,71 +5712,71 @@
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="43" customHeight="1">
       <c r="A28" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" ht="48" customHeight="1">
       <c r="A31" s="31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4" ht="45" customHeight="1">
-      <c r="A33" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:4" ht="44" customHeight="1">
       <c r="A35" s="31" t="s">
@@ -5772,10 +5787,10 @@
       <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1">
       <c r="A37" s="7" t="s">
@@ -5806,58 +5821,58 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:4" ht="43" customHeight="1">
       <c r="A40" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:4" ht="48" customHeight="1">
       <c r="A43" s="31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="1:4" ht="45" customHeight="1">
-      <c r="A45" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="A45" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4" ht="44" customHeight="1">
       <c r="A47" s="31" t="s">
@@ -5868,10 +5883,10 @@
       <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
     </row>
     <row r="49" spans="1:4" ht="33" customHeight="1">
       <c r="A49" s="7" t="s">
@@ -5902,14 +5917,14 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" ht="43" customHeight="1">
       <c r="A52" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -5917,16 +5932,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
@@ -5939,22 +5956,19 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5980,7 +5994,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -6006,31 +6020,31 @@
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="A7" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -6041,10 +6055,10 @@
       <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -6089,44 +6103,44 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" ht="48" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1">
-      <c r="A18" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="A18" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" ht="44" customHeight="1">
       <c r="A20" s="31" t="s">
@@ -6137,10 +6151,10 @@
       <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -6185,58 +6199,58 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="43" customHeight="1">
       <c r="A26" s="31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" ht="48" customHeight="1">
       <c r="A29" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="A31" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
       <c r="A33" s="31" t="s">
@@ -6247,10 +6261,10 @@
       <c r="D33" s="31"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="7" t="s">
@@ -6295,58 +6309,58 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="43" customHeight="1">
       <c r="A39" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" ht="48" customHeight="1">
       <c r="A42" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4" ht="45" customHeight="1">
-      <c r="A44" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="A44" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
       <c r="A46" s="31" t="s">
@@ -6357,10 +6371,10 @@
       <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
       <c r="A48" s="7" t="s">
@@ -6406,14 +6420,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
@@ -6426,22 +6444,17 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6467,7 +6480,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -6492,46 +6505,46 @@
       <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="A5" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -6562,72 +6575,72 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="A14" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" ht="48" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1">
-      <c r="A19" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="44" customHeight="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -6658,72 +6671,72 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="44" customHeight="1">
-      <c r="A26" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="A29" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="A31" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -6755,71 +6768,71 @@
     </row>
     <row r="37" spans="1:4" ht="83" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="44" customHeight="1">
-      <c r="A39" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="A39" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" ht="48" customHeight="1">
       <c r="A42" s="31" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4" ht="45" customHeight="1">
-      <c r="A44" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="A44" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
       <c r="A46" s="31" t="s">
@@ -6830,10 +6843,10 @@
       <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
       <c r="A48" s="7" t="s">
@@ -6851,16 +6864,16 @@
     </row>
     <row r="49" spans="1:4" ht="40" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1">
@@ -6879,71 +6892,71 @@
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" ht="48" customHeight="1">
-      <c r="A54" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4" ht="45" customHeight="1">
-      <c r="A56" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="A56" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4" ht="44" customHeight="1">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" ht="33" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -6975,85 +6988,85 @@
     </row>
     <row r="62" spans="1:4" ht="40" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:4" ht="44" customHeight="1">
-      <c r="A64" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
+      <c r="A64" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" ht="71" customHeight="1">
       <c r="A66" s="31" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
       <c r="D66" s="31"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="48" customHeight="1">
       <c r="A69" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B69" s="31"/>
       <c r="C69" s="31"/>
       <c r="D69" s="31"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
     </row>
     <row r="71" spans="1:4" ht="45" customHeight="1">
-      <c r="A71" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
+      <c r="A71" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
     </row>
     <row r="73" spans="1:4" ht="44" customHeight="1">
       <c r="A73" s="31" t="s">
@@ -7064,10 +7077,10 @@
       <c r="D73" s="31"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
     </row>
     <row r="75" spans="1:4" ht="33" customHeight="1">
       <c r="A75" s="7" t="s">
@@ -7085,125 +7098,117 @@
     </row>
     <row r="76" spans="1:4" ht="40" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="48" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D68"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A43:D43"/>
@@ -7219,25 +7224,32 @@
     <mergeCell ref="A40:D41"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A15:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34380" windowHeight="21120" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
@@ -664,509 +664,523 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body=3xxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.评论目标记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /notes/:note_id/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /notes/12/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.点赞目标记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /notes/:note_id/like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /notes/12/like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /notes/:note_id/cancel_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /notes/12/cancel_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.取消点赞目标记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>督促目标相关接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.督促目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /supervises/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.接受督促</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /supervises/:supervise_id/accept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /supervises/12/accept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.拒绝督促</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /supervises/:supervise_id/refuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：POST /supervises/12/refuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.更换目标督促人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /supervises/destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息相关接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.获取用户未读消息条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /messages/unread_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /messages/unread_count?token=xxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.根据消息类别汇总消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /messages/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /messages/list?token=xxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.读某个消息类别下的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /messages/read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类别，值为：1,2,3,4中的一个，分别对应：系统消息，评论消息，加油消息，粉丝消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_type=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /messages/read?token=xxxxxx&amp;message_type=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /talks/send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content=xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息接受者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_id=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /talks/read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender_id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /talks/read?token=xxxxxx&amp;sender_id=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.发送聊天信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.获取某个用户与我的聊天记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.意见反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /feedbacks/send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body=xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：前端在展示聊天记录时，需要像QQ消息那样展示。可以通过比较sender_id与每一条聊天记录的sender_id进行比较，如果二者相等表示是我自己发布的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model=iPod4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os=iOS 8.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang=zh_CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app当前版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version=1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备id，如果是iOS 可以使用open udid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid=osAXCDD234kdddddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Host: http://ip/api/v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示操作成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态码说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要拒绝的督促不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要更换的督促不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不正确的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一手机号1分钟内只能获取一次验证码，请稍后重试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一手机号24小时内只能获取5次验证码，请稍后再试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新用户资料失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注用户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关注失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能关注自己的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您已经关注了该目标，不能多次关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注目标失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关注目标失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消加油失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃目标失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除目标失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建记录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消点赞失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属类别不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建目标失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己不能督促自己的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要接受的督促不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受督促失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信服务商报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号被禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户未登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别id, 可选参数，整形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?gender=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?type_id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例：GET /users/goal_geek?gender=1&amp;type_id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户性别，可选参数，整形，值为1或2，1表示男，2表示女，如果该参数不传值则表示取所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo0—8</t>
+  </si>
+  <si>
     <t>POST /notes/create</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body=3xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.评论目标记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST /notes/:note_id/comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用示例：POST /notes/12/comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET /goals/:filter  ( 备注：filter值为 hot, recent, unsupervise 三者之一，分别对应热门，最新，求督促 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.点赞目标记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST /notes/:note_id/like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用示例：POST /notes/12/like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST /notes/:note_id/cancel_like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用示例：POST /notes/12/cancel_like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.取消点赞目标记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>督促目标相关接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.督促目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST /supervises/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.接受督促</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST /supervises/:supervise_id/accept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用示例：POST /supervises/12/accept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.拒绝督促</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST /supervises/:supervise_id/refuse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用示例：POST /supervises/12/refuse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.更换目标督促人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST /supervises/destroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息相关接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.获取用户未读消息条数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET /messages/unread_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用示例：GET /messages/unread_count?token=xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.根据消息类别汇总消息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET /messages/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用示例：GET /messages/list?token=xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.读某个消息类别下的消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET /messages/read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息类别，值为：1,2,3,4中的一个，分别对应：系统消息，评论消息，加油消息，粉丝消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message_type=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用示例：GET /messages/read?token=xxxxxx&amp;message_type=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST /talks/send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content=xxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiver_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息接受者id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiver_id=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET /talks/read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sender_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送者id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sender_id=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用示例：GET /talks/read?token=xxxxxx&amp;sender_id=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.发送聊天信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.获取某个用户与我的聊天记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.意见反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST /feedbacks/send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body=xxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：前端在展示聊天记录时，需要像QQ消息那样展示。可以通过比较sender_id与每一条聊天记录的sender_id进行比较，如果二者相等表示是我自己发布的消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model=iPod4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os=iOS 8.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang=zh_CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app当前版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version=1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备id，如果是iOS 可以使用open udid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid=osAXCDD234kdddddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Host: http://ip/api/v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示操作成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态码说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要拒绝的督促不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要更换的督促不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不正确的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一手机号1分钟内只能获取一次验证码，请稍后重试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一手机号24小时内只能获取5次验证码，请稍后再试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证码无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登陆失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新用户资料失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注用户失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消关注失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能关注自己的目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您已经关注了该目标，不能多次关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注目标失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消关注目标失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消加油失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放弃目标失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除目标失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建记录失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消点赞失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属类别不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建目标失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己不能督促自己的目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要接受的督促不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受督促失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信服务商报错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号被禁用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户未登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别id, 可选参数，整形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?gender=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?type_id=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用示例：GET /users/goal_geek?gender=1&amp;type_id=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户性别，可选参数，整形，值为1或2，1表示男，2表示女，如果该参数不传值则表示取所有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo0—8</t>
+    <t>1.创建目标记录    (注意Content-Type为：multiple/form-data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图片数据，可选参数，参数名字以'photo'开头，以数字结尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>1.</t>
+      <t>GET /goals/:filter （</t>
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该接口废弃，请使用这个接口：/goals/:filter/notes，其它保持不变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Libian SC Regular"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>创建目标记录    (注意Content-Type为：multiple/form-data)</t>
+      <t>） ( 备注：filter值为 hot, recent, unsupervise 三者之一，分别对应热门，最新，求督促 )</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1174,14 +1188,14 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1189,7 +1203,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1198,7 +1212,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1207,41 +1221,38 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Libian SC Regular"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Libian SC Regular"/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1495,7 +1506,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1554,12 +1565,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1569,14 +1574,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1584,23 +1595,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1608,192 +1613,195 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="181">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2138,7 +2146,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="17"/>
@@ -2148,7 +2156,7 @@
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="16"/>
@@ -2158,10 +2166,10 @@
     </row>
     <row r="3" spans="1:6" ht="23" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2173,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2185,7 +2193,7 @@
         <v>1001</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2197,7 +2205,7 @@
         <v>1002</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2209,7 +2217,7 @@
         <v>1003</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -2221,7 +2229,7 @@
         <v>1004</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2233,7 +2241,7 @@
         <v>1005</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2245,7 +2253,7 @@
         <v>1006</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2257,7 +2265,7 @@
         <v>1011</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2269,7 +2277,7 @@
         <v>1012</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -2281,7 +2289,7 @@
         <v>2001</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2293,7 +2301,7 @@
         <v>2002</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -2305,7 +2313,7 @@
         <v>2003</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -2317,7 +2325,7 @@
         <v>2004</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2329,7 +2337,7 @@
         <v>2005</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -2341,7 +2349,7 @@
         <v>2006</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2353,7 +2361,7 @@
         <v>2007</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -2365,7 +2373,7 @@
         <v>2008</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2377,7 +2385,7 @@
         <v>3001</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2389,7 +2397,7 @@
         <v>3002</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2401,7 +2409,7 @@
         <v>3003</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -2413,7 +2421,7 @@
         <v>4001</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2425,7 +2433,7 @@
         <v>4002</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2437,7 +2445,7 @@
         <v>4003</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2449,7 +2457,7 @@
         <v>4004</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2461,7 +2469,7 @@
         <v>4005</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2473,7 +2481,7 @@
         <v>4006</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2485,7 +2493,7 @@
         <v>4007</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2497,7 +2505,7 @@
         <v>-1</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2509,7 +2517,7 @@
         <v>-10</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2521,7 +2529,7 @@
         <v>401</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2560,72 +2568,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -2656,58 +2664,58 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:4" ht="48" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" ht="44" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1">
       <c r="A21" s="2" t="s">
@@ -2752,58 +2760,58 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4" ht="45" customHeight="1">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" ht="44" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1">
       <c r="A32" s="2" t="s">
@@ -2834,58 +2842,58 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4" ht="48" customHeight="1">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4" ht="45" customHeight="1">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:4" ht="44" customHeight="1">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -2928,58 +2936,58 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
     </row>
     <row r="47" spans="1:4" ht="48" customHeight="1">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:4" ht="45" customHeight="1">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="44" customHeight="1">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="33" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -3092,58 +3100,58 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
     </row>
     <row r="63" spans="1:4" ht="48" customHeight="1">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
     </row>
     <row r="65" spans="1:4" ht="45" customHeight="1">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
     </row>
     <row r="67" spans="1:4" ht="44" customHeight="1">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="33" customHeight="1">
       <c r="A69" s="2" t="s">
@@ -3175,99 +3183,99 @@
     </row>
     <row r="71" spans="1:4" ht="88" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="27" customHeight="1">
       <c r="A72" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="D72" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:4" ht="44" customHeight="1">
-      <c r="A74" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+      <c r="A74" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
     </row>
     <row r="77" spans="1:4" ht="48" customHeight="1">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
     </row>
     <row r="79" spans="1:4" ht="45" customHeight="1">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
     </row>
     <row r="81" spans="1:4" ht="44" customHeight="1">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
     </row>
     <row r="83" spans="1:4" ht="33" customHeight="1">
       <c r="A83" s="2" t="s">
@@ -3296,72 +3304,72 @@
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="20"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
     </row>
     <row r="86" spans="1:4" ht="44" customHeight="1">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="21"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="21"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
     </row>
     <row r="89" spans="1:4" ht="48" customHeight="1">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
     </row>
     <row r="91" spans="1:4" ht="45" customHeight="1">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="24"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
     </row>
     <row r="93" spans="1:4" ht="44" customHeight="1">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
     </row>
     <row r="95" spans="1:4" ht="33" customHeight="1">
       <c r="A95" s="2" t="s">
@@ -3392,72 +3400,72 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
     </row>
     <row r="98" spans="1:4" ht="44" customHeight="1">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
     </row>
     <row r="101" spans="1:4" ht="48" customHeight="1">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
     </row>
     <row r="103" spans="1:4" ht="45" customHeight="1">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="24"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
     </row>
     <row r="105" spans="1:4" ht="44" customHeight="1">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
     </row>
     <row r="107" spans="1:4" ht="33" customHeight="1">
       <c r="A107" s="2" t="s">
@@ -3488,72 +3496,72 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
     </row>
     <row r="110" spans="1:4" ht="44" customHeight="1">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="21"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="21"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
     </row>
     <row r="113" spans="1:4" ht="48" customHeight="1">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
     </row>
     <row r="115" spans="1:4" ht="45" customHeight="1">
-      <c r="A115" s="23" t="s">
+      <c r="A115" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
     </row>
     <row r="117" spans="1:4" ht="44" customHeight="1">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
     </row>
     <row r="119" spans="1:4" ht="33" customHeight="1">
       <c r="A119" s="2" t="s">
@@ -3584,72 +3592,72 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="20"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
     </row>
     <row r="122" spans="1:4" ht="44" customHeight="1">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B122" s="22"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="21"/>
-      <c r="B123" s="21"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="21"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="21"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
     </row>
     <row r="125" spans="1:4" ht="48" customHeight="1">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
+      <c r="A126" s="22"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
     </row>
     <row r="127" spans="1:4" ht="45" customHeight="1">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="24"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
+      <c r="A128" s="22"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
     </row>
     <row r="129" spans="1:4" ht="44" customHeight="1">
-      <c r="A129" s="22" t="s">
+      <c r="A129" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
     </row>
     <row r="131" spans="1:4" ht="33" customHeight="1">
       <c r="A131" s="2" t="s">
@@ -3694,58 +3702,58 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="20"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
+      <c r="A134" s="24"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="21"/>
-      <c r="B135" s="21"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="21"/>
+      <c r="A135" s="25"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
     </row>
     <row r="136" spans="1:4" ht="48" customHeight="1">
-      <c r="A136" s="22" t="s">
+      <c r="A136" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B136" s="22"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="24"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
+      <c r="A137" s="22"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="22"/>
     </row>
     <row r="138" spans="1:4" ht="45" customHeight="1">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="24"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
+      <c r="A139" s="22"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
     </row>
     <row r="140" spans="1:4" ht="44" customHeight="1">
-      <c r="A140" s="22" t="s">
+      <c r="A140" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="22"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
+      <c r="A141" s="22"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="22"/>
     </row>
     <row r="142" spans="1:4" ht="33" customHeight="1">
       <c r="A142" s="2" t="s">
@@ -3790,19 +3798,98 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="20"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="20"/>
+      <c r="A145" s="24"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="24"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="21"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="A145:D146"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A134:D135"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D124"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
@@ -3819,85 +3906,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D124"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A145:D146"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A134:D135"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3949,32 +3957,32 @@
       <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4037,46 +4045,46 @@
       <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -4107,18 +4115,18 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4146,8 +4154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:D137"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4159,44 +4167,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
       <c r="A7" s="33" t="s">
@@ -4207,24 +4215,24 @@
       <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -4311,72 +4319,72 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" ht="85" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:4" ht="48" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4" ht="55" customHeight="1">
       <c r="A23" s="33" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4" ht="44" customHeight="1">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1">
       <c r="A27" s="7" t="s">
@@ -4421,44 +4429,44 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:4" ht="50" customHeight="1">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="1:4" ht="48" customHeight="1">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4" ht="45" customHeight="1">
       <c r="A36" s="33" t="s">
@@ -4469,24 +4477,24 @@
       <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" ht="44" customHeight="1">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1">
       <c r="A40" s="7" t="s">
@@ -4517,44 +4525,44 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4" ht="85" customHeight="1">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
     </row>
     <row r="46" spans="1:4" ht="48" customHeight="1">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="45" customHeight="1">
       <c r="A48" s="33" t="s">
@@ -4565,24 +4573,24 @@
       <c r="D48" s="33"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
     </row>
     <row r="50" spans="1:4" ht="44" customHeight="1">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4" ht="33" customHeight="1">
       <c r="A52" s="7" t="s">
@@ -4613,44 +4621,44 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
     </row>
     <row r="55" spans="1:4" ht="43" customHeight="1">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
     </row>
     <row r="58" spans="1:4" ht="48" customHeight="1">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:4" ht="45" customHeight="1">
       <c r="A60" s="33" t="s">
@@ -4661,24 +4669,24 @@
       <c r="D60" s="33"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
     </row>
     <row r="62" spans="1:4" ht="44" customHeight="1">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="1:4" ht="33" customHeight="1">
       <c r="A64" s="7" t="s">
@@ -4779,30 +4787,30 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
     </row>
     <row r="73" spans="1:4" ht="48" customHeight="1">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
     </row>
     <row r="75" spans="1:4" ht="45" customHeight="1">
       <c r="A75" s="33" t="s">
@@ -4813,24 +4821,24 @@
       <c r="D75" s="33"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
     </row>
     <row r="77" spans="1:4" ht="44" customHeight="1">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
     </row>
     <row r="79" spans="1:4" ht="33" customHeight="1">
       <c r="A79" s="7" t="s">
@@ -4861,44 +4869,44 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
+      <c r="A81" s="31"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
     </row>
     <row r="82" spans="1:4" ht="43" customHeight="1">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
     <row r="85" spans="1:4" ht="48" customHeight="1">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
     </row>
     <row r="87" spans="1:4" ht="45" customHeight="1">
       <c r="A87" s="33" t="s">
@@ -4909,24 +4917,24 @@
       <c r="D87" s="33"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
     </row>
     <row r="89" spans="1:4" ht="44" customHeight="1">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="32"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
     </row>
     <row r="91" spans="1:4" ht="33" customHeight="1">
       <c r="A91" s="7" t="s">
@@ -4957,44 +4965,44 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="35"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
     </row>
     <row r="94" spans="1:4" ht="43" customHeight="1">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
     </row>
     <row r="97" spans="1:4" ht="48" customHeight="1">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
     </row>
     <row r="99" spans="1:4" ht="45" customHeight="1">
       <c r="A99" s="33" t="s">
@@ -5005,24 +5013,24 @@
       <c r="D99" s="33"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="32"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
+      <c r="A100" s="30"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
     </row>
     <row r="101" spans="1:4" ht="44" customHeight="1">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
     </row>
     <row r="103" spans="1:4" ht="33" customHeight="1">
       <c r="A103" s="7" t="s">
@@ -5053,44 +5061,44 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="35"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
+      <c r="A105" s="31"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
     </row>
     <row r="106" spans="1:4" ht="43" customHeight="1">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="30"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="30"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
     </row>
     <row r="109" spans="1:4" ht="48" customHeight="1">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="32"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
+      <c r="A110" s="30"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
     </row>
     <row r="111" spans="1:4" ht="45" customHeight="1">
       <c r="A111" s="33" t="s">
@@ -5101,24 +5109,24 @@
       <c r="D111" s="33"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="32"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
+      <c r="A112" s="30"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
     </row>
     <row r="113" spans="1:4" ht="44" customHeight="1">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="32"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
+      <c r="A114" s="30"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
     </row>
     <row r="115" spans="1:4" ht="33" customHeight="1">
       <c r="A115" s="7" t="s">
@@ -5149,44 +5157,44 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="35"/>
-      <c r="B117" s="35"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
+      <c r="A117" s="31"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
     </row>
     <row r="118" spans="1:4" ht="43" customHeight="1">
-      <c r="A118" s="31" t="s">
+      <c r="A118" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="30"/>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="30"/>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
     </row>
     <row r="121" spans="1:4" ht="48" customHeight="1">
-      <c r="A121" s="31" t="s">
+      <c r="A121" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="32"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
+      <c r="A122" s="30"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
     </row>
     <row r="123" spans="1:4" ht="45" customHeight="1">
       <c r="A123" s="33" t="s">
@@ -5197,24 +5205,24 @@
       <c r="D123" s="33"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="32"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
+      <c r="A124" s="30"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
     </row>
     <row r="125" spans="1:4" ht="44" customHeight="1">
-      <c r="A125" s="31" t="s">
+      <c r="A125" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="32"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
+      <c r="A126" s="30"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
     </row>
     <row r="127" spans="1:4" ht="33" customHeight="1">
       <c r="A127" s="7" t="s">
@@ -5245,44 +5253,44 @@
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="35"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
+      <c r="A129" s="31"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
     </row>
     <row r="130" spans="1:4" ht="43" customHeight="1">
-      <c r="A130" s="31" t="s">
+      <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="30"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="30"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
     </row>
     <row r="133" spans="1:4" ht="48" customHeight="1">
-      <c r="A133" s="31" t="s">
+      <c r="A133" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B133" s="31"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="32"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
+      <c r="A134" s="30"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
     </row>
     <row r="135" spans="1:4" ht="45" customHeight="1">
       <c r="A135" s="33" t="s">
@@ -5293,24 +5301,24 @@
       <c r="D135" s="33"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="32"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="32"/>
+      <c r="A136" s="30"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
     </row>
     <row r="137" spans="1:4" ht="44" customHeight="1">
-      <c r="A137" s="31" t="s">
+      <c r="A137" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="32"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="32"/>
+      <c r="A138" s="30"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
     </row>
     <row r="139" spans="1:4" ht="33" customHeight="1">
       <c r="A139" s="7" t="s">
@@ -5341,41 +5349,107 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="35"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
+      <c r="A141" s="31"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
     </row>
     <row r="142" spans="1:4" ht="43" customHeight="1">
-      <c r="A142" s="31" t="s">
+      <c r="A142" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="30"/>
-      <c r="B143" s="30"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
+      <c r="A143" s="36"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="30"/>
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
+      <c r="A144" s="36"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A143:D144"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A131:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A54:D54"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A21:D21"/>
@@ -5392,80 +5466,14 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A131:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A143:D144"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5481,8 +5489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5519,46 +5527,46 @@
       <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -5604,83 +5612,83 @@
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="70" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="6" t="s">
         <v>277</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4" ht="48" customHeight="1">
-      <c r="A18" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="A18" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" ht="45" customHeight="1">
       <c r="A20" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" ht="44" customHeight="1">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1">
       <c r="A24" s="7" t="s">
@@ -5712,85 +5720,85 @@
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:4" ht="43" customHeight="1">
+      <c r="A28" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" ht="43" customHeight="1">
-      <c r="A28" s="31" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" ht="48" customHeight="1">
+      <c r="A31" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="1:4" ht="48" customHeight="1">
-      <c r="A31" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4" ht="45" customHeight="1">
       <c r="A33" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4" ht="44" customHeight="1">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1">
       <c r="A37" s="7" t="s">
@@ -5821,72 +5829,72 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
     </row>
     <row r="40" spans="1:4" ht="43" customHeight="1">
-      <c r="A40" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="A40" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:4" ht="48" customHeight="1">
-      <c r="A43" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
+      <c r="A43" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:4" ht="45" customHeight="1">
       <c r="A45" s="33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4" ht="44" customHeight="1">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="1:4" ht="33" customHeight="1">
       <c r="A49" s="7" t="s">
@@ -5917,33 +5925,31 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" ht="43" customHeight="1">
-      <c r="A52" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
+      <c r="A52" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
@@ -5956,16 +5962,18 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5994,7 +6002,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -6019,46 +6027,46 @@
       <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -6103,58 +6111,58 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4" ht="48" customHeight="1">
-      <c r="A16" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1">
       <c r="A18" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" ht="44" customHeight="1">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -6199,72 +6207,72 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="43" customHeight="1">
-      <c r="A26" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="A26" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
+      <c r="A29" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4" ht="45" customHeight="1">
       <c r="A31" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="7" t="s">
@@ -6309,72 +6317,72 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" ht="43" customHeight="1">
-      <c r="A39" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
+      <c r="A39" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
     </row>
     <row r="42" spans="1:4" ht="48" customHeight="1">
-      <c r="A42" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="A42" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" ht="45" customHeight="1">
       <c r="A44" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
       <c r="A48" s="7" t="s">
@@ -6420,18 +6428,14 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
@@ -6444,14 +6448,18 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6480,7 +6488,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -6505,46 +6513,46 @@
       <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -6575,72 +6583,72 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" ht="48" customHeight="1">
+      <c r="A17" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" ht="45" customHeight="1">
+      <c r="A19" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" ht="48" customHeight="1">
-      <c r="A17" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="1:4" ht="45" customHeight="1">
-      <c r="A19" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" ht="44" customHeight="1">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -6671,72 +6679,72 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="44" customHeight="1">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" ht="48" customHeight="1">
+      <c r="A29" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="1:4" ht="45" customHeight="1">
+      <c r="A31" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-    </row>
-    <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-    </row>
-    <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -6768,85 +6776,85 @@
     </row>
     <row r="37" spans="1:4" ht="83" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="1:4" ht="44" customHeight="1">
+      <c r="A39" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" ht="44" customHeight="1">
-      <c r="A39" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
     </row>
     <row r="42" spans="1:4" ht="48" customHeight="1">
-      <c r="A42" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="A42" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" ht="45" customHeight="1">
       <c r="A44" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
       <c r="A48" s="7" t="s">
@@ -6864,16 +6872,16 @@
     </row>
     <row r="49" spans="1:4" ht="40" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1">
@@ -6892,71 +6900,71 @@
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" ht="48" customHeight="1">
+      <c r="A54" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="45" customHeight="1">
+      <c r="A56" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-    </row>
-    <row r="54" spans="1:4" ht="48" customHeight="1">
-      <c r="A54" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-    </row>
-    <row r="56" spans="1:4" ht="45" customHeight="1">
-      <c r="A56" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="44" customHeight="1">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" spans="1:4" ht="33" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -6988,99 +6996,99 @@
     </row>
     <row r="62" spans="1:4" ht="40" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+    </row>
+    <row r="64" spans="1:4" ht="44" customHeight="1">
+      <c r="A64" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:4" ht="44" customHeight="1">
-      <c r="A64" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
     </row>
     <row r="66" spans="1:4" ht="71" customHeight="1">
-      <c r="A66" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
+      <c r="A66" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4" ht="48" customHeight="1">
-      <c r="A69" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
+      <c r="A69" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
     </row>
     <row r="71" spans="1:4" ht="45" customHeight="1">
       <c r="A71" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4" ht="44" customHeight="1">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
     </row>
     <row r="75" spans="1:4" ht="33" customHeight="1">
       <c r="A75" s="7" t="s">
@@ -7098,131 +7106,113 @@
     </row>
     <row r="76" spans="1:4" ht="40" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="48" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A15:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D68"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A44:D44"/>
@@ -7236,17 +7226,35 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D68"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34380" windowHeight="21120" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="753" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="目标记录相关接口" sheetId="8" r:id="rId6"/>
     <sheet name="督促目标相关接口" sheetId="9" r:id="rId7"/>
     <sheet name="消息相关接口" sheetId="10" r:id="rId8"/>
+    <sheet name="评论相关接口" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="312">
   <si>
     <t>1.获取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,10 +461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.获取目标列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类别id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1139,48 +1136,251 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>请求参数</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>必填</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>示例</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>必</t>
+  </si>
+  <si>
+    <t>类别id</t>
+  </si>
+  <si>
+    <t>type_id=2</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>用户认证Token, 该参数会直接影响数据的社交属性，例如：表示该目标是否被当前用户关注过</t>
+  </si>
+  <si>
+    <t>token＝xxxxxxxx</t>
+  </si>
+  <si>
     <r>
-      <t>GET /goals/:filter （</t>
+      <t>12.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>获取记录列表</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">GET /goals/unsupervise </t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>获取求督促目标列表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>调用示例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GET /goals/hot/notes?type_id=2&amp;token=xxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GET /goals/:filter/notes  ( </t>
     </r>
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Libian SC Regular"/>
       </rPr>
-      <t>该接口废弃，请使用这个接口：/goals/:filter/notes，其它保持不变</t>
+      <t>备注：</t>
     </r>
     <r>
       <rPr>
         <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>值为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hot, recent </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>者之一，分别对应热门，最新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>评论相关接口</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>） ( 备注：filter值为 hot, recent, unsupervise 三者之一，分别对应热门，最新，求督促 )</t>
+      <t>获取某条记录下的所有评论</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证Token</t>
+  </si>
+  <si>
+    <t>token=3xxxxxx</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回复评论</t>
+    </r>
+  </si>
+  <si>
+    <t>POST /comments/reply</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>note_id</t>
+  </si>
+  <si>
+    <t>comment_id</t>
+  </si>
+  <si>
+    <t>body=3xxxxxx</t>
+  </si>
+  <si>
+    <t>note_id=3</t>
+  </si>
+  <si>
+    <t>comment_id=3</t>
+  </si>
+  <si>
+    <t>回复内容</t>
+  </si>
+  <si>
+    <t>记录id</t>
+  </si>
+  <si>
+    <t>评论id</t>
+  </si>
+  <si>
+    <t>调用示例：GET /notes/12/comments</t>
+  </si>
+  <si>
+    <t>GET /notes/:note_id/comments  (备用接口，如果需要可以使用)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1188,14 +1388,14 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1203,7 +1403,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1212,7 +1412,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1221,41 +1421,129 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Libian SC Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Libian SC Regular"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Libian SC Regular"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,8 +1568,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1322,8 +1622,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1505,8 +1842,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1565,6 +1914,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1574,20 +1929,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1595,17 +1944,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1613,195 +1968,264 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="181">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="193">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2146,7 +2570,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="17"/>
@@ -2156,7 +2580,7 @@
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="16"/>
@@ -2166,10 +2590,10 @@
     </row>
     <row r="3" spans="1:6" ht="23" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>233</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2181,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2193,7 +2617,7 @@
         <v>1001</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2205,7 +2629,7 @@
         <v>1002</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2217,7 +2641,7 @@
         <v>1003</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -2229,7 +2653,7 @@
         <v>1004</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2241,7 +2665,7 @@
         <v>1005</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2253,7 +2677,7 @@
         <v>1006</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2265,7 +2689,7 @@
         <v>1011</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2277,7 +2701,7 @@
         <v>1012</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -2289,7 +2713,7 @@
         <v>2001</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2301,7 +2725,7 @@
         <v>2002</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -2313,7 +2737,7 @@
         <v>2003</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -2325,7 +2749,7 @@
         <v>2004</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2337,7 +2761,7 @@
         <v>2005</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -2349,7 +2773,7 @@
         <v>2006</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2361,7 +2785,7 @@
         <v>2007</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -2373,7 +2797,7 @@
         <v>2008</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2385,7 +2809,7 @@
         <v>3001</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2397,7 +2821,7 @@
         <v>3002</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2409,7 +2833,7 @@
         <v>3003</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -2421,7 +2845,7 @@
         <v>4001</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2433,7 +2857,7 @@
         <v>4002</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2445,7 +2869,7 @@
         <v>4003</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2457,7 +2881,7 @@
         <v>4004</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2469,7 +2893,7 @@
         <v>4005</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2481,7 +2905,7 @@
         <v>4006</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2493,7 +2917,7 @@
         <v>4007</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2505,7 +2929,7 @@
         <v>-1</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2517,7 +2941,7 @@
         <v>-10</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2529,7 +2953,7 @@
         <v>401</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2568,72 +2992,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -2664,58 +3088,58 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" ht="48" customHeight="1">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" ht="44" customHeight="1">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1">
       <c r="A21" s="2" t="s">
@@ -2760,58 +3184,58 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" ht="45" customHeight="1">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" ht="44" customHeight="1">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1">
       <c r="A32" s="2" t="s">
@@ -2842,58 +3266,58 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" ht="48" customHeight="1">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="45" customHeight="1">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
     </row>
     <row r="40" spans="1:4" ht="44" customHeight="1">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -2936,58 +3360,58 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" ht="48" customHeight="1">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" ht="45" customHeight="1">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" ht="44" customHeight="1">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" ht="33" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -3100,58 +3524,58 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" ht="48" customHeight="1">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" ht="45" customHeight="1">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
     </row>
     <row r="67" spans="1:4" ht="44" customHeight="1">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" spans="1:4" ht="33" customHeight="1">
       <c r="A69" s="2" t="s">
@@ -3183,99 +3607,99 @@
     </row>
     <row r="71" spans="1:4" ht="88" customHeight="1">
       <c r="A71" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="C71" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="27" customHeight="1">
       <c r="A72" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="C72" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="D72" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+    </row>
+    <row r="74" spans="1:4" ht="44" customHeight="1">
+      <c r="A74" s="22" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-    </row>
-    <row r="74" spans="1:4" ht="44" customHeight="1">
-      <c r="A74" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:4" ht="48" customHeight="1">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
     </row>
     <row r="79" spans="1:4" ht="45" customHeight="1">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
     </row>
     <row r="81" spans="1:4" ht="44" customHeight="1">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="33" customHeight="1">
       <c r="A83" s="2" t="s">
@@ -3304,72 +3728,72 @@
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
     </row>
     <row r="86" spans="1:4" ht="44" customHeight="1">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" ht="48" customHeight="1">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="22"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
     </row>
     <row r="91" spans="1:4" ht="45" customHeight="1">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="22"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
     </row>
     <row r="93" spans="1:4" ht="44" customHeight="1">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
     </row>
     <row r="95" spans="1:4" ht="33" customHeight="1">
       <c r="A95" s="2" t="s">
@@ -3400,72 +3824,72 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
     </row>
     <row r="98" spans="1:4" ht="44" customHeight="1">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
     </row>
     <row r="101" spans="1:4" ht="48" customHeight="1">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="22"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
     </row>
     <row r="103" spans="1:4" ht="45" customHeight="1">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="22"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
     </row>
     <row r="105" spans="1:4" ht="44" customHeight="1">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="22"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
     </row>
     <row r="107" spans="1:4" ht="33" customHeight="1">
       <c r="A107" s="2" t="s">
@@ -3496,72 +3920,72 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="24"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
     </row>
     <row r="110" spans="1:4" ht="44" customHeight="1">
-      <c r="A110" s="20" t="s">
+      <c r="A110" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
     </row>
     <row r="113" spans="1:4" ht="48" customHeight="1">
-      <c r="A113" s="20" t="s">
+      <c r="A113" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="22"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
     </row>
     <row r="115" spans="1:4" ht="45" customHeight="1">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
     </row>
     <row r="117" spans="1:4" ht="44" customHeight="1">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="22"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
     </row>
     <row r="119" spans="1:4" ht="33" customHeight="1">
       <c r="A119" s="2" t="s">
@@ -3592,72 +4016,72 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
     </row>
     <row r="122" spans="1:4" ht="44" customHeight="1">
-      <c r="A122" s="20" t="s">
+      <c r="A122" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B122" s="20"/>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="25"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="25"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
+      <c r="A124" s="21"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
     </row>
     <row r="125" spans="1:4" ht="48" customHeight="1">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="22"/>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
     </row>
     <row r="127" spans="1:4" ht="45" customHeight="1">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="22"/>
-      <c r="B128" s="22"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
+      <c r="A128" s="24"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
     </row>
     <row r="129" spans="1:4" ht="44" customHeight="1">
-      <c r="A129" s="20" t="s">
+      <c r="A129" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="20"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="22"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
+      <c r="A130" s="24"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
     </row>
     <row r="131" spans="1:4" ht="33" customHeight="1">
       <c r="A131" s="2" t="s">
@@ -3702,58 +4126,58 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="24"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="25"/>
-      <c r="B135" s="25"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
     </row>
     <row r="136" spans="1:4" ht="48" customHeight="1">
-      <c r="A136" s="20" t="s">
+      <c r="A136" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="22"/>
-      <c r="B137" s="22"/>
-      <c r="C137" s="22"/>
-      <c r="D137" s="22"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" ht="45" customHeight="1">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="22"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
     </row>
     <row r="140" spans="1:4" ht="44" customHeight="1">
-      <c r="A140" s="20" t="s">
+      <c r="A140" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="20"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="22"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="22"/>
+      <c r="A141" s="24"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
     </row>
     <row r="142" spans="1:4" ht="33" customHeight="1">
       <c r="A142" s="2" t="s">
@@ -3798,19 +4222,98 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="24"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="25"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="25"/>
-      <c r="D146" s="25"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D124"/>
+    <mergeCell ref="A121:D121"/>
     <mergeCell ref="A145:D146"/>
     <mergeCell ref="A98:D98"/>
     <mergeCell ref="A97:D97"/>
@@ -3827,85 +4330,6 @@
     <mergeCell ref="A136:D136"/>
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A134:D135"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D124"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3957,32 +4381,32 @@
       <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4007,7 +4431,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD14"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4045,46 +4469,46 @@
       <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -4115,18 +4539,18 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4152,10 +4576,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D26"/>
+    <sheetView showRuler="0" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4167,44 +4591,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
       <c r="A7" s="33" t="s">
@@ -4215,24 +4639,24 @@
       <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -4319,72 +4743,72 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4" ht="85" customHeight="1">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" ht="48" customHeight="1">
-      <c r="A21" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" ht="55" customHeight="1">
       <c r="A23" s="33" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4" ht="44" customHeight="1">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1">
       <c r="A27" s="7" t="s">
@@ -4408,10 +4832,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="94" customHeight="1">
@@ -4429,72 +4853,72 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
     </row>
     <row r="31" spans="1:4" ht="50" customHeight="1">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34" spans="1:4" ht="48" customHeight="1">
+      <c r="A34" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-    </row>
-    <row r="34" spans="1:4" ht="48" customHeight="1">
-      <c r="A34" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" ht="45" customHeight="1">
       <c r="A36" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:4" ht="44" customHeight="1">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1">
       <c r="A40" s="7" t="s">
@@ -4525,72 +4949,72 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
     </row>
     <row r="43" spans="1:4" ht="85" customHeight="1">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="1:4" ht="48" customHeight="1">
+      <c r="A46" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-    </row>
-    <row r="46" spans="1:4" ht="48" customHeight="1">
-      <c r="A46" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
     </row>
     <row r="48" spans="1:4" ht="45" customHeight="1">
       <c r="A48" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
     </row>
     <row r="50" spans="1:4" ht="44" customHeight="1">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
     </row>
     <row r="52" spans="1:4" ht="33" customHeight="1">
       <c r="A52" s="7" t="s">
@@ -4621,72 +5045,72 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
     </row>
     <row r="55" spans="1:4" ht="43" customHeight="1">
-      <c r="A55" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
+      <c r="A55" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
     </row>
     <row r="58" spans="1:4" ht="48" customHeight="1">
-      <c r="A58" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
+      <c r="A58" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
     </row>
     <row r="60" spans="1:4" ht="45" customHeight="1">
       <c r="A60" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
     </row>
     <row r="62" spans="1:4" ht="44" customHeight="1">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
     </row>
     <row r="64" spans="1:4" ht="33" customHeight="1">
       <c r="A64" s="7" t="s">
@@ -4710,135 +5134,135 @@
         <v>9</v>
       </c>
       <c r="C65" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="63" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="36"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4" ht="48" customHeight="1">
-      <c r="A73" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
+      <c r="A73" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
     </row>
     <row r="75" spans="1:4" ht="45" customHeight="1">
       <c r="A75" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
     </row>
     <row r="77" spans="1:4" ht="44" customHeight="1">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
     </row>
     <row r="79" spans="1:4" ht="33" customHeight="1">
       <c r="A79" s="7" t="s">
@@ -4862,79 +5286,79 @@
         <v>9</v>
       </c>
       <c r="C80" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D80" s="6" t="s">
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+    </row>
+    <row r="82" spans="1:4" ht="43" customHeight="1">
+      <c r="A82" s="31" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-    </row>
-    <row r="82" spans="1:4" ht="43" customHeight="1">
-      <c r="A82" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="36"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
     </row>
     <row r="85" spans="1:4" ht="48" customHeight="1">
-      <c r="A85" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
+      <c r="A85" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
     </row>
     <row r="87" spans="1:4" ht="45" customHeight="1">
       <c r="A87" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
     </row>
     <row r="89" spans="1:4" ht="44" customHeight="1">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
     </row>
     <row r="91" spans="1:4" ht="33" customHeight="1">
       <c r="A91" s="7" t="s">
@@ -4958,79 +5382,79 @@
         <v>9</v>
       </c>
       <c r="C92" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="31"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
     </row>
     <row r="94" spans="1:4" ht="43" customHeight="1">
-      <c r="A94" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
+      <c r="A94" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="36"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="36"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
     </row>
     <row r="97" spans="1:4" ht="48" customHeight="1">
-      <c r="A97" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
+      <c r="A97" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="30"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
     </row>
     <row r="99" spans="1:4" ht="45" customHeight="1">
       <c r="A99" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B99" s="33"/>
       <c r="C99" s="33"/>
       <c r="D99" s="33"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
     </row>
     <row r="101" spans="1:4" ht="44" customHeight="1">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="30"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
     </row>
     <row r="103" spans="1:4" ht="33" customHeight="1">
       <c r="A103" s="7" t="s">
@@ -5054,79 +5478,79 @@
         <v>9</v>
       </c>
       <c r="C104" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="31"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
+      <c r="A105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
     </row>
     <row r="106" spans="1:4" ht="43" customHeight="1">
-      <c r="A106" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
+      <c r="A106" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="36"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="36"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
+      <c r="A108" s="30"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
     </row>
     <row r="109" spans="1:4" ht="48" customHeight="1">
-      <c r="A109" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
+      <c r="A109" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="30"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
+      <c r="A110" s="32"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
     </row>
     <row r="111" spans="1:4" ht="45" customHeight="1">
       <c r="A111" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B111" s="33"/>
       <c r="C111" s="33"/>
       <c r="D111" s="33"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="30"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
+      <c r="A112" s="32"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
     </row>
     <row r="113" spans="1:4" ht="44" customHeight="1">
-      <c r="A113" s="32" t="s">
+      <c r="A113" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="30"/>
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
+      <c r="A114" s="32"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
     </row>
     <row r="115" spans="1:4" ht="33" customHeight="1">
       <c r="A115" s="7" t="s">
@@ -5150,79 +5574,79 @@
         <v>9</v>
       </c>
       <c r="C116" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="31"/>
-      <c r="B117" s="31"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="31"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
     </row>
     <row r="118" spans="1:4" ht="43" customHeight="1">
-      <c r="A118" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B118" s="32"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="32"/>
+      <c r="A118" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="36"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
+      <c r="A119" s="30"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="36"/>
-      <c r="B120" s="36"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
+      <c r="A120" s="30"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
     </row>
     <row r="121" spans="1:4" ht="48" customHeight="1">
-      <c r="A121" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
+      <c r="A121" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="30"/>
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
+      <c r="A122" s="32"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
     </row>
     <row r="123" spans="1:4" ht="45" customHeight="1">
       <c r="A123" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B123" s="33"/>
       <c r="C123" s="33"/>
       <c r="D123" s="33"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="30"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
     </row>
     <row r="125" spans="1:4" ht="44" customHeight="1">
-      <c r="A125" s="32" t="s">
+      <c r="A125" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="30"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
+      <c r="A126" s="32"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
     </row>
     <row r="127" spans="1:4" ht="33" customHeight="1">
       <c r="A127" s="7" t="s">
@@ -5246,79 +5670,79 @@
         <v>9</v>
       </c>
       <c r="C128" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D128" s="6" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="31"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="31"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
     </row>
     <row r="130" spans="1:4" ht="43" customHeight="1">
-      <c r="A130" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
+      <c r="A130" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="36"/>
-      <c r="B131" s="36"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="36"/>
+      <c r="A131" s="30"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="36"/>
-      <c r="B132" s="36"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="36"/>
+      <c r="A132" s="30"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
     </row>
     <row r="133" spans="1:4" ht="48" customHeight="1">
-      <c r="A133" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B133" s="32"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
+      <c r="A133" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B133" s="31"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="30"/>
-      <c r="B134" s="30"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
+      <c r="A134" s="32"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
     </row>
     <row r="135" spans="1:4" ht="45" customHeight="1">
       <c r="A135" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" s="33"/>
       <c r="C135" s="33"/>
       <c r="D135" s="33"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="30"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
+      <c r="A136" s="32"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
     </row>
     <row r="137" spans="1:4" ht="44" customHeight="1">
-      <c r="A137" s="32" t="s">
+      <c r="A137" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="32"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="30"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
+      <c r="A138" s="32"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
     </row>
     <row r="139" spans="1:4" ht="33" customHeight="1">
       <c r="A139" s="7" t="s">
@@ -5342,40 +5766,228 @@
         <v>9</v>
       </c>
       <c r="C140" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D140" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D140" s="6" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="31"/>
-      <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31"/>
+      <c r="A141" s="35"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
     </row>
     <row r="142" spans="1:4" ht="43" customHeight="1">
-      <c r="A142" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B142" s="32"/>
-      <c r="C142" s="32"/>
-      <c r="D142" s="32"/>
+      <c r="A142" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="36"/>
-      <c r="B143" s="36"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36"/>
+      <c r="A143" s="30"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="36"/>
-      <c r="B144" s="36"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="36"/>
+      <c r="A144" s="30"/>
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+    </row>
+    <row r="145" spans="1:4" ht="23" customHeight="1">
+      <c r="A145" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="B145" s="44"/>
+      <c r="C145" s="44"/>
+      <c r="D145" s="44"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="45"/>
+      <c r="B146" s="45"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="45"/>
+    </row>
+    <row r="147" spans="1:4" ht="23" customHeight="1">
+      <c r="A147" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="B147" s="46"/>
+      <c r="C147" s="46"/>
+      <c r="D147" s="46"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="45"/>
+      <c r="B148" s="45"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="45"/>
+    </row>
+    <row r="149" spans="1:4" ht="23" customHeight="1">
+      <c r="A149" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="B149" s="44"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="47"/>
+      <c r="B150" s="47"/>
+      <c r="C150" s="47"/>
+      <c r="D150" s="47"/>
+    </row>
+    <row r="151" spans="1:4" ht="18">
+      <c r="A151" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="B151" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="C151" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D151" s="40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="18">
+      <c r="A152" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="B152" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C152" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D152" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="90">
+      <c r="A153" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="B153" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="C153" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="D153" s="43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="48"/>
+      <c r="B154" s="48"/>
+      <c r="C154" s="48"/>
+      <c r="D154" s="48"/>
+    </row>
+    <row r="155" spans="1:4" ht="23" customHeight="1">
+      <c r="A155" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B155" s="44"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="106">
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A131:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
     <mergeCell ref="A143:D144"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:D59"/>
@@ -5392,91 +6004,10 @@
     <mergeCell ref="A142:D142"/>
     <mergeCell ref="A126:D126"/>
     <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A131:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5489,8 +6020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView showRuler="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5502,7 +6033,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -5527,46 +6058,46 @@
       <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -5584,16 +6115,16 @@
     </row>
     <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1">
@@ -5604,91 +6135,91 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="70" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" ht="48" customHeight="1">
-      <c r="A18" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="A18" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" ht="45" customHeight="1">
       <c r="A20" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4" ht="44" customHeight="1">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1">
       <c r="A24" s="7" t="s">
@@ -5712,93 +6243,93 @@
         <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="1:4" ht="43" customHeight="1">
+      <c r="A28" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28" spans="1:4" ht="43" customHeight="1">
-      <c r="A28" s="32" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" ht="48" customHeight="1">
+      <c r="A31" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-    </row>
-    <row r="31" spans="1:4" ht="48" customHeight="1">
-      <c r="A31" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4" ht="45" customHeight="1">
       <c r="A33" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:4" ht="44" customHeight="1">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1">
       <c r="A37" s="7" t="s">
@@ -5822,79 +6353,79 @@
         <v>9</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:4" ht="43" customHeight="1">
-      <c r="A40" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="A40" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:4" ht="48" customHeight="1">
-      <c r="A43" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="A43" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="1:4" ht="45" customHeight="1">
       <c r="A45" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4" ht="44" customHeight="1">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
     </row>
     <row r="49" spans="1:4" ht="33" customHeight="1">
       <c r="A49" s="7" t="s">
@@ -5918,38 +6449,40 @@
         <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" ht="43" customHeight="1">
-      <c r="A52" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="A52" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
@@ -5962,21 +6495,20 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6002,7 +6534,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -6027,46 +6559,46 @@
       <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -6084,16 +6616,16 @@
     </row>
     <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1">
@@ -6104,65 +6636,65 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" ht="48" customHeight="1">
-      <c r="A16" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1">
       <c r="A18" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" ht="44" customHeight="1">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -6186,93 +6718,93 @@
         <v>9</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="40" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="43" customHeight="1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" ht="48" customHeight="1">
+      <c r="A29" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-    </row>
-    <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" ht="45" customHeight="1">
       <c r="A31" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="7" t="s">
@@ -6296,93 +6828,93 @@
         <v>9</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="40" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="43" customHeight="1">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:4" ht="48" customHeight="1">
+      <c r="A42" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-    </row>
-    <row r="42" spans="1:4" ht="48" customHeight="1">
-      <c r="A42" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4" ht="45" customHeight="1">
       <c r="A44" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
       <c r="A48" s="7" t="s">
@@ -6400,16 +6932,16 @@
     </row>
     <row r="49" spans="1:4" ht="40" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1">
@@ -6420,22 +6952,26 @@
         <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
@@ -6448,18 +6984,14 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6488,7 +7020,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -6513,46 +7045,46 @@
       <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1">
+      <c r="A7" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -6576,79 +7108,79 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" ht="48" customHeight="1">
+      <c r="A17" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:4" ht="48" customHeight="1">
-      <c r="A17" s="20" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:4" ht="45" customHeight="1">
+      <c r="A19" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" ht="45" customHeight="1">
-      <c r="A19" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="44" customHeight="1">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -6672,79 +7204,79 @@
         <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="44" customHeight="1">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" ht="48" customHeight="1">
+      <c r="A29" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-    </row>
-    <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="20" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="1:4" ht="45" customHeight="1">
+      <c r="A31" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -6768,93 +7300,93 @@
         <v>9</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="83" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="6" t="s">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" ht="44" customHeight="1">
+      <c r="A39" s="22" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-    </row>
-    <row r="39" spans="1:4" ht="44" customHeight="1">
-      <c r="A39" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" ht="48" customHeight="1">
-      <c r="A42" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="A42" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4" ht="45" customHeight="1">
       <c r="A44" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
       <c r="A48" s="7" t="s">
@@ -6872,16 +7404,16 @@
     </row>
     <row r="49" spans="1:4" ht="40" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1">
@@ -6892,79 +7424,79 @@
         <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D51" s="6" t="s">
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" ht="48" customHeight="1">
+      <c r="A54" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+    </row>
+    <row r="56" spans="1:4" ht="45" customHeight="1">
+      <c r="A56" s="23" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-    </row>
-    <row r="54" spans="1:4" ht="48" customHeight="1">
-      <c r="A54" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="45" customHeight="1">
-      <c r="A56" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4" ht="44" customHeight="1">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" ht="33" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -6988,107 +7520,107 @@
         <v>9</v>
       </c>
       <c r="C61" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="40" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D62" s="6" t="s">
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:4" ht="44" customHeight="1">
+      <c r="A64" s="22" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-    </row>
-    <row r="64" spans="1:4" ht="44" customHeight="1">
-      <c r="A64" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" ht="71" customHeight="1">
-      <c r="A66" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
+      <c r="A66" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="48" customHeight="1">
-      <c r="A69" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
+      <c r="A69" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
     </row>
     <row r="71" spans="1:4" ht="45" customHeight="1">
       <c r="A71" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
     </row>
     <row r="73" spans="1:4" ht="44" customHeight="1">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
     </row>
     <row r="75" spans="1:4" ht="33" customHeight="1">
       <c r="A75" s="7" t="s">
@@ -7106,113 +7638,128 @@
     </row>
     <row r="76" spans="1:4" ht="40" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="48" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D68"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A44:D44"/>
@@ -7229,32 +7776,17 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A27:D28"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A15:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7264,4 +7796,238 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1">
+      <c r="A5" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1">
+      <c r="A7" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" ht="43" customHeight="1">
+      <c r="A9" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="23" customHeight="1">
+      <c r="A12" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="A14" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+    </row>
+    <row r="16" spans="1:4" ht="23" customHeight="1">
+      <c r="A16" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+    </row>
+    <row r="18" spans="1:4" ht="33" customHeight="1">
+      <c r="A18" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="32" customHeight="1">
+      <c r="A19" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="24" customHeight="1">
+      <c r="A20" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31" customHeight="1">
+      <c r="A21" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31" customHeight="1">
+      <c r="A22" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="22" customHeight="1">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="753" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="753" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="317">
   <si>
     <t>1.获取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1364,18 +1364,32 @@
   <si>
     <t>GET /notes/:note_id/comments  (备用接口，如果需要可以使用)</t>
   </si>
+  <si>
+    <t>POST /user/bind</t>
+  </si>
+  <si>
+    <t>provider_id</t>
+  </si>
+  <si>
+    <t>第三方平台提供的uid</t>
+  </si>
+  <si>
+    <t>provider_id=xxxxx</t>
+  </si>
+  <si>
+    <t>13.第三方认证登录绑定用户资料接口</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1542,6 +1556,19 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1660,7 +1687,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="193">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1854,8 +1881,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1908,66 +1937,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1985,27 +1954,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2025,14 +1973,113 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="193">
+  <cellStyles count="195">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2129,6 +2176,7 @@
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2225,6 +2273,7 @@
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2569,20 +2618,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="11"/>
@@ -2977,10 +3026,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2992,72 +3041,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -3088,58 +3137,58 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" ht="48" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4" ht="44" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1">
       <c r="A21" s="2" t="s">
@@ -3184,58 +3233,58 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" ht="45" customHeight="1">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4" ht="44" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1">
       <c r="A32" s="2" t="s">
@@ -3266,58 +3315,58 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" ht="48" customHeight="1">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:4" ht="45" customHeight="1">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
     </row>
     <row r="40" spans="1:4" ht="44" customHeight="1">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -3360,58 +3409,58 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4" ht="48" customHeight="1">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
     </row>
     <row r="49" spans="1:4" ht="45" customHeight="1">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="44" customHeight="1">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
     </row>
     <row r="53" spans="1:4" ht="33" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -3524,58 +3573,58 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="1:4" ht="48" customHeight="1">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
     </row>
     <row r="65" spans="1:4" ht="45" customHeight="1">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
     </row>
     <row r="67" spans="1:4" ht="44" customHeight="1">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
     </row>
     <row r="69" spans="1:4" ht="33" customHeight="1">
       <c r="A69" s="2" t="s">
@@ -3634,72 +3683,72 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
     </row>
     <row r="74" spans="1:4" ht="44" customHeight="1">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
     </row>
     <row r="77" spans="1:4" ht="48" customHeight="1">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
     </row>
     <row r="79" spans="1:4" ht="45" customHeight="1">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
     </row>
     <row r="81" spans="1:4" ht="44" customHeight="1">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
     </row>
     <row r="83" spans="1:4" ht="33" customHeight="1">
       <c r="A83" s="2" t="s">
@@ -3728,72 +3777,72 @@
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="20"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
     </row>
     <row r="86" spans="1:4" ht="44" customHeight="1">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="21"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="21"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
     </row>
     <row r="89" spans="1:4" ht="48" customHeight="1">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
     </row>
     <row r="91" spans="1:4" ht="45" customHeight="1">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="24"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
     </row>
     <row r="93" spans="1:4" ht="44" customHeight="1">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
     </row>
     <row r="95" spans="1:4" ht="33" customHeight="1">
       <c r="A95" s="2" t="s">
@@ -3824,72 +3873,72 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
     </row>
     <row r="98" spans="1:4" ht="44" customHeight="1">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
     </row>
     <row r="101" spans="1:4" ht="48" customHeight="1">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
     </row>
     <row r="103" spans="1:4" ht="45" customHeight="1">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="24"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
     </row>
     <row r="105" spans="1:4" ht="44" customHeight="1">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
     </row>
     <row r="107" spans="1:4" ht="33" customHeight="1">
       <c r="A107" s="2" t="s">
@@ -3920,72 +3969,72 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
     </row>
     <row r="110" spans="1:4" ht="44" customHeight="1">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="21"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="21"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
     </row>
     <row r="113" spans="1:4" ht="48" customHeight="1">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
     </row>
     <row r="115" spans="1:4" ht="45" customHeight="1">
-      <c r="A115" s="23" t="s">
+      <c r="A115" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
     </row>
     <row r="117" spans="1:4" ht="44" customHeight="1">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
     </row>
     <row r="119" spans="1:4" ht="33" customHeight="1">
       <c r="A119" s="2" t="s">
@@ -4016,72 +4065,72 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="20"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
     </row>
     <row r="122" spans="1:4" ht="44" customHeight="1">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B122" s="22"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="21"/>
-      <c r="B123" s="21"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="37"/>
+      <c r="D123" s="37"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="21"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="21"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="37"/>
     </row>
     <row r="125" spans="1:4" ht="48" customHeight="1">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
     </row>
     <row r="127" spans="1:4" ht="45" customHeight="1">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="24"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
     </row>
     <row r="129" spans="1:4" ht="44" customHeight="1">
-      <c r="A129" s="22" t="s">
+      <c r="A129" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
     </row>
     <row r="131" spans="1:4" ht="33" customHeight="1">
       <c r="A131" s="2" t="s">
@@ -4126,58 +4175,58 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="20"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
+      <c r="A134" s="36"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="36"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="21"/>
-      <c r="B135" s="21"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="21"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
     </row>
     <row r="136" spans="1:4" ht="48" customHeight="1">
-      <c r="A136" s="22" t="s">
+      <c r="A136" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B136" s="22"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="24"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
+      <c r="A137" s="34"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="34"/>
     </row>
     <row r="138" spans="1:4" ht="45" customHeight="1">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="24"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
+      <c r="A139" s="34"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="34"/>
     </row>
     <row r="140" spans="1:4" ht="44" customHeight="1">
-      <c r="A140" s="22" t="s">
+      <c r="A140" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="22"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="34"/>
     </row>
     <row r="142" spans="1:4" ht="33" customHeight="1">
       <c r="A142" s="2" t="s">
@@ -4222,19 +4271,256 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="20"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="20"/>
+      <c r="A145" s="36"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="21"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="37"/>
+      <c r="C146" s="37"/>
+      <c r="D146" s="37"/>
+    </row>
+    <row r="147" spans="1:4" ht="48" customHeight="1">
+      <c r="A147" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="B147" s="63"/>
+      <c r="C147" s="63"/>
+      <c r="D147" s="63"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="34"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="34"/>
+    </row>
+    <row r="149" spans="1:4" ht="45" customHeight="1">
+      <c r="A149" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="B149" s="64"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="64"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="34"/>
+      <c r="B150" s="34"/>
+      <c r="C150" s="34"/>
+      <c r="D150" s="34"/>
+    </row>
+    <row r="151" spans="1:4" ht="44" customHeight="1">
+      <c r="A151" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="63"/>
+      <c r="C151" s="63"/>
+      <c r="D151" s="63"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="34"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
+    </row>
+    <row r="153" spans="1:4" ht="33" customHeight="1">
+      <c r="A153" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="29" customHeight="1">
+      <c r="A154" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="B154" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="D154" s="61" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="29" customHeight="1">
+      <c r="A155" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D155" s="61"/>
+    </row>
+    <row r="156" spans="1:4" ht="30" customHeight="1">
+      <c r="A156" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B156" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D156" s="61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="25" customHeight="1">
+      <c r="A157" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B157" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D157" s="61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="24" customHeight="1">
+      <c r="A158" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B158" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C158" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D158" s="61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="29" customHeight="1">
+      <c r="A159" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B159" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D159" s="61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="27" customHeight="1">
+      <c r="A160" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B160" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" s="61" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="101">
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A145:D146"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A134:D135"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D124"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
@@ -4251,88 +4537,10 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D124"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A145:D146"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A134:D135"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4355,58 +4563,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4443,72 +4651,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -4539,18 +4747,18 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4591,72 +4799,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -4743,72 +4951,72 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4" ht="85" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
     </row>
     <row r="21" spans="1:4" ht="48" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
     </row>
     <row r="23" spans="1:4" ht="55" customHeight="1">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
     </row>
     <row r="25" spans="1:4" ht="44" customHeight="1">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1">
       <c r="A27" s="7" t="s">
@@ -4853,72 +5061,72 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
     </row>
     <row r="31" spans="1:4" ht="50" customHeight="1">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:4" ht="48" customHeight="1">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
     </row>
     <row r="36" spans="1:4" ht="45" customHeight="1">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
     </row>
     <row r="38" spans="1:4" ht="44" customHeight="1">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1">
       <c r="A40" s="7" t="s">
@@ -4949,72 +5157,72 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
     </row>
     <row r="43" spans="1:4" ht="85" customHeight="1">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:4" ht="48" customHeight="1">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
     </row>
     <row r="48" spans="1:4" ht="45" customHeight="1">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
     </row>
     <row r="50" spans="1:4" ht="44" customHeight="1">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
     </row>
     <row r="52" spans="1:4" ht="33" customHeight="1">
       <c r="A52" s="7" t="s">
@@ -5045,72 +5253,72 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
     </row>
     <row r="55" spans="1:4" ht="43" customHeight="1">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:4" ht="48" customHeight="1">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
     </row>
     <row r="60" spans="1:4" ht="45" customHeight="1">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
     </row>
     <row r="62" spans="1:4" ht="44" customHeight="1">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
     </row>
     <row r="64" spans="1:4" ht="33" customHeight="1">
       <c r="A64" s="7" t="s">
@@ -5211,58 +5419,58 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
+      <c r="A72" s="53"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
     </row>
     <row r="73" spans="1:4" ht="48" customHeight="1">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
     </row>
     <row r="75" spans="1:4" ht="45" customHeight="1">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
     </row>
     <row r="77" spans="1:4" ht="44" customHeight="1">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
     </row>
     <row r="79" spans="1:4" ht="33" customHeight="1">
       <c r="A79" s="7" t="s">
@@ -5293,72 +5501,72 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
+      <c r="A81" s="48"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
     </row>
     <row r="82" spans="1:4" ht="43" customHeight="1">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
+      <c r="A84" s="53"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
     </row>
     <row r="85" spans="1:4" ht="48" customHeight="1">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
     </row>
     <row r="87" spans="1:4" ht="45" customHeight="1">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
     </row>
     <row r="89" spans="1:4" ht="44" customHeight="1">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="32"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
     </row>
     <row r="91" spans="1:4" ht="33" customHeight="1">
       <c r="A91" s="7" t="s">
@@ -5389,72 +5597,72 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="35"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
     </row>
     <row r="94" spans="1:4" ht="43" customHeight="1">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
+      <c r="A95" s="53"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
+      <c r="A96" s="53"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
     </row>
     <row r="97" spans="1:4" ht="48" customHeight="1">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
+      <c r="A98" s="47"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="47"/>
     </row>
     <row r="99" spans="1:4" ht="45" customHeight="1">
-      <c r="A99" s="33" t="s">
+      <c r="A99" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="33"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="50"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="32"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
+      <c r="A100" s="47"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
     </row>
     <row r="101" spans="1:4" ht="44" customHeight="1">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
+      <c r="A102" s="47"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
     </row>
     <row r="103" spans="1:4" ht="33" customHeight="1">
       <c r="A103" s="7" t="s">
@@ -5485,72 +5693,72 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="35"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
+      <c r="A105" s="48"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
     </row>
     <row r="106" spans="1:4" ht="43" customHeight="1">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
+      <c r="B106" s="49"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="30"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
+      <c r="A107" s="53"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="53"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="30"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
+      <c r="A108" s="53"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
     </row>
     <row r="109" spans="1:4" ht="48" customHeight="1">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="32"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
+      <c r="A110" s="47"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="47"/>
+      <c r="D110" s="47"/>
     </row>
     <row r="111" spans="1:4" ht="45" customHeight="1">
-      <c r="A111" s="33" t="s">
+      <c r="A111" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="50"/>
+      <c r="D111" s="50"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="32"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
+      <c r="A112" s="47"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
     </row>
     <row r="113" spans="1:4" ht="44" customHeight="1">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="32"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
+      <c r="A114" s="47"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="47"/>
+      <c r="D114" s="47"/>
     </row>
     <row r="115" spans="1:4" ht="33" customHeight="1">
       <c r="A115" s="7" t="s">
@@ -5581,72 +5789,72 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="35"/>
-      <c r="B117" s="35"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
+      <c r="A117" s="48"/>
+      <c r="B117" s="48"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="48"/>
     </row>
     <row r="118" spans="1:4" ht="43" customHeight="1">
-      <c r="A118" s="31" t="s">
+      <c r="A118" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
+      <c r="B118" s="49"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="49"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="30"/>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
+      <c r="A119" s="53"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="53"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="30"/>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
+      <c r="A120" s="53"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="53"/>
     </row>
     <row r="121" spans="1:4" ht="48" customHeight="1">
-      <c r="A121" s="31" t="s">
+      <c r="A121" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
+      <c r="B121" s="49"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="49"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="32"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
+      <c r="A122" s="47"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
     </row>
     <row r="123" spans="1:4" ht="45" customHeight="1">
-      <c r="A123" s="33" t="s">
+      <c r="A123" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B123" s="33"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
+      <c r="B123" s="50"/>
+      <c r="C123" s="50"/>
+      <c r="D123" s="50"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="32"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
+      <c r="A124" s="47"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
     </row>
     <row r="125" spans="1:4" ht="44" customHeight="1">
-      <c r="A125" s="31" t="s">
+      <c r="A125" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
+      <c r="B125" s="49"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="49"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="32"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
+      <c r="A126" s="47"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="47"/>
     </row>
     <row r="127" spans="1:4" ht="33" customHeight="1">
       <c r="A127" s="7" t="s">
@@ -5677,72 +5885,72 @@
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="35"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
+      <c r="A129" s="48"/>
+      <c r="B129" s="48"/>
+      <c r="C129" s="48"/>
+      <c r="D129" s="48"/>
     </row>
     <row r="130" spans="1:4" ht="43" customHeight="1">
-      <c r="A130" s="31" t="s">
+      <c r="A130" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
+      <c r="B130" s="49"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="49"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="30"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
+      <c r="A131" s="53"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="53"/>
+      <c r="D131" s="53"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="30"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
+      <c r="A132" s="53"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
     </row>
     <row r="133" spans="1:4" ht="48" customHeight="1">
-      <c r="A133" s="31" t="s">
+      <c r="A133" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B133" s="31"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
+      <c r="B133" s="49"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="49"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="32"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
+      <c r="A134" s="47"/>
+      <c r="B134" s="47"/>
+      <c r="C134" s="47"/>
+      <c r="D134" s="47"/>
     </row>
     <row r="135" spans="1:4" ht="45" customHeight="1">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
+      <c r="B135" s="50"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="50"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="32"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="32"/>
+      <c r="A136" s="47"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="47"/>
+      <c r="D136" s="47"/>
     </row>
     <row r="137" spans="1:4" ht="44" customHeight="1">
-      <c r="A137" s="31" t="s">
+      <c r="A137" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
+      <c r="B137" s="49"/>
+      <c r="C137" s="49"/>
+      <c r="D137" s="49"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="32"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="32"/>
+      <c r="A138" s="47"/>
+      <c r="B138" s="47"/>
+      <c r="C138" s="47"/>
+      <c r="D138" s="47"/>
     </row>
     <row r="139" spans="1:4" ht="33" customHeight="1">
       <c r="A139" s="7" t="s">
@@ -5773,30 +5981,30 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="35"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
+      <c r="A141" s="48"/>
+      <c r="B141" s="48"/>
+      <c r="C141" s="48"/>
+      <c r="D141" s="48"/>
     </row>
     <row r="142" spans="1:4" ht="43" customHeight="1">
-      <c r="A142" s="31" t="s">
+      <c r="A142" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31"/>
+      <c r="B142" s="49"/>
+      <c r="C142" s="49"/>
+      <c r="D142" s="49"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="30"/>
-      <c r="B143" s="30"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
+      <c r="A143" s="53"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="53"/>
+      <c r="D143" s="53"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="30"/>
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
+      <c r="A144" s="53"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="53"/>
     </row>
     <row r="145" spans="1:4" ht="23" customHeight="1">
       <c r="A145" s="44" t="s">
@@ -5835,58 +6043,58 @@
       <c r="D149" s="44"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="47"/>
-      <c r="B150" s="47"/>
-      <c r="C150" s="47"/>
-      <c r="D150" s="47"/>
+      <c r="A150" s="42"/>
+      <c r="B150" s="42"/>
+      <c r="C150" s="42"/>
+      <c r="D150" s="42"/>
     </row>
     <row r="151" spans="1:4" ht="18">
-      <c r="A151" s="38" t="s">
+      <c r="A151" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="B151" s="39" t="s">
+      <c r="B151" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C151" s="40" t="s">
+      <c r="C151" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="D151" s="40" t="s">
+      <c r="D151" s="20" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="18">
-      <c r="A152" s="41" t="s">
+      <c r="A152" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="B152" s="42" t="s">
+      <c r="B152" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="C152" s="43" t="s">
+      <c r="C152" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="D152" s="43" t="s">
+      <c r="D152" s="23" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="90">
-      <c r="A153" s="41" t="s">
+      <c r="A153" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B153" s="42" t="s">
+      <c r="B153" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="C153" s="43" t="s">
+      <c r="C153" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="D153" s="43" t="s">
+      <c r="D153" s="23" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="48"/>
-      <c r="B154" s="48"/>
-      <c r="C154" s="48"/>
-      <c r="D154" s="48"/>
+      <c r="A154" s="43"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="43"/>
+      <c r="D154" s="43"/>
     </row>
     <row r="155" spans="1:4" ht="23" customHeight="1">
       <c r="A155" s="44" t="s">
@@ -5898,17 +6106,67 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A143:D144"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A131:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A81:D81"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
@@ -5930,6 +6188,17 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A42:D42"/>
@@ -5943,71 +6212,9 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A131:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A143:D144"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A129:D129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6032,72 +6239,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -6168,58 +6375,58 @@
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="1:4" ht="48" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
     </row>
     <row r="20" spans="1:4" ht="45" customHeight="1">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="44" customHeight="1">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1">
       <c r="A24" s="7" t="s">
@@ -6264,72 +6471,72 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4" ht="43" customHeight="1">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:4" ht="48" customHeight="1">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
     </row>
     <row r="33" spans="1:4" ht="45" customHeight="1">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
     </row>
     <row r="35" spans="1:4" ht="44" customHeight="1">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
     </row>
     <row r="37" spans="1:4" ht="33" customHeight="1">
       <c r="A37" s="7" t="s">
@@ -6360,72 +6567,72 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
     </row>
     <row r="40" spans="1:4" ht="43" customHeight="1">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" ht="48" customHeight="1">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
     </row>
     <row r="45" spans="1:4" ht="45" customHeight="1">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
     </row>
     <row r="47" spans="1:4" ht="44" customHeight="1">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
     </row>
     <row r="49" spans="1:4" ht="33" customHeight="1">
       <c r="A49" s="7" t="s">
@@ -6456,33 +6663,31 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
     </row>
     <row r="52" spans="1:4" ht="43" customHeight="1">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
@@ -6495,20 +6700,21 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6533,72 +6739,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -6643,58 +6849,58 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4" ht="48" customHeight="1">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
     </row>
     <row r="20" spans="1:4" ht="44" customHeight="1">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -6739,72 +6945,72 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:4" ht="43" customHeight="1">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
     </row>
     <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="7" t="s">
@@ -6849,72 +7055,72 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="1:4" ht="43" customHeight="1">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:4" ht="48" customHeight="1">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
     </row>
     <row r="44" spans="1:4" ht="45" customHeight="1">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
       <c r="A48" s="7" t="s">
@@ -6960,18 +7166,14 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
@@ -6984,14 +7186,18 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7019,72 +7225,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -7115,72 +7321,72 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4" ht="48" customHeight="1">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
     </row>
     <row r="21" spans="1:4" ht="44" customHeight="1">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -7211,72 +7417,72 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:4" ht="44" customHeight="1">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -7321,72 +7527,72 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="1:4" ht="44" customHeight="1">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:4" ht="48" customHeight="1">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
     </row>
     <row r="44" spans="1:4" ht="45" customHeight="1">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
       <c r="A48" s="7" t="s">
@@ -7445,58 +7651,58 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
     </row>
     <row r="54" spans="1:4" ht="48" customHeight="1">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
     </row>
     <row r="56" spans="1:4" ht="45" customHeight="1">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
     </row>
     <row r="58" spans="1:4" ht="44" customHeight="1">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
     </row>
     <row r="60" spans="1:4" ht="33" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -7541,86 +7747,86 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
     </row>
     <row r="64" spans="1:4" ht="44" customHeight="1">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
     </row>
     <row r="66" spans="1:4" ht="71" customHeight="1">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
     </row>
     <row r="69" spans="1:4" ht="48" customHeight="1">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
     </row>
     <row r="71" spans="1:4" ht="45" customHeight="1">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
     </row>
     <row r="73" spans="1:4" ht="44" customHeight="1">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
     </row>
     <row r="75" spans="1:4" ht="33" customHeight="1">
       <c r="A75" s="7" t="s">
@@ -7721,24 +7927,51 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D68"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A40:D41"/>
@@ -7755,38 +7988,11 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D68"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7802,8 +8008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7814,44 +8020,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
       <c r="A7" s="58" t="s">
@@ -7862,30 +8068,30 @@
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4" ht="43" customHeight="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4" ht="23" customHeight="1">
       <c r="A12" s="44" t="s">
@@ -7924,106 +8130,105 @@
       <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="29" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="32" customHeight="1">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24" customHeight="1">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="24" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31" customHeight="1">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="24" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="31" customHeight="1">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="24" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22" customHeight="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="753" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="753" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="320">
   <si>
     <t>1.获取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1315,76 +1315,85 @@
     <t>token=3xxxxxx</t>
   </si>
   <si>
+    <t>POST /comments/reply</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>note_id</t>
+  </si>
+  <si>
+    <t>comment_id</t>
+  </si>
+  <si>
+    <t>body=3xxxxxx</t>
+  </si>
+  <si>
+    <t>note_id=3</t>
+  </si>
+  <si>
+    <t>comment_id=3</t>
+  </si>
+  <si>
+    <t>回复内容</t>
+  </si>
+  <si>
+    <t>记录id</t>
+  </si>
+  <si>
+    <t>评论id</t>
+  </si>
+  <si>
+    <t>调用示例：GET /notes/12/comments</t>
+  </si>
+  <si>
+    <t>GET /notes/:note_id/comments  (备用接口，如果需要可以使用)</t>
+  </si>
+  <si>
+    <t>POST /user/bind</t>
+  </si>
+  <si>
+    <t>provider_id</t>
+  </si>
+  <si>
+    <t>第三方平台提供的uid</t>
+  </si>
+  <si>
+    <t>provider_id=xxxxx</t>
+  </si>
+  <si>
+    <t>13.第三方认证登录绑定用户资料接口</t>
+  </si>
+  <si>
     <r>
       <t>2.</t>
     </r>
     <r>
       <rPr>
         <sz val="18"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>回复评论</t>
+      <t>回复评论 (废弃的接口)</t>
     </r>
   </si>
   <si>
-    <t>POST /comments/reply</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>note_id</t>
-  </si>
-  <si>
-    <t>comment_id</t>
-  </si>
-  <si>
-    <t>body=3xxxxxx</t>
-  </si>
-  <si>
-    <t>note_id=3</t>
-  </si>
-  <si>
-    <t>comment_id=3</t>
-  </si>
-  <si>
-    <t>回复内容</t>
-  </si>
-  <si>
-    <t>记录id</t>
-  </si>
-  <si>
-    <t>评论id</t>
-  </si>
-  <si>
-    <t>调用示例：GET /notes/12/comments</t>
-  </si>
-  <si>
-    <t>GET /notes/:note_id/comments  (备用接口，如果需要可以使用)</t>
-  </si>
-  <si>
-    <t>POST /user/bind</t>
-  </si>
-  <si>
-    <t>provider_id</t>
-  </si>
-  <si>
-    <t>第三方平台提供的uid</t>
-  </si>
-  <si>
-    <t>provider_id=xxxxx</t>
-  </si>
-  <si>
-    <t>13.第三方认证登录绑定用户资料接口</t>
+    <t>at_who</t>
+  </si>
+  <si>
+    <t>被@的用户id， 整数类型</t>
+  </si>
+  <si>
+    <t>at_who=3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1538,12 +1547,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1566,6 +1569,19 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1687,7 +1703,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="195">
+  <cellStyleXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1883,8 +1899,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1955,22 +1973,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2060,16 +2078,16 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2078,8 +2096,23 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="195">
+  <cellStyles count="197">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2177,6 +2210,7 @@
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2274,6 +2308,7 @@
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3028,7 +3063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A145" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
@@ -4284,7 +4319,7 @@
     </row>
     <row r="147" spans="1:4" ht="48" customHeight="1">
       <c r="A147" s="63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B147" s="63"/>
       <c r="C147" s="63"/>
@@ -4298,7 +4333,7 @@
     </row>
     <row r="149" spans="1:4" ht="45" customHeight="1">
       <c r="A149" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B149" s="64"/>
       <c r="C149" s="64"/>
@@ -4340,16 +4375,16 @@
     </row>
     <row r="154" spans="1:4" ht="29" customHeight="1">
       <c r="A154" s="61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B154" s="62" t="s">
         <v>9</v>
       </c>
       <c r="C154" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="D154" s="61" t="s">
         <v>314</v>
-      </c>
-      <c r="D154" s="61" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="29" customHeight="1">
@@ -6225,10 +6260,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD52"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6387,12 +6422,12 @@
       <c r="D17" s="47"/>
     </row>
     <row r="18" spans="1:4" ht="48" customHeight="1">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="47"/>
@@ -6401,12 +6436,12 @@
       <c r="D19" s="47"/>
     </row>
     <row r="20" spans="1:4" ht="45" customHeight="1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="47"/>
@@ -6415,12 +6450,12 @@
       <c r="D21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="44" customHeight="1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="54"/>
@@ -6429,66 +6464,74 @@
       <c r="D23" s="54"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="68" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1">
+      <c r="A27" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="68" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-    </row>
-    <row r="28" spans="1:4" ht="43" customHeight="1">
-      <c r="A28" s="49" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+    </row>
+    <row r="29" spans="1:4" ht="43" customHeight="1">
+      <c r="A29" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="37"/>
@@ -6496,95 +6539,95 @@
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
     </row>
-    <row r="31" spans="1:4" ht="48" customHeight="1">
-      <c r="A31" s="49" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+    </row>
+    <row r="32" spans="1:4" ht="48" customHeight="1">
+      <c r="A32" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-    </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1">
-      <c r="A33" s="50" t="s">
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+    </row>
+    <row r="34" spans="1:4" ht="45" customHeight="1">
+      <c r="A34" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-    </row>
-    <row r="35" spans="1:4" ht="44" customHeight="1">
-      <c r="A35" s="49" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+    </row>
+    <row r="36" spans="1:4" ht="44" customHeight="1">
+      <c r="A36" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-    </row>
-    <row r="37" spans="1:4" ht="33" customHeight="1">
-      <c r="A37" s="7" t="s">
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+    </row>
+    <row r="38" spans="1:4" ht="33" customHeight="1">
+      <c r="A38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1">
-      <c r="A38" s="6" t="s">
+    <row r="39" spans="1:4" ht="30" customHeight="1">
+      <c r="A39" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-    </row>
-    <row r="40" spans="1:4" ht="43" customHeight="1">
-      <c r="A40" s="49" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+    </row>
+    <row r="41" spans="1:4" ht="43" customHeight="1">
+      <c r="A41" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="37"/>
@@ -6592,114 +6635,120 @@
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
     </row>
-    <row r="43" spans="1:4" ht="48" customHeight="1">
-      <c r="A43" s="49" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+    </row>
+    <row r="44" spans="1:4" ht="48" customHeight="1">
+      <c r="A44" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-    </row>
-    <row r="45" spans="1:4" ht="45" customHeight="1">
-      <c r="A45" s="50" t="s">
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+    </row>
+    <row r="46" spans="1:4" ht="45" customHeight="1">
+      <c r="A46" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-    </row>
-    <row r="47" spans="1:4" ht="44" customHeight="1">
-      <c r="A47" s="49" t="s">
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+    </row>
+    <row r="48" spans="1:4" ht="44" customHeight="1">
+      <c r="A48" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-    </row>
-    <row r="49" spans="1:4" ht="33" customHeight="1">
-      <c r="A49" s="7" t="s">
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+    </row>
+    <row r="50" spans="1:4" ht="33" customHeight="1">
+      <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D50" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1">
-      <c r="A50" s="6" t="s">
+    <row r="51" spans="1:4" ht="30" customHeight="1">
+      <c r="A51" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-    </row>
-    <row r="52" spans="1:4" ht="43" customHeight="1">
-      <c r="A52" s="49" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+    </row>
+    <row r="53" spans="1:4" ht="43" customHeight="1">
+      <c r="A53" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A49:D49"/>
     <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D43"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D31"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="A16:D17"/>
     <mergeCell ref="A18:D18"/>
@@ -6715,6 +6764,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8008,8 +8058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8061,7 +8111,7 @@
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
       <c r="A7" s="58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
@@ -8075,7 +8125,7 @@
     </row>
     <row r="9" spans="1:4" ht="43" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
@@ -8094,12 +8144,12 @@
       <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4" ht="23" customHeight="1">
-      <c r="A12" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="A12" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="45"/>
@@ -8109,7 +8159,7 @@
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
@@ -8165,44 +8215,44 @@
     </row>
     <row r="20" spans="1:4" ht="24" customHeight="1">
       <c r="A20" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>283</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>283</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="31" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>283</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22" customHeight="1">

--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="753" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="753" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="320">
   <si>
     <t>1.获取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,19 +257,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排行榜过滤参数，参数的值只能为goal_geek,supervise_geek, popular_geek三个之一，分别表示为：目标大人，监督达人，人气达人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用示例：GET /users/show/32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1387,6 +1375,15 @@
   </si>
   <si>
     <t>at_who=3</t>
+  </si>
+  <si>
+    <t>用户认证token</t>
+  </si>
+  <si>
+    <t>token=xxxxxx</t>
+  </si>
+  <si>
+    <t>调用示例：GET /users/show/32?token=xxxxx</t>
   </si>
 </sst>
 </file>
@@ -1703,8 +1700,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="197">
+  <cellStyleXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1991,11 +1990,50 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2003,29 +2041,44 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2042,77 +2095,23 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="197">
+  <cellStyles count="199">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2211,6 +2210,7 @@
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2309,6 +2309,7 @@
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2653,20 +2654,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="31"/>
+      <c r="A1" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="39"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1">
-      <c r="A2" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="30"/>
+      <c r="A2" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="38"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="11"/>
@@ -2674,10 +2675,10 @@
     </row>
     <row r="3" spans="1:6" ht="23" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2689,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2701,7 +2702,7 @@
         <v>1001</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2713,7 +2714,7 @@
         <v>1002</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2725,7 +2726,7 @@
         <v>1003</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -2737,7 +2738,7 @@
         <v>1004</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2749,7 +2750,7 @@
         <v>1005</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2761,7 +2762,7 @@
         <v>1006</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2773,7 +2774,7 @@
         <v>1011</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2785,7 +2786,7 @@
         <v>1012</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -2797,7 +2798,7 @@
         <v>2001</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2809,7 +2810,7 @@
         <v>2002</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -2821,7 +2822,7 @@
         <v>2003</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -2833,7 +2834,7 @@
         <v>2004</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2845,7 +2846,7 @@
         <v>2005</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -2857,7 +2858,7 @@
         <v>2006</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2869,7 +2870,7 @@
         <v>2007</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -2881,7 +2882,7 @@
         <v>2008</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2893,7 +2894,7 @@
         <v>3001</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2905,7 +2906,7 @@
         <v>3002</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2917,7 +2918,7 @@
         <v>3003</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -2929,7 +2930,7 @@
         <v>4001</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2941,7 +2942,7 @@
         <v>4002</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2953,7 +2954,7 @@
         <v>4003</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2965,7 +2966,7 @@
         <v>4004</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2977,7 +2978,7 @@
         <v>4005</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2989,7 +2990,7 @@
         <v>4006</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -3001,7 +3002,7 @@
         <v>4007</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -3013,7 +3014,7 @@
         <v>-1</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -3025,7 +3026,7 @@
         <v>-10</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -3037,7 +3038,7 @@
         <v>401</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -3063,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3076,72 +3077,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -3172,58 +3173,58 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:4" ht="48" customHeight="1">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
     </row>
     <row r="19" spans="1:4" ht="44" customHeight="1">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1">
       <c r="A21" s="2" t="s">
@@ -3268,58 +3269,58 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
     </row>
     <row r="28" spans="1:4" ht="45" customHeight="1">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4" ht="44" customHeight="1">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1">
       <c r="A32" s="2" t="s">
@@ -3350,58 +3351,58 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
     </row>
     <row r="36" spans="1:4" ht="48" customHeight="1">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:4" ht="45" customHeight="1">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
     </row>
     <row r="40" spans="1:4" ht="44" customHeight="1">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -3444,58 +3445,58 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
     </row>
     <row r="47" spans="1:4" ht="48" customHeight="1">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
     </row>
     <row r="49" spans="1:4" ht="45" customHeight="1">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
     </row>
     <row r="51" spans="1:4" ht="44" customHeight="1">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
     </row>
     <row r="53" spans="1:4" ht="33" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -3608,58 +3609,58 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
     </row>
     <row r="63" spans="1:4" ht="48" customHeight="1">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
     </row>
     <row r="65" spans="1:4" ht="45" customHeight="1">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
     </row>
     <row r="67" spans="1:4" ht="44" customHeight="1">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
     </row>
     <row r="69" spans="1:4" ht="33" customHeight="1">
       <c r="A69" s="2" t="s">
@@ -3683,7 +3684,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>53</v>
@@ -3691,193 +3692,195 @@
     </row>
     <row r="71" spans="1:4" ht="88" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="27" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C72" s="6" t="s">
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+    </row>
+    <row r="74" spans="1:4" ht="44" customHeight="1">
+      <c r="A74" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="36"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-    </row>
-    <row r="74" spans="1:4" ht="44" customHeight="1">
-      <c r="A74" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
     </row>
     <row r="77" spans="1:4" ht="48" customHeight="1">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
     </row>
     <row r="79" spans="1:4" ht="45" customHeight="1">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
     </row>
     <row r="81" spans="1:4" ht="44" customHeight="1">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="34"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
     </row>
     <row r="83" spans="1:4" ht="33" customHeight="1">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="29" customHeight="1">
-      <c r="A84" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="A84" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+    </row>
+    <row r="86" spans="1:4" ht="44" customHeight="1">
+      <c r="A86" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+    </row>
+    <row r="89" spans="1:4" ht="48" customHeight="1">
+      <c r="A89" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="36"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-    </row>
-    <row r="86" spans="1:4" ht="44" customHeight="1">
-      <c r="A86" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-    </row>
-    <row r="89" spans="1:4" ht="48" customHeight="1">
-      <c r="A89" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="34"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
     </row>
     <row r="91" spans="1:4" ht="45" customHeight="1">
-      <c r="A91" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
+      <c r="A91" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91" s="46"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="34"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
     </row>
     <row r="93" spans="1:4" ht="44" customHeight="1">
-      <c r="A93" s="32" t="s">
+      <c r="A93" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="34"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
     </row>
     <row r="95" spans="1:4" ht="33" customHeight="1">
       <c r="A95" s="2" t="s">
@@ -3895,85 +3898,85 @@
     </row>
     <row r="96" spans="1:4" ht="29" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+    </row>
+    <row r="98" spans="1:4" ht="44" customHeight="1">
+      <c r="A98" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="44"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+    </row>
+    <row r="101" spans="1:4" ht="48" customHeight="1">
+      <c r="A101" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="40"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+    </row>
+    <row r="103" spans="1:4" ht="45" customHeight="1">
+      <c r="A103" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="36"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-    </row>
-    <row r="98" spans="1:4" ht="44" customHeight="1">
-      <c r="A98" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="37"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="37"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
-    </row>
-    <row r="101" spans="1:4" ht="48" customHeight="1">
-      <c r="A101" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="34"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-    </row>
-    <row r="103" spans="1:4" ht="45" customHeight="1">
-      <c r="A103" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="46"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="34"/>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
     </row>
     <row r="105" spans="1:4" ht="44" customHeight="1">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="34"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
     </row>
     <row r="107" spans="1:4" ht="33" customHeight="1">
       <c r="A107" s="2" t="s">
@@ -3991,85 +3994,85 @@
     </row>
     <row r="108" spans="1:4" ht="29" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D108" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+    </row>
+    <row r="110" spans="1:4" ht="44" customHeight="1">
+      <c r="A110" s="45" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="36"/>
-      <c r="B109" s="36"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-    </row>
-    <row r="110" spans="1:4" ht="44" customHeight="1">
-      <c r="A110" s="32" t="s">
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="44"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="44"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="44"/>
+    </row>
+    <row r="113" spans="1:4" ht="48" customHeight="1">
+      <c r="A113" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="40"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
+    </row>
+    <row r="115" spans="1:4" ht="45" customHeight="1">
+      <c r="A115" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="37"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-    </row>
-    <row r="113" spans="1:4" ht="48" customHeight="1">
-      <c r="A113" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="34"/>
-      <c r="B114" s="34"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-    </row>
-    <row r="115" spans="1:4" ht="45" customHeight="1">
-      <c r="A115" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="46"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="34"/>
-      <c r="B116" s="34"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
     </row>
     <row r="117" spans="1:4" ht="44" customHeight="1">
-      <c r="A117" s="32" t="s">
+      <c r="A117" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="45"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="34"/>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
+      <c r="A118" s="40"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
     </row>
     <row r="119" spans="1:4" ht="33" customHeight="1">
       <c r="A119" s="2" t="s">
@@ -4087,85 +4090,85 @@
     </row>
     <row r="120" spans="1:4" ht="29" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="36"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
+      <c r="A121" s="43"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
     </row>
     <row r="122" spans="1:4" ht="44" customHeight="1">
-      <c r="A122" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
+      <c r="A122" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B122" s="45"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="45"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="37"/>
-      <c r="B123" s="37"/>
-      <c r="C123" s="37"/>
-      <c r="D123" s="37"/>
+      <c r="A123" s="44"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="44"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="37"/>
-      <c r="B124" s="37"/>
-      <c r="C124" s="37"/>
-      <c r="D124" s="37"/>
+      <c r="A124" s="44"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="44"/>
     </row>
     <row r="125" spans="1:4" ht="48" customHeight="1">
-      <c r="A125" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
+      <c r="A125" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="45"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="34"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
+      <c r="A126" s="40"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
     </row>
     <row r="127" spans="1:4" ht="45" customHeight="1">
-      <c r="A127" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B127" s="33"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
+      <c r="A127" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B127" s="46"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="46"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="34"/>
-      <c r="B128" s="34"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="40"/>
     </row>
     <row r="129" spans="1:4" ht="44" customHeight="1">
-      <c r="A129" s="32" t="s">
+      <c r="A129" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="32"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="45"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="34"/>
-      <c r="B130" s="34"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="40"/>
     </row>
     <row r="131" spans="1:4" ht="33" customHeight="1">
       <c r="A131" s="2" t="s">
@@ -4183,85 +4186,85 @@
     </row>
     <row r="132" spans="1:4" ht="29" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="29" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D133" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="43"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="43"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="44"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="44"/>
+    </row>
+    <row r="136" spans="1:4" ht="48" customHeight="1">
+      <c r="A136" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B136" s="45"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="45"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="40"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="40"/>
+    </row>
+    <row r="138" spans="1:4" ht="45" customHeight="1">
+      <c r="A138" s="46" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="36"/>
-      <c r="B134" s="36"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="36"/>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="37"/>
-      <c r="B135" s="37"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
-    </row>
-    <row r="136" spans="1:4" ht="48" customHeight="1">
-      <c r="A136" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="32"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="34"/>
-      <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="34"/>
-    </row>
-    <row r="138" spans="1:4" ht="45" customHeight="1">
-      <c r="A138" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B138" s="33"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
+      <c r="B138" s="46"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="46"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="34"/>
-      <c r="B139" s="34"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="34"/>
+      <c r="A139" s="40"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="40"/>
+      <c r="D139" s="40"/>
     </row>
     <row r="140" spans="1:4" ht="44" customHeight="1">
-      <c r="A140" s="32" t="s">
+      <c r="A140" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
+      <c r="B140" s="45"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="45"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="34"/>
-      <c r="B141" s="34"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
+      <c r="A141" s="40"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="40"/>
     </row>
     <row r="142" spans="1:4" ht="33" customHeight="1">
       <c r="A142" s="2" t="s">
@@ -4279,198 +4282,275 @@
     </row>
     <row r="143" spans="1:4" ht="29" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="29" customHeight="1">
       <c r="A144" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="36"/>
-      <c r="B145" s="36"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="36"/>
+      <c r="A145" s="43"/>
+      <c r="B145" s="43"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="43"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="37"/>
-      <c r="B146" s="37"/>
-      <c r="C146" s="37"/>
-      <c r="D146" s="37"/>
+      <c r="A146" s="44"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="44"/>
     </row>
     <row r="147" spans="1:4" ht="48" customHeight="1">
-      <c r="A147" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="B147" s="63"/>
-      <c r="C147" s="63"/>
-      <c r="D147" s="63"/>
+      <c r="A147" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="B147" s="41"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="41"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="34"/>
-      <c r="B148" s="34"/>
-      <c r="C148" s="34"/>
-      <c r="D148" s="34"/>
+      <c r="A148" s="40"/>
+      <c r="B148" s="40"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="40"/>
     </row>
     <row r="149" spans="1:4" ht="45" customHeight="1">
-      <c r="A149" s="64" t="s">
+      <c r="A149" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="B149" s="42"/>
+      <c r="C149" s="42"/>
+      <c r="D149" s="42"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="40"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="40"/>
+    </row>
+    <row r="151" spans="1:4" ht="44" customHeight="1">
+      <c r="A151" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="41"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="41"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="40"/>
+      <c r="B152" s="40"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="40"/>
+    </row>
+    <row r="153" spans="1:4" ht="33" customHeight="1">
+      <c r="A153" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="29" customHeight="1">
+      <c r="A154" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="B154" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D154" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="B149" s="64"/>
-      <c r="C149" s="64"/>
-      <c r="D149" s="64"/>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="34"/>
-      <c r="B150" s="34"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34"/>
-    </row>
-    <row r="151" spans="1:4" ht="44" customHeight="1">
-      <c r="A151" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="B151" s="63"/>
-      <c r="C151" s="63"/>
-      <c r="D151" s="63"/>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="34"/>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-    </row>
-    <row r="153" spans="1:4" ht="33" customHeight="1">
-      <c r="A153" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B153" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" s="59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="29" customHeight="1">
-      <c r="A154" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="B154" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C154" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="D154" s="61" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="155" spans="1:4" ht="29" customHeight="1">
-      <c r="A155" s="61" t="s">
+      <c r="A155" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B155" s="62" t="s">
+      <c r="B155" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C155" s="61" t="s">
+      <c r="C155" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D155" s="61"/>
+      <c r="D155" s="32"/>
     </row>
     <row r="156" spans="1:4" ht="30" customHeight="1">
-      <c r="A156" s="61" t="s">
+      <c r="A156" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B156" s="62" t="s">
+      <c r="B156" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="61" t="s">
+      <c r="C156" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D156" s="61" t="s">
+      <c r="D156" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="25" customHeight="1">
-      <c r="A157" s="61" t="s">
+      <c r="A157" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B157" s="62" t="s">
+      <c r="B157" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C157" s="61" t="s">
+      <c r="C157" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D157" s="61" t="s">
+      <c r="D157" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="24" customHeight="1">
-      <c r="A158" s="61" t="s">
+      <c r="A158" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B158" s="62" t="s">
+      <c r="B158" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C158" s="61" t="s">
+      <c r="C158" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D158" s="61" t="s">
+      <c r="D158" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="29" customHeight="1">
-      <c r="A159" s="61" t="s">
+      <c r="A159" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B159" s="62" t="s">
+      <c r="B159" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C159" s="61" t="s">
+      <c r="C159" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D159" s="61" t="s">
+      <c r="D159" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="27" customHeight="1">
-      <c r="A160" s="61" t="s">
+      <c r="A160" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B160" s="62" t="s">
+      <c r="B160" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C160" s="61" t="s">
+      <c r="C160" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D160" s="61" t="s">
+      <c r="D160" s="32" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D124"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A111:D112"/>
     <mergeCell ref="A152:D152"/>
     <mergeCell ref="A147:D147"/>
     <mergeCell ref="A148:D148"/>
@@ -4495,83 +4575,6 @@
     <mergeCell ref="A134:D135"/>
     <mergeCell ref="A117:D117"/>
     <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D124"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4598,58 +4601,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="A1" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4686,72 +4689,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -4769,31 +4772,31 @@
     </row>
     <row r="12" spans="1:4" ht="29" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4834,72 +4837,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="A1" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="A7" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -4917,30 +4920,30 @@
     </row>
     <row r="12" spans="1:4" ht="29" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="76" customHeight="1">
@@ -4951,107 +4954,107 @@
         <v>27</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="64" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="94" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+    </row>
+    <row r="18" spans="1:4" ht="85" customHeight="1">
+      <c r="A18" s="53" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-    </row>
-    <row r="18" spans="1:4" ht="85" customHeight="1">
-      <c r="A18" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
     </row>
     <row r="21" spans="1:4" ht="48" customHeight="1">
-      <c r="A21" s="49" t="s">
-        <v>292</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="A21" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="55" customHeight="1">
-      <c r="A23" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="A23" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" ht="44" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1">
       <c r="A27" s="7" t="s">
@@ -5069,99 +5072,99 @@
     </row>
     <row r="28" spans="1:4" ht="29" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="94" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:4" ht="50" customHeight="1">
-      <c r="A31" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="A31" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:4" ht="48" customHeight="1">
-      <c r="A34" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
+      <c r="A34" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
     </row>
     <row r="36" spans="1:4" ht="45" customHeight="1">
-      <c r="A36" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
+      <c r="A36" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
     </row>
     <row r="38" spans="1:4" ht="44" customHeight="1">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1">
       <c r="A40" s="7" t="s">
@@ -5179,85 +5182,85 @@
     </row>
     <row r="41" spans="1:4" ht="94" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
     </row>
     <row r="43" spans="1:4" ht="85" customHeight="1">
-      <c r="A43" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+      <c r="A43" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4" ht="48" customHeight="1">
-      <c r="A46" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="A46" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
     </row>
     <row r="48" spans="1:4" ht="45" customHeight="1">
-      <c r="A48" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
+      <c r="A48" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
     </row>
     <row r="50" spans="1:4" ht="44" customHeight="1">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
     </row>
     <row r="52" spans="1:4" ht="33" customHeight="1">
       <c r="A52" s="7" t="s">
@@ -5275,85 +5278,85 @@
     </row>
     <row r="53" spans="1:4" ht="94" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="48"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
     </row>
     <row r="55" spans="1:4" ht="43" customHeight="1">
-      <c r="A55" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
+      <c r="A55" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="53"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="53"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" ht="48" customHeight="1">
-      <c r="A58" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
+      <c r="A58" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
     </row>
     <row r="60" spans="1:4" ht="45" customHeight="1">
-      <c r="A60" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="A60" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
     </row>
     <row r="62" spans="1:4" ht="44" customHeight="1">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
     </row>
     <row r="64" spans="1:4" ht="33" customHeight="1">
       <c r="A64" s="7" t="s">
@@ -5371,141 +5374,141 @@
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="63" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="48"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="53"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
     </row>
     <row r="73" spans="1:4" ht="48" customHeight="1">
-      <c r="A73" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
+      <c r="A73" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
     </row>
     <row r="75" spans="1:4" ht="45" customHeight="1">
-      <c r="A75" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
+      <c r="A75" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="47"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
     </row>
     <row r="77" spans="1:4" ht="44" customHeight="1">
-      <c r="A77" s="49" t="s">
+      <c r="A77" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
     </row>
     <row r="79" spans="1:4" ht="33" customHeight="1">
       <c r="A79" s="7" t="s">
@@ -5523,85 +5526,85 @@
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="57"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+    </row>
+    <row r="82" spans="1:4" ht="43" customHeight="1">
+      <c r="A82" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
+    </row>
+    <row r="85" spans="1:4" ht="48" customHeight="1">
+      <c r="A85" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="54"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+    </row>
+    <row r="87" spans="1:4" ht="45" customHeight="1">
+      <c r="A87" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="48"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-    </row>
-    <row r="82" spans="1:4" ht="43" customHeight="1">
-      <c r="A82" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="53"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-    </row>
-    <row r="85" spans="1:4" ht="48" customHeight="1">
-      <c r="A85" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-    </row>
-    <row r="87" spans="1:4" ht="45" customHeight="1">
-      <c r="A87" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="B87" s="50"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
+      <c r="A88" s="54"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
     </row>
     <row r="89" spans="1:4" ht="44" customHeight="1">
-      <c r="A89" s="49" t="s">
+      <c r="A89" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="47"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
+      <c r="A90" s="54"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
     </row>
     <row r="91" spans="1:4" ht="33" customHeight="1">
       <c r="A91" s="7" t="s">
@@ -5619,85 +5622,85 @@
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D92" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="57"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+    </row>
+    <row r="94" spans="1:4" ht="43" customHeight="1">
+      <c r="A94" s="53" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="48"/>
-      <c r="B93" s="48"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-    </row>
-    <row r="94" spans="1:4" ht="43" customHeight="1">
-      <c r="A94" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" s="49"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="53"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="52"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="53"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
     </row>
     <row r="97" spans="1:4" ht="48" customHeight="1">
-      <c r="A97" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="B97" s="49"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
+      <c r="A97" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="47"/>
-      <c r="B98" s="47"/>
-      <c r="C98" s="47"/>
-      <c r="D98" s="47"/>
+      <c r="A98" s="54"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
     </row>
     <row r="99" spans="1:4" ht="45" customHeight="1">
-      <c r="A99" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" s="50"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
+      <c r="A99" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="47"/>
-      <c r="B100" s="47"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
+      <c r="A100" s="54"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="54"/>
     </row>
     <row r="101" spans="1:4" ht="44" customHeight="1">
-      <c r="A101" s="49" t="s">
+      <c r="A101" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="49"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="47"/>
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="54"/>
     </row>
     <row r="103" spans="1:4" ht="33" customHeight="1">
       <c r="A103" s="7" t="s">
@@ -5715,85 +5718,85 @@
     </row>
     <row r="104" spans="1:4" ht="30" customHeight="1">
       <c r="A104" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="48"/>
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
+      <c r="A105" s="57"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
     </row>
     <row r="106" spans="1:4" ht="43" customHeight="1">
-      <c r="A106" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
+      <c r="A106" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" s="53"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="53"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="53"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="52"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="52"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="53"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
+      <c r="A108" s="52"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="52"/>
     </row>
     <row r="109" spans="1:4" ht="48" customHeight="1">
-      <c r="A109" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="B109" s="49"/>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
+      <c r="A109" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B109" s="53"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="53"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="47"/>
-      <c r="B110" s="47"/>
-      <c r="C110" s="47"/>
-      <c r="D110" s="47"/>
+      <c r="A110" s="54"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="54"/>
     </row>
     <row r="111" spans="1:4" ht="45" customHeight="1">
-      <c r="A111" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="B111" s="50"/>
-      <c r="C111" s="50"/>
-      <c r="D111" s="50"/>
+      <c r="A111" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="55"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="55"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="47"/>
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
+      <c r="A112" s="54"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54"/>
     </row>
     <row r="113" spans="1:4" ht="44" customHeight="1">
-      <c r="A113" s="49" t="s">
+      <c r="A113" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="49"/>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="53"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="47"/>
-      <c r="B114" s="47"/>
-      <c r="C114" s="47"/>
-      <c r="D114" s="47"/>
+      <c r="A114" s="54"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="54"/>
     </row>
     <row r="115" spans="1:4" ht="33" customHeight="1">
       <c r="A115" s="7" t="s">
@@ -5811,85 +5814,85 @@
     </row>
     <row r="116" spans="1:4" ht="30" customHeight="1">
       <c r="A116" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="48"/>
-      <c r="B117" s="48"/>
-      <c r="C117" s="48"/>
-      <c r="D117" s="48"/>
+      <c r="A117" s="57"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="57"/>
     </row>
     <row r="118" spans="1:4" ht="43" customHeight="1">
-      <c r="A118" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="B118" s="49"/>
-      <c r="C118" s="49"/>
-      <c r="D118" s="49"/>
+      <c r="A118" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="53"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="53"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="53"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="53"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="52"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="53"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="53"/>
-      <c r="D120" s="53"/>
+      <c r="A120" s="52"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="52"/>
     </row>
     <row r="121" spans="1:4" ht="48" customHeight="1">
-      <c r="A121" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="B121" s="49"/>
-      <c r="C121" s="49"/>
-      <c r="D121" s="49"/>
+      <c r="A121" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="53"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="53"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="47"/>
-      <c r="B122" s="47"/>
-      <c r="C122" s="47"/>
-      <c r="D122" s="47"/>
+      <c r="A122" s="54"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="54"/>
     </row>
     <row r="123" spans="1:4" ht="45" customHeight="1">
-      <c r="A123" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="B123" s="50"/>
-      <c r="C123" s="50"/>
-      <c r="D123" s="50"/>
+      <c r="A123" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="55"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="55"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="47"/>
-      <c r="B124" s="47"/>
-      <c r="C124" s="47"/>
-      <c r="D124" s="47"/>
+      <c r="A124" s="54"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="54"/>
+      <c r="D124" s="54"/>
     </row>
     <row r="125" spans="1:4" ht="44" customHeight="1">
-      <c r="A125" s="49" t="s">
+      <c r="A125" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="49"/>
-      <c r="C125" s="49"/>
-      <c r="D125" s="49"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="53"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="47"/>
-      <c r="B126" s="47"/>
-      <c r="C126" s="47"/>
-      <c r="D126" s="47"/>
+      <c r="A126" s="54"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="54"/>
     </row>
     <row r="127" spans="1:4" ht="33" customHeight="1">
       <c r="A127" s="7" t="s">
@@ -5907,85 +5910,85 @@
     </row>
     <row r="128" spans="1:4" ht="30" customHeight="1">
       <c r="A128" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="48"/>
-      <c r="B129" s="48"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="48"/>
+      <c r="A129" s="57"/>
+      <c r="B129" s="57"/>
+      <c r="C129" s="57"/>
+      <c r="D129" s="57"/>
     </row>
     <row r="130" spans="1:4" ht="43" customHeight="1">
-      <c r="A130" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130" s="49"/>
-      <c r="C130" s="49"/>
-      <c r="D130" s="49"/>
+      <c r="A130" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="53"/>
+      <c r="C130" s="53"/>
+      <c r="D130" s="53"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="53"/>
-      <c r="B131" s="53"/>
-      <c r="C131" s="53"/>
-      <c r="D131" s="53"/>
+      <c r="A131" s="52"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="52"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="53"/>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
     </row>
     <row r="133" spans="1:4" ht="48" customHeight="1">
-      <c r="A133" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="B133" s="49"/>
-      <c r="C133" s="49"/>
-      <c r="D133" s="49"/>
+      <c r="A133" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B133" s="53"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="53"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="47"/>
-      <c r="B134" s="47"/>
-      <c r="C134" s="47"/>
-      <c r="D134" s="47"/>
+      <c r="A134" s="54"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="54"/>
     </row>
     <row r="135" spans="1:4" ht="45" customHeight="1">
-      <c r="A135" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="B135" s="50"/>
-      <c r="C135" s="50"/>
-      <c r="D135" s="50"/>
+      <c r="A135" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B135" s="55"/>
+      <c r="C135" s="55"/>
+      <c r="D135" s="55"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="47"/>
-      <c r="B136" s="47"/>
-      <c r="C136" s="47"/>
-      <c r="D136" s="47"/>
+      <c r="A136" s="54"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="54"/>
+      <c r="D136" s="54"/>
     </row>
     <row r="137" spans="1:4" ht="44" customHeight="1">
-      <c r="A137" s="49" t="s">
+      <c r="A137" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="49"/>
-      <c r="C137" s="49"/>
-      <c r="D137" s="49"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="53"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
-      <c r="C138" s="47"/>
-      <c r="D138" s="47"/>
+      <c r="A138" s="54"/>
+      <c r="B138" s="54"/>
+      <c r="C138" s="54"/>
+      <c r="D138" s="54"/>
     </row>
     <row r="139" spans="1:4" ht="33" customHeight="1">
       <c r="A139" s="7" t="s">
@@ -6003,144 +6006,226 @@
     </row>
     <row r="140" spans="1:4" ht="30" customHeight="1">
       <c r="A140" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="48"/>
-      <c r="B141" s="48"/>
-      <c r="C141" s="48"/>
-      <c r="D141" s="48"/>
+      <c r="A141" s="57"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="57"/>
+      <c r="D141" s="57"/>
     </row>
     <row r="142" spans="1:4" ht="43" customHeight="1">
-      <c r="A142" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="B142" s="49"/>
-      <c r="C142" s="49"/>
-      <c r="D142" s="49"/>
+      <c r="A142" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B142" s="53"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="53"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="53"/>
-      <c r="B143" s="53"/>
-      <c r="C143" s="53"/>
-      <c r="D143" s="53"/>
+      <c r="A143" s="52"/>
+      <c r="B143" s="52"/>
+      <c r="C143" s="52"/>
+      <c r="D143" s="52"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="53"/>
-      <c r="B144" s="53"/>
-      <c r="C144" s="53"/>
-      <c r="D144" s="53"/>
+      <c r="A144" s="52"/>
+      <c r="B144" s="52"/>
+      <c r="C144" s="52"/>
+      <c r="D144" s="52"/>
     </row>
     <row r="145" spans="1:4" ht="23" customHeight="1">
-      <c r="A145" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="B145" s="44"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="44"/>
+      <c r="A145" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="B145" s="62"/>
+      <c r="C145" s="62"/>
+      <c r="D145" s="62"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="45"/>
-      <c r="B146" s="45"/>
-      <c r="C146" s="45"/>
-      <c r="D146" s="45"/>
+      <c r="A146" s="63"/>
+      <c r="B146" s="63"/>
+      <c r="C146" s="63"/>
+      <c r="D146" s="63"/>
     </row>
     <row r="147" spans="1:4" ht="23" customHeight="1">
-      <c r="A147" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="B147" s="46"/>
-      <c r="C147" s="46"/>
-      <c r="D147" s="46"/>
+      <c r="A147" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="B147" s="64"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="64"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="45"/>
-      <c r="B148" s="45"/>
-      <c r="C148" s="45"/>
-      <c r="D148" s="45"/>
+      <c r="A148" s="63"/>
+      <c r="B148" s="63"/>
+      <c r="C148" s="63"/>
+      <c r="D148" s="63"/>
     </row>
     <row r="149" spans="1:4" ht="23" customHeight="1">
-      <c r="A149" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="B149" s="44"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="44"/>
+      <c r="A149" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" s="62"/>
+      <c r="C149" s="62"/>
+      <c r="D149" s="62"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="42"/>
-      <c r="B150" s="42"/>
-      <c r="C150" s="42"/>
-      <c r="D150" s="42"/>
+      <c r="A150" s="60"/>
+      <c r="B150" s="60"/>
+      <c r="C150" s="60"/>
+      <c r="D150" s="60"/>
     </row>
     <row r="151" spans="1:4" ht="18">
       <c r="A151" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D151" s="20" t="s">
         <v>278</v>
-      </c>
-      <c r="B151" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="18">
       <c r="A152" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D152" s="23" t="s">
         <v>282</v>
-      </c>
-      <c r="B152" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C152" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="D152" s="23" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="90">
       <c r="A153" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D153" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="B153" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="C153" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="D153" s="23" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="43"/>
-      <c r="B154" s="43"/>
-      <c r="C154" s="43"/>
-      <c r="D154" s="43"/>
+      <c r="A154" s="61"/>
+      <c r="B154" s="61"/>
+      <c r="C154" s="61"/>
+      <c r="D154" s="61"/>
     </row>
     <row r="155" spans="1:4" ht="23" customHeight="1">
-      <c r="A155" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="B155" s="44"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="44"/>
+      <c r="A155" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B155" s="62"/>
+      <c r="C155" s="62"/>
+      <c r="D155" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
     <mergeCell ref="A143:D144"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:D59"/>
@@ -6165,88 +6250,6 @@
     <mergeCell ref="A121:D121"/>
     <mergeCell ref="A122:D122"/>
     <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6262,7 +6265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:D29"/>
     </sheetView>
   </sheetViews>
@@ -6274,72 +6277,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="A7" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -6357,235 +6360,235 @@
     </row>
     <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="70" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" ht="48" customHeight="1">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+    </row>
+    <row r="20" spans="1:4" ht="45" customHeight="1">
+      <c r="A20" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+    </row>
+    <row r="22" spans="1:4" ht="44" customHeight="1">
+      <c r="A22" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+    </row>
+    <row r="24" spans="1:4" ht="33" customHeight="1">
+      <c r="A24" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" customHeight="1">
+      <c r="A25" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1">
+      <c r="A26" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1">
+      <c r="A27" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+    </row>
+    <row r="29" spans="1:4" ht="43" customHeight="1">
+      <c r="A29" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-    </row>
-    <row r="20" spans="1:4" ht="45" customHeight="1">
-      <c r="A20" s="58" t="s">
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+    </row>
+    <row r="32" spans="1:4" ht="48" customHeight="1">
+      <c r="A32" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-    </row>
-    <row r="22" spans="1:4" ht="44" customHeight="1">
-      <c r="A22" s="56" t="s">
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+    </row>
+    <row r="34" spans="1:4" ht="45" customHeight="1">
+      <c r="A34" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+    </row>
+    <row r="36" spans="1:4" ht="44" customHeight="1">
+      <c r="A36" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-    </row>
-    <row r="24" spans="1:4" ht="33" customHeight="1">
-      <c r="A24" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1">
-      <c r="A25" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="68" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1">
-      <c r="A26" s="68" t="s">
-        <v>317</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>287</v>
-      </c>
-      <c r="C26" s="68" t="s">
-        <v>318</v>
-      </c>
-      <c r="D26" s="68" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1">
-      <c r="A27" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-    </row>
-    <row r="29" spans="1:4" ht="43" customHeight="1">
-      <c r="A29" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" spans="1:4" ht="48" customHeight="1">
-      <c r="A32" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-    </row>
-    <row r="34" spans="1:4" ht="45" customHeight="1">
-      <c r="A34" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-    </row>
-    <row r="36" spans="1:4" ht="44" customHeight="1">
-      <c r="A36" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
     </row>
     <row r="38" spans="1:4" ht="33" customHeight="1">
       <c r="A38" s="7" t="s">
@@ -6603,85 +6606,85 @@
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
     </row>
     <row r="41" spans="1:4" ht="43" customHeight="1">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+    </row>
+    <row r="44" spans="1:4" ht="48" customHeight="1">
+      <c r="A44" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-    </row>
-    <row r="44" spans="1:4" ht="48" customHeight="1">
-      <c r="A44" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
     </row>
     <row r="46" spans="1:4" ht="45" customHeight="1">
-      <c r="A46" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="A46" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
     </row>
     <row r="48" spans="1:4" ht="44" customHeight="1">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
     </row>
     <row r="50" spans="1:4" ht="33" customHeight="1">
       <c r="A50" s="7" t="s">
@@ -6699,44 +6702,46 @@
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
     </row>
     <row r="53" spans="1:4" ht="43" customHeight="1">
-      <c r="A53" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="A53" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
@@ -6749,22 +6754,19 @@
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6789,72 +6791,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="A7" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -6872,85 +6874,85 @@
     </row>
     <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4" ht="48" customHeight="1">
-      <c r="A16" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
+      <c r="A16" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1">
-      <c r="A18" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="A18" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" ht="44" customHeight="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -6968,99 +6970,99 @@
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="40" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
     </row>
     <row r="26" spans="1:4" ht="43" customHeight="1">
-      <c r="A26" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="A26" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="A29" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
     </row>
     <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="A31" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="7" t="s">
@@ -7078,99 +7080,99 @@
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="40" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
     </row>
     <row r="39" spans="1:4" ht="43" customHeight="1">
-      <c r="A39" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
+      <c r="A39" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
     </row>
     <row r="42" spans="1:4" ht="48" customHeight="1">
-      <c r="A42" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+      <c r="A42" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
     </row>
     <row r="44" spans="1:4" ht="45" customHeight="1">
-      <c r="A44" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="A44" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
       <c r="A48" s="7" t="s">
@@ -7188,42 +7190,46 @@
     </row>
     <row r="49" spans="1:4" ht="40" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
@@ -7236,18 +7242,14 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7275,72 +7277,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -7358,85 +7360,85 @@
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="48" customHeight="1">
-      <c r="A17" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="A17" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1">
-      <c r="A19" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
     </row>
     <row r="21" spans="1:4" ht="44" customHeight="1">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -7454,85 +7456,85 @@
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
     </row>
     <row r="26" spans="1:4" ht="44" customHeight="1">
-      <c r="A26" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="A26" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -7550,99 +7552,99 @@
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="83" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+    </row>
+    <row r="39" spans="1:4" ht="44" customHeight="1">
+      <c r="A39" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+    </row>
+    <row r="42" spans="1:4" ht="48" customHeight="1">
+      <c r="A42" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+    </row>
+    <row r="44" spans="1:4" ht="45" customHeight="1">
+      <c r="A44" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-    </row>
-    <row r="39" spans="1:4" ht="44" customHeight="1">
-      <c r="A39" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-    </row>
-    <row r="42" spans="1:4" ht="48" customHeight="1">
-      <c r="A42" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-    </row>
-    <row r="44" spans="1:4" ht="45" customHeight="1">
-      <c r="A44" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
       <c r="A48" s="7" t="s">
@@ -7660,99 +7662,99 @@
     </row>
     <row r="49" spans="1:4" ht="40" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
     </row>
     <row r="54" spans="1:4" ht="48" customHeight="1">
-      <c r="A54" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
+      <c r="A54" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
     </row>
     <row r="56" spans="1:4" ht="45" customHeight="1">
-      <c r="A56" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
+      <c r="A56" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
     </row>
     <row r="58" spans="1:4" ht="44" customHeight="1">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
     </row>
     <row r="60" spans="1:4" ht="33" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -7770,113 +7772,113 @@
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="40" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
     </row>
     <row r="64" spans="1:4" ht="44" customHeight="1">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="44"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+    </row>
+    <row r="66" spans="1:4" ht="71" customHeight="1">
+      <c r="A66" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+    </row>
+    <row r="69" spans="1:4" ht="48" customHeight="1">
+      <c r="A69" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-    </row>
-    <row r="66" spans="1:4" ht="71" customHeight="1">
-      <c r="A66" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="37"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-    </row>
-    <row r="69" spans="1:4" ht="48" customHeight="1">
-      <c r="A69" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
     </row>
     <row r="71" spans="1:4" ht="45" customHeight="1">
-      <c r="A71" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
+      <c r="A71" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
     </row>
     <row r="73" spans="1:4" ht="44" customHeight="1">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
     </row>
     <row r="75" spans="1:4" ht="33" customHeight="1">
       <c r="A75" s="7" t="s">
@@ -7894,113 +7896,128 @@
     </row>
     <row r="76" spans="1:4" ht="40" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="48" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="36"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D68"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A44:D44"/>
@@ -8017,32 +8034,17 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A27:D28"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A15:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8070,213 +8072,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1">
+      <c r="A7" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+    </row>
+    <row r="9" spans="1:4" ht="43" customHeight="1">
+      <c r="A9" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+    </row>
+    <row r="12" spans="1:4" ht="23" customHeight="1">
+      <c r="A12" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="A14" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-    </row>
-    <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:4" ht="43" customHeight="1">
-      <c r="A9" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-    </row>
-    <row r="12" spans="1:4" ht="23" customHeight="1">
-      <c r="A12" s="65" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
     </row>
     <row r="16" spans="1:4" ht="23" customHeight="1">
-      <c r="A16" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="A16" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1">
       <c r="A18" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>278</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="32" customHeight="1">
       <c r="A19" s="25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24" customHeight="1">
       <c r="A20" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>300</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31" customHeight="1">
       <c r="A21" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>301</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="31" customHeight="1">
       <c r="A22" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="23" spans="1:4" ht="22" customHeight="1">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="753" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="753" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="327">
   <si>
     <t>1.获取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1385,12 +1385,33 @@
   <si>
     <t>调用示例：GET /users/show/32?token=xxxxx</t>
   </si>
+  <si>
+    <t>token=xxxxx</t>
+  </si>
+  <si>
+    <t>14.获取粉丝列表</t>
+  </si>
+  <si>
+    <t>调用示例：GET /user/followers?token=xxxxx</t>
+  </si>
+  <si>
+    <t>GET /user/followers</t>
+  </si>
+  <si>
+    <t>15.获取我关注的用户列表</t>
+  </si>
+  <si>
+    <t>GET /user/following_users</t>
+  </si>
+  <si>
+    <t>调用示例：GET /user/following_users?token=xxxxx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1582,6 +1603,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1700,7 +1727,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="199">
+  <cellStyleXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1900,8 +1927,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2110,8 +2143,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="199">
+  <cellStyles count="205">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2211,6 +2245,9 @@
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2310,6 +2347,9 @@
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3062,10 +3102,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:D79"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179:D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4472,8 +4512,218 @@
         <v>50</v>
       </c>
     </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="43"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="43"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="44"/>
+      <c r="B162" s="44"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="44"/>
+    </row>
+    <row r="163" spans="1:4" s="70" customFormat="1" ht="48" customHeight="1">
+      <c r="A163" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="41"/>
+      <c r="C163" s="41"/>
+      <c r="D163" s="41"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="40"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="40"/>
+    </row>
+    <row r="165" spans="1:4" s="70" customFormat="1" ht="45" customHeight="1">
+      <c r="A165" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" s="42"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="42"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="40"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="40"/>
+    </row>
+    <row r="167" spans="1:4" s="70" customFormat="1" ht="44" customHeight="1">
+      <c r="A167" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" s="41"/>
+      <c r="C167" s="41"/>
+      <c r="D167" s="41"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="40"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="40"/>
+    </row>
+    <row r="169" spans="1:4" s="70" customFormat="1" ht="33" customHeight="1">
+      <c r="A169" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" s="70" customFormat="1" ht="27" customHeight="1">
+      <c r="A170" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B170" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C170" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="D170" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="43"/>
+      <c r="B171" s="43"/>
+      <c r="C171" s="43"/>
+      <c r="D171" s="43"/>
+    </row>
+    <row r="172" spans="1:4" s="70" customFormat="1" ht="44" customHeight="1">
+      <c r="A172" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="B172" s="41"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="41"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="44"/>
+      <c r="B173" s="44"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="44"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="44"/>
+      <c r="B174" s="44"/>
+      <c r="C174" s="44"/>
+      <c r="D174" s="44"/>
+    </row>
+    <row r="175" spans="1:4" s="70" customFormat="1" ht="48" customHeight="1">
+      <c r="A175" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="B175" s="41"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="41"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="40"/>
+      <c r="B176" s="40"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="40"/>
+    </row>
+    <row r="177" spans="1:4" s="70" customFormat="1" ht="45" customHeight="1">
+      <c r="A177" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="B177" s="42"/>
+      <c r="C177" s="42"/>
+      <c r="D177" s="42"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="40"/>
+      <c r="B178" s="40"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="40"/>
+    </row>
+    <row r="179" spans="1:4" s="70" customFormat="1" ht="44" customHeight="1">
+      <c r="A179" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="41"/>
+      <c r="C179" s="41"/>
+      <c r="D179" s="41"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="40"/>
+      <c r="B180" s="40"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="40"/>
+    </row>
+    <row r="181" spans="1:4" s="70" customFormat="1" ht="33" customHeight="1">
+      <c r="A181" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="70" customFormat="1" ht="27" customHeight="1">
+      <c r="A182" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B182" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C182" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="D182" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="43"/>
+      <c r="B183" s="43"/>
+      <c r="C183" s="43"/>
+      <c r="D183" s="43"/>
+    </row>
+    <row r="184" spans="1:4" s="70" customFormat="1" ht="44" customHeight="1">
+      <c r="A184" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="B184" s="41"/>
+      <c r="C184" s="41"/>
+      <c r="D184" s="41"/>
+    </row>
   </sheetData>
-  <mergeCells count="101">
+  <mergeCells count="119">
+    <mergeCell ref="A173:D174"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="A161:D162"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A172:D172"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>

--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="753" activeTab="1"/>
+    <workbookView xWindow="2420" yWindow="3960" windowWidth="25520" windowHeight="15620" tabRatio="753" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="327">
   <si>
     <t>1.获取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1204,7 +1204,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1227,7 +1227,7 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1245,7 +1245,7 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1272,7 +1272,7 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1415,13 +1415,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1429,14 +1429,14 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1444,7 +1444,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1453,7 +1453,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1462,28 +1462,28 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1491,21 +1491,21 @@
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1518,14 +1518,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1593,7 +1593,7 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1727,8 +1727,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="205">
+  <cellStyleXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2047,25 +2049,26 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2074,44 +2077,20 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2128,11 +2107,38 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2140,217 +2146,215 @@
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="205">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="207">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2694,20 +2698,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="11"/>
@@ -3104,8 +3108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179:D179"/>
+    <sheetView showRuler="0" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3117,72 +3121,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -3213,58 +3217,58 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:4" ht="48" customHeight="1">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:4" ht="44" customHeight="1">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1">
       <c r="A21" s="2" t="s">
@@ -3309,58 +3313,58 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
     </row>
     <row r="28" spans="1:4" ht="45" customHeight="1">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
     </row>
     <row r="30" spans="1:4" ht="44" customHeight="1">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1">
       <c r="A32" s="2" t="s">
@@ -3391,58 +3395,58 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
     </row>
     <row r="36" spans="1:4" ht="48" customHeight="1">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:4" ht="45" customHeight="1">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
     </row>
     <row r="40" spans="1:4" ht="44" customHeight="1">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -3485,58 +3489,58 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
     </row>
     <row r="47" spans="1:4" ht="48" customHeight="1">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
     </row>
     <row r="49" spans="1:4" ht="45" customHeight="1">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
     </row>
     <row r="51" spans="1:4" ht="44" customHeight="1">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
     </row>
     <row r="53" spans="1:4" ht="33" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -3649,58 +3653,58 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
     </row>
     <row r="63" spans="1:4" ht="48" customHeight="1">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
     </row>
     <row r="65" spans="1:4" ht="45" customHeight="1">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
     </row>
     <row r="67" spans="1:4" ht="44" customHeight="1">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
     </row>
     <row r="69" spans="1:4" ht="33" customHeight="1">
       <c r="A69" s="2" t="s">
@@ -3759,72 +3763,72 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
     </row>
     <row r="74" spans="1:4" ht="44" customHeight="1">
-      <c r="A74" s="45" t="s">
+      <c r="A74" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
     </row>
     <row r="77" spans="1:4" ht="48" customHeight="1">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
     </row>
     <row r="79" spans="1:4" ht="45" customHeight="1">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="40"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
     </row>
     <row r="81" spans="1:4" ht="44" customHeight="1">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="40"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
     </row>
     <row r="83" spans="1:4" ht="33" customHeight="1">
       <c r="A83" s="30" t="s">
@@ -3855,72 +3859,72 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
     </row>
     <row r="86" spans="1:4" ht="44" customHeight="1">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
     </row>
     <row r="89" spans="1:4" ht="48" customHeight="1">
-      <c r="A89" s="45" t="s">
+      <c r="A89" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="40"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
     </row>
     <row r="91" spans="1:4" ht="45" customHeight="1">
-      <c r="A91" s="46" t="s">
+      <c r="A91" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="46"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="46"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="40"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
     </row>
     <row r="93" spans="1:4" ht="44" customHeight="1">
-      <c r="A93" s="45" t="s">
+      <c r="A93" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
     </row>
     <row r="95" spans="1:4" ht="33" customHeight="1">
       <c r="A95" s="2" t="s">
@@ -3951,72 +3955,72 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
     </row>
     <row r="98" spans="1:4" ht="44" customHeight="1">
-      <c r="A98" s="45" t="s">
+      <c r="A98" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
+      <c r="A99" s="41"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
     </row>
     <row r="101" spans="1:4" ht="48" customHeight="1">
-      <c r="A101" s="45" t="s">
+      <c r="A101" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="40"/>
-      <c r="B102" s="40"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
     </row>
     <row r="103" spans="1:4" ht="45" customHeight="1">
-      <c r="A103" s="46" t="s">
+      <c r="A103" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B103" s="46"/>
-      <c r="C103" s="46"/>
-      <c r="D103" s="46"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="40"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
     </row>
     <row r="105" spans="1:4" ht="44" customHeight="1">
-      <c r="A105" s="45" t="s">
+      <c r="A105" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="45"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="40"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
     </row>
     <row r="107" spans="1:4" ht="33" customHeight="1">
       <c r="A107" s="2" t="s">
@@ -4047,72 +4051,72 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="43"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
     </row>
     <row r="110" spans="1:4" ht="44" customHeight="1">
-      <c r="A110" s="45" t="s">
+      <c r="A110" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B110" s="45"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="46"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="44"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
+      <c r="A111" s="41"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="44"/>
-      <c r="B112" s="44"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="44"/>
+      <c r="A112" s="41"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
     </row>
     <row r="113" spans="1:4" ht="48" customHeight="1">
-      <c r="A113" s="45" t="s">
+      <c r="A113" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B113" s="45"/>
-      <c r="C113" s="45"/>
-      <c r="D113" s="45"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="46"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="40"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
+      <c r="A114" s="43"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
     </row>
     <row r="115" spans="1:4" ht="45" customHeight="1">
-      <c r="A115" s="46" t="s">
+      <c r="A115" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B115" s="46"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="46"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="40"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
+      <c r="A116" s="43"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
     </row>
     <row r="117" spans="1:4" ht="44" customHeight="1">
-      <c r="A117" s="45" t="s">
+      <c r="A117" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="45"/>
-      <c r="C117" s="45"/>
-      <c r="D117" s="45"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="46"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="40"/>
-      <c r="B118" s="40"/>
-      <c r="C118" s="40"/>
-      <c r="D118" s="40"/>
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
     </row>
     <row r="119" spans="1:4" ht="33" customHeight="1">
       <c r="A119" s="2" t="s">
@@ -4143,72 +4147,72 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="43"/>
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="43"/>
+      <c r="A121" s="45"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
     </row>
     <row r="122" spans="1:4" ht="44" customHeight="1">
-      <c r="A122" s="45" t="s">
+      <c r="A122" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B122" s="45"/>
-      <c r="C122" s="45"/>
-      <c r="D122" s="45"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="46"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="44"/>
-      <c r="B123" s="44"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="44"/>
+      <c r="A123" s="41"/>
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="41"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="44"/>
-      <c r="B124" s="44"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="44"/>
+      <c r="A124" s="41"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="41"/>
     </row>
     <row r="125" spans="1:4" ht="48" customHeight="1">
-      <c r="A125" s="45" t="s">
+      <c r="A125" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B125" s="45"/>
-      <c r="C125" s="45"/>
-      <c r="D125" s="45"/>
+      <c r="B125" s="46"/>
+      <c r="C125" s="46"/>
+      <c r="D125" s="46"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="40"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="40"/>
+      <c r="A126" s="43"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
     </row>
     <row r="127" spans="1:4" ht="45" customHeight="1">
-      <c r="A127" s="46" t="s">
+      <c r="A127" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B127" s="46"/>
-      <c r="C127" s="46"/>
-      <c r="D127" s="46"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="40"/>
-      <c r="B128" s="40"/>
-      <c r="C128" s="40"/>
-      <c r="D128" s="40"/>
+      <c r="A128" s="43"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
     </row>
     <row r="129" spans="1:4" ht="44" customHeight="1">
-      <c r="A129" s="45" t="s">
+      <c r="A129" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="45"/>
-      <c r="C129" s="45"/>
-      <c r="D129" s="45"/>
+      <c r="B129" s="46"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="46"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="40"/>
-      <c r="B130" s="40"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="40"/>
+      <c r="A130" s="43"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="43"/>
     </row>
     <row r="131" spans="1:4" ht="33" customHeight="1">
       <c r="A131" s="2" t="s">
@@ -4253,58 +4257,58 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="43"/>
-      <c r="B134" s="43"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="45"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="45"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="44"/>
-      <c r="B135" s="44"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="44"/>
+      <c r="A135" s="41"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="41"/>
+      <c r="D135" s="41"/>
     </row>
     <row r="136" spans="1:4" ht="48" customHeight="1">
-      <c r="A136" s="45" t="s">
+      <c r="A136" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="B136" s="45"/>
-      <c r="C136" s="45"/>
-      <c r="D136" s="45"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="46"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="40"/>
-      <c r="B137" s="40"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
+      <c r="A137" s="43"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="43"/>
     </row>
     <row r="138" spans="1:4" ht="45" customHeight="1">
-      <c r="A138" s="46" t="s">
+      <c r="A138" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B138" s="46"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="46"/>
+      <c r="B138" s="47"/>
+      <c r="C138" s="47"/>
+      <c r="D138" s="47"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="40"/>
-      <c r="B139" s="40"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="40"/>
+      <c r="A139" s="43"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="43"/>
     </row>
     <row r="140" spans="1:4" ht="44" customHeight="1">
-      <c r="A140" s="45" t="s">
+      <c r="A140" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="45"/>
-      <c r="C140" s="45"/>
-      <c r="D140" s="45"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="40"/>
-      <c r="B141" s="40"/>
-      <c r="C141" s="40"/>
-      <c r="D141" s="40"/>
+      <c r="A141" s="43"/>
+      <c r="B141" s="43"/>
+      <c r="C141" s="43"/>
+      <c r="D141" s="43"/>
     </row>
     <row r="142" spans="1:4" ht="33" customHeight="1">
       <c r="A142" s="2" t="s">
@@ -4349,58 +4353,58 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="43"/>
-      <c r="B145" s="43"/>
-      <c r="C145" s="43"/>
-      <c r="D145" s="43"/>
+      <c r="A145" s="45"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="45"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="44"/>
-      <c r="B146" s="44"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="44"/>
+      <c r="A146" s="41"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="41"/>
     </row>
     <row r="147" spans="1:4" ht="48" customHeight="1">
-      <c r="A147" s="41" t="s">
+      <c r="A147" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="B147" s="41"/>
-      <c r="C147" s="41"/>
-      <c r="D147" s="41"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="42"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="40"/>
-      <c r="B148" s="40"/>
-      <c r="C148" s="40"/>
-      <c r="D148" s="40"/>
+      <c r="A148" s="43"/>
+      <c r="B148" s="43"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="43"/>
     </row>
     <row r="149" spans="1:4" ht="45" customHeight="1">
-      <c r="A149" s="42" t="s">
+      <c r="A149" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="B149" s="42"/>
-      <c r="C149" s="42"/>
-      <c r="D149" s="42"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="40"/>
-      <c r="B150" s="40"/>
-      <c r="C150" s="40"/>
-      <c r="D150" s="40"/>
+      <c r="A150" s="43"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="43"/>
     </row>
     <row r="151" spans="1:4" ht="44" customHeight="1">
-      <c r="A151" s="41" t="s">
+      <c r="A151" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B151" s="41"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="41"/>
+      <c r="B151" s="42"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="42"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="40"/>
-      <c r="B152" s="40"/>
-      <c r="C152" s="40"/>
-      <c r="D152" s="40"/>
+      <c r="A152" s="43"/>
+      <c r="B152" s="43"/>
+      <c r="C152" s="43"/>
+      <c r="D152" s="43"/>
     </row>
     <row r="153" spans="1:4" ht="33" customHeight="1">
       <c r="A153" s="30" t="s">
@@ -4513,60 +4517,60 @@
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="43"/>
-      <c r="B161" s="43"/>
-      <c r="C161" s="43"/>
-      <c r="D161" s="43"/>
+      <c r="A161" s="45"/>
+      <c r="B161" s="45"/>
+      <c r="C161" s="45"/>
+      <c r="D161" s="45"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="44"/>
-      <c r="B162" s="44"/>
-      <c r="C162" s="44"/>
-      <c r="D162" s="44"/>
-    </row>
-    <row r="163" spans="1:4" s="70" customFormat="1" ht="48" customHeight="1">
-      <c r="A163" s="41" t="s">
+      <c r="A162" s="41"/>
+      <c r="B162" s="41"/>
+      <c r="C162" s="41"/>
+      <c r="D162" s="41"/>
+    </row>
+    <row r="163" spans="1:4" s="38" customFormat="1" ht="48" customHeight="1">
+      <c r="A163" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="B163" s="41"/>
-      <c r="C163" s="41"/>
-      <c r="D163" s="41"/>
+      <c r="B163" s="42"/>
+      <c r="C163" s="42"/>
+      <c r="D163" s="42"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="40"/>
-      <c r="B164" s="40"/>
-      <c r="C164" s="40"/>
-      <c r="D164" s="40"/>
-    </row>
-    <row r="165" spans="1:4" s="70" customFormat="1" ht="45" customHeight="1">
-      <c r="A165" s="42" t="s">
+      <c r="A164" s="43"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="43"/>
+    </row>
+    <row r="165" spans="1:4" s="38" customFormat="1" ht="45" customHeight="1">
+      <c r="A165" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="B165" s="42"/>
-      <c r="C165" s="42"/>
-      <c r="D165" s="42"/>
+      <c r="B165" s="44"/>
+      <c r="C165" s="44"/>
+      <c r="D165" s="44"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="40"/>
-      <c r="B166" s="40"/>
-      <c r="C166" s="40"/>
-      <c r="D166" s="40"/>
-    </row>
-    <row r="167" spans="1:4" s="70" customFormat="1" ht="44" customHeight="1">
-      <c r="A167" s="41" t="s">
+      <c r="A166" s="43"/>
+      <c r="B166" s="43"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="43"/>
+    </row>
+    <row r="167" spans="1:4" s="38" customFormat="1" ht="44" customHeight="1">
+      <c r="A167" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B167" s="41"/>
-      <c r="C167" s="41"/>
-      <c r="D167" s="41"/>
+      <c r="B167" s="42"/>
+      <c r="C167" s="42"/>
+      <c r="D167" s="42"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="40"/>
-      <c r="B168" s="40"/>
-      <c r="C168" s="40"/>
-      <c r="D168" s="40"/>
-    </row>
-    <row r="169" spans="1:4" s="70" customFormat="1" ht="33" customHeight="1">
+      <c r="A168" s="43"/>
+      <c r="B168" s="43"/>
+      <c r="C168" s="43"/>
+      <c r="D168" s="43"/>
+    </row>
+    <row r="169" spans="1:4" s="38" customFormat="1" ht="33" customHeight="1">
       <c r="A169" s="30" t="s">
         <v>3</v>
       </c>
@@ -4580,7 +4584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="70" customFormat="1" ht="27" customHeight="1">
+    <row r="170" spans="1:4" s="38" customFormat="1" ht="27" customHeight="1">
       <c r="A170" s="32" t="s">
         <v>283</v>
       </c>
@@ -4595,74 +4599,74 @@
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="43"/>
-      <c r="B171" s="43"/>
-      <c r="C171" s="43"/>
-      <c r="D171" s="43"/>
-    </row>
-    <row r="172" spans="1:4" s="70" customFormat="1" ht="44" customHeight="1">
-      <c r="A172" s="41" t="s">
+      <c r="A171" s="45"/>
+      <c r="B171" s="45"/>
+      <c r="C171" s="45"/>
+      <c r="D171" s="45"/>
+    </row>
+    <row r="172" spans="1:4" s="38" customFormat="1" ht="44" customHeight="1">
+      <c r="A172" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="B172" s="41"/>
-      <c r="C172" s="41"/>
-      <c r="D172" s="41"/>
+      <c r="B172" s="42"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="42"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="44"/>
-      <c r="B173" s="44"/>
-      <c r="C173" s="44"/>
-      <c r="D173" s="44"/>
+      <c r="A173" s="41"/>
+      <c r="B173" s="41"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="41"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="44"/>
-      <c r="B174" s="44"/>
-      <c r="C174" s="44"/>
-      <c r="D174" s="44"/>
-    </row>
-    <row r="175" spans="1:4" s="70" customFormat="1" ht="48" customHeight="1">
-      <c r="A175" s="41" t="s">
+      <c r="A174" s="41"/>
+      <c r="B174" s="41"/>
+      <c r="C174" s="41"/>
+      <c r="D174" s="41"/>
+    </row>
+    <row r="175" spans="1:4" s="38" customFormat="1" ht="48" customHeight="1">
+      <c r="A175" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="B175" s="41"/>
-      <c r="C175" s="41"/>
-      <c r="D175" s="41"/>
+      <c r="B175" s="42"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="42"/>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="40"/>
-      <c r="B176" s="40"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="40"/>
-    </row>
-    <row r="177" spans="1:4" s="70" customFormat="1" ht="45" customHeight="1">
-      <c r="A177" s="42" t="s">
+      <c r="A176" s="43"/>
+      <c r="B176" s="43"/>
+      <c r="C176" s="43"/>
+      <c r="D176" s="43"/>
+    </row>
+    <row r="177" spans="1:4" s="38" customFormat="1" ht="45" customHeight="1">
+      <c r="A177" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="B177" s="42"/>
-      <c r="C177" s="42"/>
-      <c r="D177" s="42"/>
+      <c r="B177" s="44"/>
+      <c r="C177" s="44"/>
+      <c r="D177" s="44"/>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="40"/>
-      <c r="B178" s="40"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="40"/>
-    </row>
-    <row r="179" spans="1:4" s="70" customFormat="1" ht="44" customHeight="1">
-      <c r="A179" s="41" t="s">
+      <c r="A178" s="43"/>
+      <c r="B178" s="43"/>
+      <c r="C178" s="43"/>
+      <c r="D178" s="43"/>
+    </row>
+    <row r="179" spans="1:4" s="38" customFormat="1" ht="44" customHeight="1">
+      <c r="A179" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B179" s="41"/>
-      <c r="C179" s="41"/>
-      <c r="D179" s="41"/>
+      <c r="B179" s="42"/>
+      <c r="C179" s="42"/>
+      <c r="D179" s="42"/>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="40"/>
-      <c r="B180" s="40"/>
-      <c r="C180" s="40"/>
-      <c r="D180" s="40"/>
-    </row>
-    <row r="181" spans="1:4" s="70" customFormat="1" ht="33" customHeight="1">
+      <c r="A180" s="43"/>
+      <c r="B180" s="43"/>
+      <c r="C180" s="43"/>
+      <c r="D180" s="43"/>
+    </row>
+    <row r="181" spans="1:4" s="38" customFormat="1" ht="33" customHeight="1">
       <c r="A181" s="30" t="s">
         <v>3</v>
       </c>
@@ -4676,7 +4680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="70" customFormat="1" ht="27" customHeight="1">
+    <row r="182" spans="1:4" s="38" customFormat="1" ht="27" customHeight="1">
       <c r="A182" s="32" t="s">
         <v>283</v>
       </c>
@@ -4691,116 +4695,21 @@
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="43"/>
-      <c r="B183" s="43"/>
-      <c r="C183" s="43"/>
-      <c r="D183" s="43"/>
-    </row>
-    <row r="184" spans="1:4" s="70" customFormat="1" ht="44" customHeight="1">
-      <c r="A184" s="41" t="s">
+      <c r="A183" s="45"/>
+      <c r="B183" s="45"/>
+      <c r="C183" s="45"/>
+      <c r="D183" s="45"/>
+    </row>
+    <row r="184" spans="1:4" s="38" customFormat="1" ht="44" customHeight="1">
+      <c r="A184" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="B184" s="41"/>
-      <c r="C184" s="41"/>
-      <c r="D184" s="41"/>
+      <c r="B184" s="42"/>
+      <c r="C184" s="42"/>
+      <c r="D184" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="A173:D174"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A184:D184"/>
-    <mergeCell ref="A161:D162"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D124"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A111:D112"/>
     <mergeCell ref="A152:D152"/>
     <mergeCell ref="A147:D147"/>
     <mergeCell ref="A148:D148"/>
@@ -4825,6 +4734,101 @@
     <mergeCell ref="A134:D135"/>
     <mergeCell ref="A117:D117"/>
     <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D124"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A161:D162"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A173:D174"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A184:D184"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4851,58 +4855,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4939,72 +4943,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -5035,18 +5039,18 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5072,10 +5076,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5087,72 +5091,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -5239,72 +5243,72 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
     </row>
     <row r="18" spans="1:4" ht="85" customHeight="1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
     </row>
     <row r="21" spans="1:4" ht="48" customHeight="1">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:4" ht="55" customHeight="1">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4" ht="44" customHeight="1">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1">
       <c r="A27" s="7" t="s">
@@ -5349,72 +5353,72 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
     </row>
     <row r="31" spans="1:4" ht="50" customHeight="1">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
     </row>
     <row r="34" spans="1:4" ht="48" customHeight="1">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
     </row>
     <row r="36" spans="1:4" ht="45" customHeight="1">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
     </row>
     <row r="38" spans="1:4" ht="44" customHeight="1">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1">
       <c r="A40" s="7" t="s">
@@ -5445,72 +5449,72 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
     </row>
     <row r="43" spans="1:4" ht="85" customHeight="1">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
     </row>
     <row r="46" spans="1:4" ht="48" customHeight="1">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
     </row>
     <row r="48" spans="1:4" ht="45" customHeight="1">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
     </row>
     <row r="50" spans="1:4" ht="44" customHeight="1">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
     </row>
     <row r="52" spans="1:4" ht="33" customHeight="1">
       <c r="A52" s="7" t="s">
@@ -5541,72 +5545,72 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
     </row>
     <row r="55" spans="1:4" ht="43" customHeight="1">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
     </row>
     <row r="58" spans="1:4" ht="48" customHeight="1">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
     </row>
     <row r="60" spans="1:4" ht="45" customHeight="1">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
     </row>
     <row r="62" spans="1:4" ht="44" customHeight="1">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="56"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
     </row>
     <row r="64" spans="1:4" ht="33" customHeight="1">
       <c r="A64" s="7" t="s">
@@ -5678,746 +5682,811 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" customHeight="1">
+    <row r="69" spans="1:4" ht="29" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="29" customHeight="1">
+      <c r="A70" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" customHeight="1">
+      <c r="A71" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="30" customHeight="1">
-      <c r="A70" s="6" t="s">
+    <row r="72" spans="1:4" ht="30" customHeight="1">
+      <c r="A72" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B72" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="57"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-    </row>
-    <row r="73" spans="1:4" ht="48" customHeight="1">
-      <c r="A73" s="53" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="59"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="61"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+    </row>
+    <row r="75" spans="1:4" ht="48" customHeight="1">
+      <c r="A75" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-    </row>
-    <row r="75" spans="1:4" ht="45" customHeight="1">
-      <c r="A75" s="55" t="s">
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="58"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+    </row>
+    <row r="77" spans="1:4" ht="45" customHeight="1">
+      <c r="A77" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-    </row>
-    <row r="77" spans="1:4" ht="44" customHeight="1">
-      <c r="A77" s="53" t="s">
+      <c r="B77" s="62"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="58"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+    </row>
+    <row r="79" spans="1:4" ht="44" customHeight="1">
+      <c r="A79" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="56"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-    </row>
-    <row r="79" spans="1:4" ht="33" customHeight="1">
-      <c r="A79" s="7" t="s">
+      <c r="B79" s="60"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="65"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+    </row>
+    <row r="81" spans="1:4" ht="33" customHeight="1">
+      <c r="A81" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B81" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="30" customHeight="1">
-      <c r="A80" s="6" t="s">
+    <row r="82" spans="1:4" ht="30" customHeight="1">
+      <c r="A82" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="57"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
-    </row>
-    <row r="82" spans="1:4" ht="43" customHeight="1">
-      <c r="A82" s="53" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" s="59"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
+    </row>
+    <row r="84" spans="1:4" ht="43" customHeight="1">
+      <c r="A84" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="52"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="52"/>
-    </row>
-    <row r="85" spans="1:4" ht="48" customHeight="1">
-      <c r="A85" s="53" t="s">
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="61"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="61"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="61"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="61"/>
+    </row>
+    <row r="87" spans="1:4" ht="48" customHeight="1">
+      <c r="A87" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="54"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-    </row>
-    <row r="87" spans="1:4" ht="45" customHeight="1">
-      <c r="A87" s="55" t="s">
+      <c r="B87" s="60"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+    </row>
+    <row r="89" spans="1:4" ht="45" customHeight="1">
+      <c r="A89" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="54"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-    </row>
-    <row r="89" spans="1:4" ht="44" customHeight="1">
-      <c r="A89" s="53" t="s">
+      <c r="B89" s="62"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="58"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="58"/>
+    </row>
+    <row r="91" spans="1:4" ht="44" customHeight="1">
+      <c r="A91" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="53"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="53"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="54"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-    </row>
-    <row r="91" spans="1:4" ht="33" customHeight="1">
-      <c r="A91" s="7" t="s">
+      <c r="B91" s="60"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="58"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+    </row>
+    <row r="93" spans="1:4" ht="33" customHeight="1">
+      <c r="A93" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B93" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="30" customHeight="1">
-      <c r="A92" s="6" t="s">
+    <row r="94" spans="1:4" ht="30" customHeight="1">
+      <c r="A94" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B94" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C94" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D94" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="57"/>
-    </row>
-    <row r="94" spans="1:4" ht="43" customHeight="1">
-      <c r="A94" s="53" t="s">
+    <row r="95" spans="1:4">
+      <c r="A95" s="59"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
+    </row>
+    <row r="96" spans="1:4" ht="43" customHeight="1">
+      <c r="A96" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="52"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="52"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="52"/>
-    </row>
-    <row r="97" spans="1:4" ht="48" customHeight="1">
-      <c r="A97" s="53" t="s">
+      <c r="B96" s="60"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="61"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="61"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="61"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="61"/>
+    </row>
+    <row r="99" spans="1:4" ht="48" customHeight="1">
+      <c r="A99" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="54"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-    </row>
-    <row r="99" spans="1:4" ht="45" customHeight="1">
-      <c r="A99" s="55" t="s">
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="60"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="58"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+    </row>
+    <row r="101" spans="1:4" ht="45" customHeight="1">
+      <c r="A101" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="54"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="54"/>
-    </row>
-    <row r="101" spans="1:4" ht="44" customHeight="1">
-      <c r="A101" s="53" t="s">
+      <c r="B101" s="62"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="62"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="58"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
+    </row>
+    <row r="103" spans="1:4" ht="44" customHeight="1">
+      <c r="A103" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="53"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="54"/>
-      <c r="B102" s="54"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="54"/>
-    </row>
-    <row r="103" spans="1:4" ht="33" customHeight="1">
-      <c r="A103" s="7" t="s">
+      <c r="B103" s="60"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="58"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+    </row>
+    <row r="105" spans="1:4" ht="33" customHeight="1">
+      <c r="A105" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B105" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C105" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D105" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="30" customHeight="1">
-      <c r="A104" s="6" t="s">
+    <row r="106" spans="1:4" ht="30" customHeight="1">
+      <c r="A106" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B106" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C106" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="57"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-    </row>
-    <row r="106" spans="1:4" ht="43" customHeight="1">
-      <c r="A106" s="53" t="s">
+    <row r="107" spans="1:4">
+      <c r="A107" s="59"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="59"/>
+    </row>
+    <row r="108" spans="1:4" ht="43" customHeight="1">
+      <c r="A108" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="B106" s="53"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="53"/>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="52"/>
-      <c r="B107" s="52"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="52"/>
-      <c r="B108" s="52"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="52"/>
-    </row>
-    <row r="109" spans="1:4" ht="48" customHeight="1">
-      <c r="A109" s="53" t="s">
+      <c r="B108" s="60"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="60"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="61"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="61"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="61"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="61"/>
+    </row>
+    <row r="111" spans="1:4" ht="48" customHeight="1">
+      <c r="A111" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="B109" s="53"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="53"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="54"/>
-      <c r="B110" s="54"/>
-      <c r="C110" s="54"/>
-      <c r="D110" s="54"/>
-    </row>
-    <row r="111" spans="1:4" ht="45" customHeight="1">
-      <c r="A111" s="55" t="s">
+      <c r="B111" s="60"/>
+      <c r="C111" s="60"/>
+      <c r="D111" s="60"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="58"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="58"/>
+    </row>
+    <row r="113" spans="1:4" ht="45" customHeight="1">
+      <c r="A113" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="B111" s="55"/>
-      <c r="C111" s="55"/>
-      <c r="D111" s="55"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="54"/>
-      <c r="B112" s="54"/>
-      <c r="C112" s="54"/>
-      <c r="D112" s="54"/>
-    </row>
-    <row r="113" spans="1:4" ht="44" customHeight="1">
-      <c r="A113" s="53" t="s">
+      <c r="B113" s="62"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="62"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="58"/>
+      <c r="B114" s="58"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="58"/>
+    </row>
+    <row r="115" spans="1:4" ht="44" customHeight="1">
+      <c r="A115" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="53"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="53"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="54"/>
-      <c r="B114" s="54"/>
-      <c r="C114" s="54"/>
-      <c r="D114" s="54"/>
-    </row>
-    <row r="115" spans="1:4" ht="33" customHeight="1">
-      <c r="A115" s="7" t="s">
+      <c r="B115" s="60"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="60"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="58"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="58"/>
+    </row>
+    <row r="117" spans="1:4" ht="33" customHeight="1">
+      <c r="A117" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B117" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C117" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D117" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="30" customHeight="1">
-      <c r="A116" s="6" t="s">
+    <row r="118" spans="1:4" ht="30" customHeight="1">
+      <c r="A118" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B118" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C118" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D118" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="57"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="57"/>
-      <c r="D117" s="57"/>
-    </row>
-    <row r="118" spans="1:4" ht="43" customHeight="1">
-      <c r="A118" s="53" t="s">
+    <row r="119" spans="1:4">
+      <c r="A119" s="59"/>
+      <c r="B119" s="59"/>
+      <c r="C119" s="59"/>
+      <c r="D119" s="59"/>
+    </row>
+    <row r="120" spans="1:4" ht="43" customHeight="1">
+      <c r="A120" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="53"/>
-      <c r="C118" s="53"/>
-      <c r="D118" s="53"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="52"/>
-      <c r="B119" s="52"/>
-      <c r="C119" s="52"/>
-      <c r="D119" s="52"/>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="52"/>
-      <c r="B120" s="52"/>
-      <c r="C120" s="52"/>
-      <c r="D120" s="52"/>
-    </row>
-    <row r="121" spans="1:4" ht="48" customHeight="1">
-      <c r="A121" s="53" t="s">
+      <c r="B120" s="60"/>
+      <c r="C120" s="60"/>
+      <c r="D120" s="60"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="61"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="61"/>
+      <c r="D121" s="61"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="61"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="61"/>
+      <c r="D122" s="61"/>
+    </row>
+    <row r="123" spans="1:4" ht="48" customHeight="1">
+      <c r="A123" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="B121" s="53"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="53"/>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="54"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="54"/>
-      <c r="D122" s="54"/>
-    </row>
-    <row r="123" spans="1:4" ht="45" customHeight="1">
-      <c r="A123" s="55" t="s">
+      <c r="B123" s="60"/>
+      <c r="C123" s="60"/>
+      <c r="D123" s="60"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="58"/>
+      <c r="B124" s="58"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="58"/>
+    </row>
+    <row r="125" spans="1:4" ht="45" customHeight="1">
+      <c r="A125" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="B123" s="55"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="55"/>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="54"/>
-      <c r="B124" s="54"/>
-      <c r="C124" s="54"/>
-      <c r="D124" s="54"/>
-    </row>
-    <row r="125" spans="1:4" ht="44" customHeight="1">
-      <c r="A125" s="53" t="s">
+      <c r="B125" s="62"/>
+      <c r="C125" s="62"/>
+      <c r="D125" s="62"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="58"/>
+      <c r="B126" s="58"/>
+      <c r="C126" s="58"/>
+      <c r="D126" s="58"/>
+    </row>
+    <row r="127" spans="1:4" ht="44" customHeight="1">
+      <c r="A127" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="53"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="53"/>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="54"/>
-      <c r="B126" s="54"/>
-      <c r="C126" s="54"/>
-      <c r="D126" s="54"/>
-    </row>
-    <row r="127" spans="1:4" ht="33" customHeight="1">
-      <c r="A127" s="7" t="s">
+      <c r="B127" s="60"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="60"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="58"/>
+      <c r="B128" s="58"/>
+      <c r="C128" s="58"/>
+      <c r="D128" s="58"/>
+    </row>
+    <row r="129" spans="1:4" ht="33" customHeight="1">
+      <c r="A129" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B129" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C129" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D129" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="30" customHeight="1">
-      <c r="A128" s="6" t="s">
+    <row r="130" spans="1:4" ht="30" customHeight="1">
+      <c r="A130" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B130" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C130" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="D130" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="57"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="57"/>
-      <c r="D129" s="57"/>
-    </row>
-    <row r="130" spans="1:4" ht="43" customHeight="1">
-      <c r="A130" s="53" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" s="59"/>
+      <c r="B131" s="59"/>
+      <c r="C131" s="59"/>
+      <c r="D131" s="59"/>
+    </row>
+    <row r="132" spans="1:4" ht="43" customHeight="1">
+      <c r="A132" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="53"/>
-      <c r="C130" s="53"/>
-      <c r="D130" s="53"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="52"/>
-      <c r="B131" s="52"/>
-      <c r="C131" s="52"/>
-      <c r="D131" s="52"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="52"/>
-      <c r="B132" s="52"/>
-      <c r="C132" s="52"/>
-      <c r="D132" s="52"/>
-    </row>
-    <row r="133" spans="1:4" ht="48" customHeight="1">
-      <c r="A133" s="53" t="s">
+      <c r="B132" s="60"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="60"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="61"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="61"/>
+      <c r="D133" s="61"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="61"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="61"/>
+      <c r="D134" s="61"/>
+    </row>
+    <row r="135" spans="1:4" ht="48" customHeight="1">
+      <c r="A135" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="53"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="53"/>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="54"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="54"/>
-    </row>
-    <row r="135" spans="1:4" ht="45" customHeight="1">
-      <c r="A135" s="55" t="s">
+      <c r="B135" s="60"/>
+      <c r="C135" s="60"/>
+      <c r="D135" s="60"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="58"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="58"/>
+      <c r="D136" s="58"/>
+    </row>
+    <row r="137" spans="1:4" ht="45" customHeight="1">
+      <c r="A137" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="B135" s="55"/>
-      <c r="C135" s="55"/>
-      <c r="D135" s="55"/>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="54"/>
-      <c r="B136" s="54"/>
-      <c r="C136" s="54"/>
-      <c r="D136" s="54"/>
-    </row>
-    <row r="137" spans="1:4" ht="44" customHeight="1">
-      <c r="A137" s="53" t="s">
+      <c r="B137" s="62"/>
+      <c r="C137" s="62"/>
+      <c r="D137" s="62"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="58"/>
+      <c r="B138" s="58"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="58"/>
+    </row>
+    <row r="139" spans="1:4" ht="44" customHeight="1">
+      <c r="A139" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="53"/>
-      <c r="C137" s="53"/>
-      <c r="D137" s="53"/>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="54"/>
-      <c r="B138" s="54"/>
-      <c r="C138" s="54"/>
-      <c r="D138" s="54"/>
-    </row>
-    <row r="139" spans="1:4" ht="33" customHeight="1">
-      <c r="A139" s="7" t="s">
+      <c r="B139" s="60"/>
+      <c r="C139" s="60"/>
+      <c r="D139" s="60"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="58"/>
+      <c r="B140" s="58"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="58"/>
+    </row>
+    <row r="141" spans="1:4" ht="33" customHeight="1">
+      <c r="A141" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B141" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C141" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D141" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="30" customHeight="1">
-      <c r="A140" s="6" t="s">
+    <row r="142" spans="1:4" ht="30" customHeight="1">
+      <c r="A142" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B142" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C142" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D142" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="57"/>
-      <c r="B141" s="57"/>
-      <c r="C141" s="57"/>
-      <c r="D141" s="57"/>
-    </row>
-    <row r="142" spans="1:4" ht="43" customHeight="1">
-      <c r="A142" s="53" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" s="59"/>
+      <c r="B143" s="59"/>
+      <c r="C143" s="59"/>
+      <c r="D143" s="59"/>
+    </row>
+    <row r="144" spans="1:4" ht="43" customHeight="1">
+      <c r="A144" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B142" s="53"/>
-      <c r="C142" s="53"/>
-      <c r="D142" s="53"/>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="52"/>
-      <c r="B143" s="52"/>
-      <c r="C143" s="52"/>
-      <c r="D143" s="52"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="52"/>
-      <c r="B144" s="52"/>
-      <c r="C144" s="52"/>
-      <c r="D144" s="52"/>
-    </row>
-    <row r="145" spans="1:4" ht="23" customHeight="1">
-      <c r="A145" s="62" t="s">
+      <c r="B144" s="60"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="60"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="61"/>
+      <c r="B145" s="61"/>
+      <c r="C145" s="61"/>
+      <c r="D145" s="61"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="61"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="61"/>
+      <c r="D146" s="61"/>
+    </row>
+    <row r="147" spans="1:4" ht="23" customHeight="1">
+      <c r="A147" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="B145" s="62"/>
-      <c r="C145" s="62"/>
-      <c r="D145" s="62"/>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="63"/>
-      <c r="B146" s="63"/>
-      <c r="C146" s="63"/>
-      <c r="D146" s="63"/>
-    </row>
-    <row r="147" spans="1:4" ht="23" customHeight="1">
-      <c r="A147" s="64" t="s">
+      <c r="B147" s="55"/>
+      <c r="C147" s="55"/>
+      <c r="D147" s="55"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="56"/>
+      <c r="B148" s="56"/>
+      <c r="C148" s="56"/>
+      <c r="D148" s="56"/>
+    </row>
+    <row r="149" spans="1:4" ht="23" customHeight="1">
+      <c r="A149" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="B147" s="64"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="64"/>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="63"/>
-      <c r="B148" s="63"/>
-      <c r="C148" s="63"/>
-      <c r="D148" s="63"/>
-    </row>
-    <row r="149" spans="1:4" ht="23" customHeight="1">
-      <c r="A149" s="62" t="s">
+      <c r="B149" s="57"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="57"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="56"/>
+      <c r="B150" s="56"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="56"/>
+    </row>
+    <row r="151" spans="1:4" ht="23" customHeight="1">
+      <c r="A151" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="B149" s="62"/>
-      <c r="C149" s="62"/>
-      <c r="D149" s="62"/>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="60"/>
-      <c r="B150" s="60"/>
-      <c r="C150" s="60"/>
-      <c r="D150" s="60"/>
-    </row>
-    <row r="151" spans="1:4" ht="18">
-      <c r="A151" s="18" t="s">
+      <c r="B151" s="55"/>
+      <c r="C151" s="55"/>
+      <c r="D151" s="55"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="53"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="53"/>
+    </row>
+    <row r="153" spans="1:4" ht="17">
+      <c r="A153" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="B151" s="19" t="s">
+      <c r="B153" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="C153" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="D151" s="20" t="s">
+      <c r="D153" s="20" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18">
-      <c r="A152" s="21" t="s">
+    <row r="154" spans="1:4" ht="17">
+      <c r="A154" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="B152" s="22" t="s">
+      <c r="B154" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="C152" s="23" t="s">
+      <c r="C154" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="D152" s="23" t="s">
+      <c r="D154" s="23" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="90">
-      <c r="A153" s="21" t="s">
+    <row r="155" spans="1:4" ht="85">
+      <c r="A155" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="B153" s="22" t="s">
+      <c r="B155" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="C153" s="23" t="s">
+      <c r="C155" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="D153" s="23" t="s">
+      <c r="D155" s="23" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="61"/>
-      <c r="B154" s="61"/>
-      <c r="C154" s="61"/>
-      <c r="D154" s="61"/>
-    </row>
-    <row r="155" spans="1:4" ht="23" customHeight="1">
-      <c r="A155" s="62" t="s">
+    <row r="156" spans="1:4">
+      <c r="A156" s="54"/>
+      <c r="B156" s="54"/>
+      <c r="C156" s="54"/>
+      <c r="D156" s="54"/>
+    </row>
+    <row r="157" spans="1:4" ht="23" customHeight="1">
+      <c r="A157" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="B155" s="62"/>
-      <c r="C155" s="62"/>
-      <c r="D155" s="62"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="55"/>
+      <c r="D157" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A145:D146"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A73:D74"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A133:D134"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A121:D122"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A109:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A83:D83"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
@@ -6439,70 +6508,34 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A54:D54"/>
     <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A143:D144"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A131:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D123"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6527,72 +6560,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -6663,58 +6696,58 @@
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" ht="48" customHeight="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
     </row>
     <row r="20" spans="1:4" ht="45" customHeight="1">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
     </row>
     <row r="22" spans="1:4" ht="44" customHeight="1">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1">
       <c r="A24" s="34" t="s">
@@ -6773,72 +6806,72 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
     </row>
     <row r="29" spans="1:4" ht="43" customHeight="1">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
     </row>
     <row r="32" spans="1:4" ht="48" customHeight="1">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
     </row>
     <row r="34" spans="1:4" ht="45" customHeight="1">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
     </row>
     <row r="36" spans="1:4" ht="44" customHeight="1">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
     </row>
     <row r="38" spans="1:4" ht="33" customHeight="1">
       <c r="A38" s="7" t="s">
@@ -6869,72 +6902,72 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
     </row>
     <row r="41" spans="1:4" ht="43" customHeight="1">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
     </row>
     <row r="44" spans="1:4" ht="48" customHeight="1">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
     </row>
     <row r="46" spans="1:4" ht="45" customHeight="1">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
     </row>
     <row r="48" spans="1:4" ht="44" customHeight="1">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="56"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
     </row>
     <row r="50" spans="1:4" ht="33" customHeight="1">
       <c r="A50" s="7" t="s">
@@ -6965,33 +6998,31 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
     </row>
     <row r="53" spans="1:4" ht="43" customHeight="1">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
@@ -7004,16 +7035,18 @@
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7041,72 +7074,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -7151,58 +7184,58 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
     </row>
     <row r="16" spans="1:4" ht="48" customHeight="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
     </row>
     <row r="20" spans="1:4" ht="44" customHeight="1">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -7247,72 +7280,72 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:4" ht="43" customHeight="1">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
     </row>
     <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="7" t="s">
@@ -7357,72 +7390,72 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
     </row>
     <row r="39" spans="1:4" ht="43" customHeight="1">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
     </row>
     <row r="42" spans="1:4" ht="48" customHeight="1">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
     </row>
     <row r="44" spans="1:4" ht="45" customHeight="1">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
       <c r="A48" s="7" t="s">
@@ -7468,18 +7501,14 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
@@ -7492,14 +7521,18 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7527,72 +7560,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -7623,72 +7656,72 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
     </row>
     <row r="17" spans="1:4" ht="48" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
     </row>
     <row r="21" spans="1:4" ht="44" customHeight="1">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -7719,72 +7752,72 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:4" ht="44" customHeight="1">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
     </row>
     <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
     </row>
     <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -7829,72 +7862,72 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
     </row>
     <row r="39" spans="1:4" ht="44" customHeight="1">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
     </row>
     <row r="42" spans="1:4" ht="48" customHeight="1">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
     </row>
     <row r="44" spans="1:4" ht="45" customHeight="1">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
     </row>
     <row r="46" spans="1:4" ht="44" customHeight="1">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
     </row>
     <row r="48" spans="1:4" ht="33" customHeight="1">
       <c r="A48" s="7" t="s">
@@ -7953,58 +7986,58 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
     </row>
     <row r="54" spans="1:4" ht="48" customHeight="1">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4" ht="45" customHeight="1">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
     </row>
     <row r="58" spans="1:4" ht="44" customHeight="1">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
     </row>
     <row r="60" spans="1:4" ht="33" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -8049,86 +8082,86 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
     </row>
     <row r="64" spans="1:4" ht="44" customHeight="1">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="44"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
     </row>
     <row r="66" spans="1:4" ht="71" customHeight="1">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
     </row>
     <row r="69" spans="1:4" ht="48" customHeight="1">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
     </row>
     <row r="71" spans="1:4" ht="45" customHeight="1">
-      <c r="A71" s="55" t="s">
+      <c r="A71" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
     </row>
     <row r="73" spans="1:4" ht="44" customHeight="1">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="56"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
     </row>
     <row r="75" spans="1:4" ht="33" customHeight="1">
       <c r="A75" s="7" t="s">
@@ -8229,24 +8262,51 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D68"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A40:D41"/>
@@ -8263,38 +8323,11 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D68"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8322,120 +8355,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" ht="43" customHeight="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="66" t="s">
         <v>306</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" spans="1:4" ht="23" customHeight="1">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="70" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
     </row>
     <row r="16" spans="1:4" ht="23" customHeight="1">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1">
       <c r="A18" s="27" t="s">
@@ -8508,10 +8541,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22" customHeight="1">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8530,6 +8563,7 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/daydayup api.xlsx
+++ b/daydayup api.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="3960" windowWidth="25520" windowHeight="15620" tabRatio="753" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="753" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档说明" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="329">
   <si>
     <t>1.获取验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1204,7 +1204,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1227,7 +1227,7 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1245,7 +1245,7 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1272,7 +1272,7 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1406,6 +1406,23 @@
   <si>
     <t>调用示例：GET /user/following_users?token=xxxxx</t>
   </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除督促目标中不是“督促中”的督促关系</t>
+    </r>
+  </si>
+  <si>
+    <t>POST /supervises/:supervise_id/destroy</t>
+  </si>
 </sst>
 </file>
 
@@ -1415,13 +1432,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1429,14 +1446,14 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1444,7 +1461,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1453,7 +1470,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1462,28 +1479,28 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1491,21 +1508,21 @@
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1518,14 +1535,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1593,7 +1610,7 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1727,8 +1744,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="207">
+  <cellStyleXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2056,19 +2075,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2077,20 +2096,44 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2106,30 +2149,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2147,214 +2166,216 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="207">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="209">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3121,30 +3142,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
       <c r="A5" s="46" t="s">
@@ -3155,10 +3176,10 @@
       <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
       <c r="A7" s="47" t="s">
@@ -3169,10 +3190,10 @@
       <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -3183,10 +3204,10 @@
       <c r="D9" s="46"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -3217,58 +3238,58 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:4" ht="48" customHeight="1">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
     </row>
     <row r="19" spans="1:4" ht="44" customHeight="1">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1">
       <c r="A21" s="2" t="s">
@@ -3313,58 +3334,58 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:4" ht="48" customHeight="1">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="1:4" ht="45" customHeight="1">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
     </row>
     <row r="30" spans="1:4" ht="44" customHeight="1">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1">
       <c r="A32" s="2" t="s">
@@ -3395,16 +3416,16 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
     </row>
     <row r="36" spans="1:4" ht="48" customHeight="1">
       <c r="A36" s="46" t="s">
@@ -3415,10 +3436,10 @@
       <c r="D36" s="46"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38" spans="1:4" ht="45" customHeight="1">
       <c r="A38" s="47" t="s">
@@ -3429,10 +3450,10 @@
       <c r="D38" s="47"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
     </row>
     <row r="40" spans="1:4" ht="44" customHeight="1">
       <c r="A40" s="46" t="s">
@@ -3443,10 +3464,10 @@
       <c r="D40" s="46"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
     </row>
     <row r="42" spans="1:4" ht="33" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -3489,16 +3510,16 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
     </row>
     <row r="47" spans="1:4" ht="48" customHeight="1">
       <c r="A47" s="46" t="s">
@@ -3509,10 +3530,10 @@
       <c r="D47" s="46"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
     </row>
     <row r="49" spans="1:4" ht="45" customHeight="1">
       <c r="A49" s="47" t="s">
@@ -3523,10 +3544,10 @@
       <c r="D49" s="47"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:4" ht="44" customHeight="1">
       <c r="A51" s="46" t="s">
@@ -3537,10 +3558,10 @@
       <c r="D51" s="46"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
     </row>
     <row r="53" spans="1:4" ht="33" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -3653,16 +3674,16 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
     </row>
     <row r="63" spans="1:4" ht="48" customHeight="1">
       <c r="A63" s="46" t="s">
@@ -3673,10 +3694,10 @@
       <c r="D63" s="46"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
     </row>
     <row r="65" spans="1:4" ht="45" customHeight="1">
       <c r="A65" s="47" t="s">
@@ -3687,10 +3708,10 @@
       <c r="D65" s="47"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
     </row>
     <row r="67" spans="1:4" ht="44" customHeight="1">
       <c r="A67" s="46" t="s">
@@ -3701,10 +3722,10 @@
       <c r="D67" s="46"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
     </row>
     <row r="69" spans="1:4" ht="33" customHeight="1">
       <c r="A69" s="2" t="s">
@@ -3763,10 +3784,10 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
     </row>
     <row r="74" spans="1:4" ht="44" customHeight="1">
       <c r="A74" s="46" t="s">
@@ -3777,16 +3798,16 @@
       <c r="D74" s="46"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
     </row>
     <row r="77" spans="1:4" ht="48" customHeight="1">
       <c r="A77" s="42" t="s">
@@ -3797,24 +3818,24 @@
       <c r="D77" s="42"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
     </row>
     <row r="79" spans="1:4" ht="45" customHeight="1">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
     </row>
     <row r="81" spans="1:4" ht="44" customHeight="1">
       <c r="A81" s="42" t="s">
@@ -3825,10 +3846,10 @@
       <c r="D81" s="42"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
     </row>
     <row r="83" spans="1:4" ht="33" customHeight="1">
       <c r="A83" s="30" t="s">
@@ -3859,10 +3880,10 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
     </row>
     <row r="86" spans="1:4" ht="44" customHeight="1">
       <c r="A86" s="42" t="s">
@@ -3873,16 +3894,16 @@
       <c r="D86" s="42"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="41"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="41"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
     </row>
     <row r="89" spans="1:4" ht="48" customHeight="1">
       <c r="A89" s="46" t="s">
@@ -3893,10 +3914,10 @@
       <c r="D89" s="46"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
     </row>
     <row r="91" spans="1:4" ht="45" customHeight="1">
       <c r="A91" s="47" t="s">
@@ -3907,10 +3928,10 @@
       <c r="D91" s="47"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
+      <c r="A92" s="41"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
     </row>
     <row r="93" spans="1:4" ht="44" customHeight="1">
       <c r="A93" s="46" t="s">
@@ -3921,10 +3942,10 @@
       <c r="D93" s="46"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
     </row>
     <row r="95" spans="1:4" ht="33" customHeight="1">
       <c r="A95" s="2" t="s">
@@ -3955,10 +3976,10 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="45"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
     </row>
     <row r="98" spans="1:4" ht="44" customHeight="1">
       <c r="A98" s="46" t="s">
@@ -3969,16 +3990,16 @@
       <c r="D98" s="46"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="41"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="41"/>
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
+      <c r="A100" s="45"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
     </row>
     <row r="101" spans="1:4" ht="48" customHeight="1">
       <c r="A101" s="46" t="s">
@@ -3989,10 +4010,10 @@
       <c r="D101" s="46"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="43"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
+      <c r="A102" s="41"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
     </row>
     <row r="103" spans="1:4" ht="45" customHeight="1">
       <c r="A103" s="47" t="s">
@@ -4003,10 +4024,10 @@
       <c r="D103" s="47"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="43"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
+      <c r="A104" s="41"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
     </row>
     <row r="105" spans="1:4" ht="44" customHeight="1">
       <c r="A105" s="46" t="s">
@@ -4017,10 +4038,10 @@
       <c r="D105" s="46"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="43"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
+      <c r="A106" s="41"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
     </row>
     <row r="107" spans="1:4" ht="33" customHeight="1">
       <c r="A107" s="2" t="s">
@@ -4051,10 +4072,10 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
+      <c r="A109" s="44"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
     </row>
     <row r="110" spans="1:4" ht="44" customHeight="1">
       <c r="A110" s="46" t="s">
@@ -4065,16 +4086,16 @@
       <c r="D110" s="46"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="41"/>
-      <c r="B111" s="41"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="41"/>
-      <c r="B112" s="41"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="41"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
     </row>
     <row r="113" spans="1:4" ht="48" customHeight="1">
       <c r="A113" s="46" t="s">
@@ -4085,10 +4106,10 @@
       <c r="D113" s="46"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="43"/>
-      <c r="B114" s="43"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
+      <c r="A114" s="41"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41"/>
     </row>
     <row r="115" spans="1:4" ht="45" customHeight="1">
       <c r="A115" s="47" t="s">
@@ -4099,10 +4120,10 @@
       <c r="D115" s="47"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="43"/>
-      <c r="B116" s="43"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
+      <c r="A116" s="41"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
     </row>
     <row r="117" spans="1:4" ht="44" customHeight="1">
       <c r="A117" s="46" t="s">
@@ -4113,10 +4134,10 @@
       <c r="D117" s="46"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="43"/>
-      <c r="B118" s="43"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
+      <c r="A118" s="41"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
     </row>
     <row r="119" spans="1:4" ht="33" customHeight="1">
       <c r="A119" s="2" t="s">
@@ -4147,10 +4168,10 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="45"/>
-      <c r="B121" s="45"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="45"/>
+      <c r="A121" s="44"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="44"/>
     </row>
     <row r="122" spans="1:4" ht="44" customHeight="1">
       <c r="A122" s="46" t="s">
@@ -4161,16 +4182,16 @@
       <c r="D122" s="46"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="41"/>
-      <c r="B123" s="41"/>
-      <c r="C123" s="41"/>
-      <c r="D123" s="41"/>
+      <c r="A123" s="45"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="45"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="41"/>
-      <c r="B124" s="41"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="41"/>
+      <c r="A124" s="45"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="45"/>
     </row>
     <row r="125" spans="1:4" ht="48" customHeight="1">
       <c r="A125" s="46" t="s">
@@ -4181,10 +4202,10 @@
       <c r="D125" s="46"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="43"/>
-      <c r="B126" s="43"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="43"/>
+      <c r="A126" s="41"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="41"/>
     </row>
     <row r="127" spans="1:4" ht="45" customHeight="1">
       <c r="A127" s="47" t="s">
@@ -4195,10 +4216,10 @@
       <c r="D127" s="47"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="43"/>
-      <c r="B128" s="43"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
+      <c r="A128" s="41"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="41"/>
     </row>
     <row r="129" spans="1:4" ht="44" customHeight="1">
       <c r="A129" s="46" t="s">
@@ -4209,10 +4230,10 @@
       <c r="D129" s="46"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="43"/>
-      <c r="B130" s="43"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="41"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="41"/>
     </row>
     <row r="131" spans="1:4" ht="33" customHeight="1">
       <c r="A131" s="2" t="s">
@@ -4257,16 +4278,16 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="45"/>
-      <c r="B134" s="45"/>
-      <c r="C134" s="45"/>
-      <c r="D134" s="45"/>
+      <c r="A134" s="44"/>
+      <c r="B134" s="44"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="44"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="41"/>
-      <c r="B135" s="41"/>
-      <c r="C135" s="41"/>
-      <c r="D135" s="41"/>
+      <c r="A135" s="45"/>
+      <c r="B135" s="45"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="45"/>
     </row>
     <row r="136" spans="1:4" ht="48" customHeight="1">
       <c r="A136" s="46" t="s">
@@ -4277,10 +4298,10 @@
       <c r="D136" s="46"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="43"/>
-      <c r="B137" s="43"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="43"/>
+      <c r="A137" s="41"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="41"/>
     </row>
     <row r="138" spans="1:4" ht="45" customHeight="1">
       <c r="A138" s="47" t="s">
@@ -4291,10 +4312,10 @@
       <c r="D138" s="47"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="43"/>
-      <c r="B139" s="43"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="43"/>
+      <c r="A139" s="41"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="41"/>
     </row>
     <row r="140" spans="1:4" ht="44" customHeight="1">
       <c r="A140" s="46" t="s">
@@ -4305,10 +4326,10 @@
       <c r="D140" s="46"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="43"/>
-      <c r="B141" s="43"/>
-      <c r="C141" s="43"/>
-      <c r="D141" s="43"/>
+      <c r="A141" s="41"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="41"/>
     </row>
     <row r="142" spans="1:4" ht="33" customHeight="1">
       <c r="A142" s="2" t="s">
@@ -4353,16 +4374,16 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="45"/>
-      <c r="B145" s="45"/>
-      <c r="C145" s="45"/>
-      <c r="D145" s="45"/>
+      <c r="A145" s="44"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="44"/>
+      <c r="D145" s="44"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="41"/>
-      <c r="B146" s="41"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="41"/>
+      <c r="A146" s="45"/>
+      <c r="B146" s="45"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="45"/>
     </row>
     <row r="147" spans="1:4" ht="48" customHeight="1">
       <c r="A147" s="42" t="s">
@@ -4373,24 +4394,24 @@
       <c r="D147" s="42"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="43"/>
-      <c r="B148" s="43"/>
-      <c r="C148" s="43"/>
-      <c r="D148" s="43"/>
+      <c r="A148" s="41"/>
+      <c r="B148" s="41"/>
+      <c r="C148" s="41"/>
+      <c r="D148" s="41"/>
     </row>
     <row r="149" spans="1:4" ht="45" customHeight="1">
-      <c r="A149" s="44" t="s">
+      <c r="A149" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="B149" s="44"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="44"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="43"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="43"/>
-      <c r="B150" s="43"/>
-      <c r="C150" s="43"/>
-      <c r="D150" s="43"/>
+      <c r="A150" s="41"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="41"/>
     </row>
     <row r="151" spans="1:4" ht="44" customHeight="1">
       <c r="A151" s="42" t="s">
@@ -4401,10 +4422,10 @@
       <c r="D151" s="42"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="43"/>
-      <c r="B152" s="43"/>
-      <c r="C152" s="43"/>
-      <c r="D152" s="43"/>
+      <c r="A152" s="41"/>
+      <c r="B152" s="41"/>
+      <c r="C152" s="41"/>
+      <c r="D152" s="41"/>
     </row>
     <row r="153" spans="1:4" ht="33" customHeight="1">
       <c r="A153" s="30" t="s">
@@ -4517,16 +4538,16 @@
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="45"/>
-      <c r="B161" s="45"/>
-      <c r="C161" s="45"/>
-      <c r="D161" s="45"/>
+      <c r="A161" s="44"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="44"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="41"/>
-      <c r="B162" s="41"/>
-      <c r="C162" s="41"/>
-      <c r="D162" s="41"/>
+      <c r="A162" s="45"/>
+      <c r="B162" s="45"/>
+      <c r="C162" s="45"/>
+      <c r="D162" s="45"/>
     </row>
     <row r="163" spans="1:4" s="38" customFormat="1" ht="48" customHeight="1">
       <c r="A163" s="42" t="s">
@@ -4537,24 +4558,24 @@
       <c r="D163" s="42"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="43"/>
-      <c r="B164" s="43"/>
-      <c r="C164" s="43"/>
-      <c r="D164" s="43"/>
+      <c r="A164" s="41"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="41"/>
     </row>
     <row r="165" spans="1:4" s="38" customFormat="1" ht="45" customHeight="1">
-      <c r="A165" s="44" t="s">
+      <c r="A165" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="B165" s="44"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="44"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="43"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="43"/>
-      <c r="B166" s="43"/>
-      <c r="C166" s="43"/>
-      <c r="D166" s="43"/>
+      <c r="A166" s="41"/>
+      <c r="B166" s="41"/>
+      <c r="C166" s="41"/>
+      <c r="D166" s="41"/>
     </row>
     <row r="167" spans="1:4" s="38" customFormat="1" ht="44" customHeight="1">
       <c r="A167" s="42" t="s">
@@ -4565,10 +4586,10 @@
       <c r="D167" s="42"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="43"/>
-      <c r="B168" s="43"/>
-      <c r="C168" s="43"/>
-      <c r="D168" s="43"/>
+      <c r="A168" s="41"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="41"/>
     </row>
     <row r="169" spans="1:4" s="38" customFormat="1" ht="33" customHeight="1">
       <c r="A169" s="30" t="s">
@@ -4599,10 +4620,10 @@
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="45"/>
-      <c r="B171" s="45"/>
-      <c r="C171" s="45"/>
-      <c r="D171" s="45"/>
+      <c r="A171" s="44"/>
+      <c r="B171" s="44"/>
+      <c r="C171" s="44"/>
+      <c r="D171" s="44"/>
     </row>
     <row r="172" spans="1:4" s="38" customFormat="1" ht="44" customHeight="1">
       <c r="A172" s="42" t="s">
@@ -4613,16 +4634,16 @@
       <c r="D172" s="42"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="41"/>
-      <c r="B173" s="41"/>
-      <c r="C173" s="41"/>
-      <c r="D173" s="41"/>
+      <c r="A173" s="45"/>
+      <c r="B173" s="45"/>
+      <c r="C173" s="45"/>
+      <c r="D173" s="45"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="41"/>
-      <c r="B174" s="41"/>
-      <c r="C174" s="41"/>
-      <c r="D174" s="41"/>
+      <c r="A174" s="45"/>
+      <c r="B174" s="45"/>
+      <c r="C174" s="45"/>
+      <c r="D174" s="45"/>
     </row>
     <row r="175" spans="1:4" s="38" customFormat="1" ht="48" customHeight="1">
       <c r="A175" s="42" t="s">
@@ -4633,24 +4654,24 @@
       <c r="D175" s="42"/>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="43"/>
-      <c r="B176" s="43"/>
-      <c r="C176" s="43"/>
-      <c r="D176" s="43"/>
+      <c r="A176" s="41"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="41"/>
     </row>
     <row r="177" spans="1:4" s="38" customFormat="1" ht="45" customHeight="1">
-      <c r="A177" s="44" t="s">
+      <c r="A177" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="B177" s="44"/>
-      <c r="C177" s="44"/>
-      <c r="D177" s="44"/>
+      <c r="B177" s="43"/>
+      <c r="C177" s="43"/>
+      <c r="D177" s="43"/>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="43"/>
-      <c r="B178" s="43"/>
-      <c r="C178" s="43"/>
-      <c r="D178" s="43"/>
+      <c r="A178" s="41"/>
+      <c r="B178" s="41"/>
+      <c r="C178" s="41"/>
+      <c r="D178" s="41"/>
     </row>
     <row r="179" spans="1:4" s="38" customFormat="1" ht="44" customHeight="1">
       <c r="A179" s="42" t="s">
@@ -4661,10 +4682,10 @@
       <c r="D179" s="42"/>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="43"/>
-      <c r="B180" s="43"/>
-      <c r="C180" s="43"/>
-      <c r="D180" s="43"/>
+      <c r="A180" s="41"/>
+      <c r="B180" s="41"/>
+      <c r="C180" s="41"/>
+      <c r="D180" s="41"/>
     </row>
     <row r="181" spans="1:4" s="38" customFormat="1" ht="33" customHeight="1">
       <c r="A181" s="30" t="s">
@@ -4695,10 +4716,10 @@
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="45"/>
-      <c r="B183" s="45"/>
-      <c r="C183" s="45"/>
-      <c r="D183" s="45"/>
+      <c r="A183" s="44"/>
+      <c r="B183" s="44"/>
+      <c r="C183" s="44"/>
+      <c r="D183" s="44"/>
     </row>
     <row r="184" spans="1:4" s="38" customFormat="1" ht="44" customHeight="1">
       <c r="A184" s="42" t="s">
@@ -4710,6 +4731,101 @@
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="A173:D174"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="A161:D162"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D124"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A111:D112"/>
     <mergeCell ref="A152:D152"/>
     <mergeCell ref="A147:D147"/>
     <mergeCell ref="A148:D148"/>
@@ -4734,105 +4850,9 @@
     <mergeCell ref="A134:D135"/>
     <mergeCell ref="A117:D117"/>
     <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:D124"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A161:D162"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A173:D174"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A184:D184"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4889,10 +4909,10 @@
       <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
       <c r="A7" s="47" t="s">
@@ -4903,10 +4923,10 @@
       <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4977,10 +4997,10 @@
       <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
       <c r="A7" s="47" t="s">
@@ -4991,10 +5011,10 @@
       <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -5005,10 +5025,10 @@
       <c r="D9" s="46"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -5039,10 +5059,10 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:4" ht="44" customHeight="1">
       <c r="A14" s="46" t="s">
@@ -5078,7 +5098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A57" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A59" workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
@@ -5091,72 +5111,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -5243,72 +5263,72 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" ht="85" customHeight="1">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
     </row>
     <row r="21" spans="1:4" ht="48" customHeight="1">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
     </row>
     <row r="23" spans="1:4" ht="55" customHeight="1">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
     </row>
     <row r="25" spans="1:4" ht="44" customHeight="1">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1">
       <c r="A27" s="7" t="s">
@@ -5353,72 +5373,72 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" spans="1:4" ht="50" customHeight="1">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:4" ht="48" customHeight="1">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
     </row>
     <row r="36" spans="1:4" ht="45" customHeight="1">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
     </row>
     <row r="38" spans="1:4" ht="44" customHeight="1">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
     </row>
     <row r="40" spans="1:4" ht="33" customHeight="1">
       <c r="A40" s="7" t="s">
@@ -5449,72 +5469,72 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
     </row>
     <row r="43" spans="1:4" ht="85" customHeight="1">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="61"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="61"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:4" ht="48" customHeight="1">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
     </row>
     <row r="48" spans="1:4" ht="45" customHeight="1">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="58"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
     </row>
     <row r="50" spans="1:4" ht="44" customHeight="1">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
     </row>
     <row r="52" spans="1:4" ht="33" customHeight="1">
       <c r="A52" s="7" t="s">
@@ -5545,72 +5565,72 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
     </row>
     <row r="55" spans="1:4" ht="43" customHeight="1">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="61"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="61"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:4" ht="48" customHeight="1">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
     </row>
     <row r="60" spans="1:4" ht="45" customHeight="1">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
     </row>
     <row r="62" spans="1:4" ht="44" customHeight="1">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
     </row>
     <row r="64" spans="1:4" ht="33" customHeight="1">
       <c r="A64" s="7" t="s">
@@ -5739,58 +5759,58 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="59"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="61"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
+      <c r="A74" s="53"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
     </row>
     <row r="75" spans="1:4" ht="48" customHeight="1">
-      <c r="A75" s="60" t="s">
+      <c r="A75" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="58"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
     </row>
     <row r="77" spans="1:4" ht="45" customHeight="1">
-      <c r="A77" s="62" t="s">
+      <c r="A77" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="58"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
+      <c r="A78" s="55"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
     </row>
     <row r="79" spans="1:4" ht="44" customHeight="1">
-      <c r="A79" s="60" t="s">
+      <c r="A79" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="60"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="65"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
     </row>
     <row r="81" spans="1:4" ht="33" customHeight="1">
       <c r="A81" s="7" t="s">
@@ -5821,72 +5841,72 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="59"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="59"/>
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
     </row>
     <row r="84" spans="1:4" ht="43" customHeight="1">
-      <c r="A84" s="60" t="s">
+      <c r="A84" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B84" s="60"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="61"/>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
+      <c r="A85" s="53"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="61"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
+      <c r="A86" s="53"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
     </row>
     <row r="87" spans="1:4" ht="48" customHeight="1">
-      <c r="A87" s="60" t="s">
+      <c r="A87" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B87" s="60"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="58"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
     </row>
     <row r="89" spans="1:4" ht="45" customHeight="1">
-      <c r="A89" s="62" t="s">
+      <c r="A89" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B89" s="62"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="62"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="58"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="58"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
     </row>
     <row r="91" spans="1:4" ht="44" customHeight="1">
-      <c r="A91" s="60" t="s">
+      <c r="A91" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="60"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="58"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
     </row>
     <row r="93" spans="1:4" ht="33" customHeight="1">
       <c r="A93" s="7" t="s">
@@ -5917,72 +5937,72 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="59"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="59"/>
+      <c r="A95" s="58"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
     </row>
     <row r="96" spans="1:4" ht="43" customHeight="1">
-      <c r="A96" s="60" t="s">
+      <c r="A96" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B96" s="60"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="61"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="61"/>
-      <c r="D97" s="61"/>
+      <c r="A97" s="53"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="61"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="61"/>
+      <c r="A98" s="53"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
     </row>
     <row r="99" spans="1:4" ht="48" customHeight="1">
-      <c r="A99" s="60" t="s">
+      <c r="A99" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="B99" s="60"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="58"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="58"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1">
-      <c r="A101" s="62" t="s">
+      <c r="A101" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="B101" s="62"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="62"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="56"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="58"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="58"/>
-      <c r="D102" s="58"/>
+      <c r="A102" s="55"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="55"/>
     </row>
     <row r="103" spans="1:4" ht="44" customHeight="1">
-      <c r="A103" s="60" t="s">
+      <c r="A103" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="60"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="58"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="55"/>
+      <c r="D104" s="55"/>
     </row>
     <row r="105" spans="1:4" ht="33" customHeight="1">
       <c r="A105" s="7" t="s">
@@ -6013,72 +6033,72 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="59"/>
-      <c r="B107" s="59"/>
-      <c r="C107" s="59"/>
-      <c r="D107" s="59"/>
+      <c r="A107" s="58"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="58"/>
     </row>
     <row r="108" spans="1:4" ht="43" customHeight="1">
-      <c r="A108" s="60" t="s">
+      <c r="A108" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="B108" s="60"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="60"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="54"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="61"/>
-      <c r="B109" s="61"/>
-      <c r="C109" s="61"/>
-      <c r="D109" s="61"/>
+      <c r="A109" s="53"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="53"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="61"/>
-      <c r="B110" s="61"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="61"/>
+      <c r="A110" s="53"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="53"/>
     </row>
     <row r="111" spans="1:4" ht="48" customHeight="1">
-      <c r="A111" s="60" t="s">
+      <c r="A111" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="B111" s="60"/>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="58"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="58"/>
+      <c r="A112" s="55"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="55"/>
     </row>
     <row r="113" spans="1:4" ht="45" customHeight="1">
-      <c r="A113" s="62" t="s">
+      <c r="A113" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="62"/>
-      <c r="C113" s="62"/>
-      <c r="D113" s="62"/>
+      <c r="B113" s="56"/>
+      <c r="C113" s="56"/>
+      <c r="D113" s="56"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="58"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="58"/>
-      <c r="D114" s="58"/>
+      <c r="A114" s="55"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="55"/>
+      <c r="D114" s="55"/>
     </row>
     <row r="115" spans="1:4" ht="44" customHeight="1">
-      <c r="A115" s="60" t="s">
+      <c r="A115" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="60"/>
-      <c r="C115" s="60"/>
-      <c r="D115" s="60"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="54"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="58"/>
-      <c r="B116" s="58"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58"/>
+      <c r="A116" s="55"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="55"/>
+      <c r="D116" s="55"/>
     </row>
     <row r="117" spans="1:4" ht="33" customHeight="1">
       <c r="A117" s="7" t="s">
@@ -6109,72 +6129,72 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="59"/>
-      <c r="B119" s="59"/>
-      <c r="C119" s="59"/>
-      <c r="D119" s="59"/>
+      <c r="A119" s="58"/>
+      <c r="B119" s="58"/>
+      <c r="C119" s="58"/>
+      <c r="D119" s="58"/>
     </row>
     <row r="120" spans="1:4" ht="43" customHeight="1">
-      <c r="A120" s="60" t="s">
+      <c r="A120" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="60"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="60"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="54"/>
+      <c r="D120" s="54"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="61"/>
-      <c r="B121" s="61"/>
-      <c r="C121" s="61"/>
-      <c r="D121" s="61"/>
+      <c r="A121" s="53"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="53"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="61"/>
-      <c r="B122" s="61"/>
-      <c r="C122" s="61"/>
-      <c r="D122" s="61"/>
+      <c r="A122" s="53"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="53"/>
     </row>
     <row r="123" spans="1:4" ht="48" customHeight="1">
-      <c r="A123" s="60" t="s">
+      <c r="A123" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="B123" s="60"/>
-      <c r="C123" s="60"/>
-      <c r="D123" s="60"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="54"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="58"/>
-      <c r="B124" s="58"/>
-      <c r="C124" s="58"/>
-      <c r="D124" s="58"/>
+      <c r="A124" s="55"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="55"/>
+      <c r="D124" s="55"/>
     </row>
     <row r="125" spans="1:4" ht="45" customHeight="1">
-      <c r="A125" s="62" t="s">
+      <c r="A125" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="B125" s="62"/>
-      <c r="C125" s="62"/>
-      <c r="D125" s="62"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="56"/>
+      <c r="D125" s="56"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="58"/>
-      <c r="B126" s="58"/>
-      <c r="C126" s="58"/>
-      <c r="D126" s="58"/>
+      <c r="A126" s="55"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="55"/>
+      <c r="D126" s="55"/>
     </row>
     <row r="127" spans="1:4" ht="44" customHeight="1">
-      <c r="A127" s="60" t="s">
+      <c r="A127" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="60"/>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="54"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="58"/>
-      <c r="B128" s="58"/>
-      <c r="C128" s="58"/>
-      <c r="D128" s="58"/>
+      <c r="A128" s="55"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="55"/>
+      <c r="D128" s="55"/>
     </row>
     <row r="129" spans="1:4" ht="33" customHeight="1">
       <c r="A129" s="7" t="s">
@@ -6205,72 +6225,72 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="59"/>
-      <c r="B131" s="59"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="59"/>
+      <c r="A131" s="58"/>
+      <c r="B131" s="58"/>
+      <c r="C131" s="58"/>
+      <c r="D131" s="58"/>
     </row>
     <row r="132" spans="1:4" ht="43" customHeight="1">
-      <c r="A132" s="60" t="s">
+      <c r="A132" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B132" s="60"/>
-      <c r="C132" s="60"/>
-      <c r="D132" s="60"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="54"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="61"/>
-      <c r="B133" s="61"/>
-      <c r="C133" s="61"/>
-      <c r="D133" s="61"/>
+      <c r="A133" s="53"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="53"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="61"/>
-      <c r="B134" s="61"/>
-      <c r="C134" s="61"/>
-      <c r="D134" s="61"/>
+      <c r="A134" s="53"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="53"/>
+      <c r="D134" s="53"/>
     </row>
     <row r="135" spans="1:4" ht="48" customHeight="1">
-      <c r="A135" s="60" t="s">
+      <c r="A135" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="B135" s="60"/>
-      <c r="C135" s="60"/>
-      <c r="D135" s="60"/>
+      <c r="B135" s="54"/>
+      <c r="C135" s="54"/>
+      <c r="D135" s="54"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="58"/>
-      <c r="B136" s="58"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="58"/>
+      <c r="A136" s="55"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="55"/>
+      <c r="D136" s="55"/>
     </row>
     <row r="137" spans="1:4" ht="45" customHeight="1">
-      <c r="A137" s="62" t="s">
+      <c r="A137" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="B137" s="62"/>
-      <c r="C137" s="62"/>
-      <c r="D137" s="62"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="56"/>
+      <c r="D137" s="56"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="58"/>
-      <c r="B138" s="58"/>
-      <c r="C138" s="58"/>
-      <c r="D138" s="58"/>
+      <c r="A138" s="55"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="55"/>
+      <c r="D138" s="55"/>
     </row>
     <row r="139" spans="1:4" ht="44" customHeight="1">
-      <c r="A139" s="60" t="s">
+      <c r="A139" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="60"/>
-      <c r="C139" s="60"/>
-      <c r="D139" s="60"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="54"/>
+      <c r="D139" s="54"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="58"/>
-      <c r="B140" s="58"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="58"/>
+      <c r="A140" s="55"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="55"/>
+      <c r="D140" s="55"/>
     </row>
     <row r="141" spans="1:4" ht="33" customHeight="1">
       <c r="A141" s="7" t="s">
@@ -6301,74 +6321,74 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="59"/>
-      <c r="B143" s="59"/>
-      <c r="C143" s="59"/>
-      <c r="D143" s="59"/>
+      <c r="A143" s="58"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="58"/>
     </row>
     <row r="144" spans="1:4" ht="43" customHeight="1">
-      <c r="A144" s="60" t="s">
+      <c r="A144" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="B144" s="60"/>
-      <c r="C144" s="60"/>
-      <c r="D144" s="60"/>
+      <c r="B144" s="54"/>
+      <c r="C144" s="54"/>
+      <c r="D144" s="54"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="61"/>
-      <c r="B145" s="61"/>
-      <c r="C145" s="61"/>
-      <c r="D145" s="61"/>
+      <c r="A145" s="53"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="53"/>
+      <c r="D145" s="53"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="61"/>
-      <c r="B146" s="61"/>
-      <c r="C146" s="61"/>
-      <c r="D146" s="61"/>
+      <c r="A146" s="53"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="53"/>
     </row>
     <row r="147" spans="1:4" ht="23" customHeight="1">
-      <c r="A147" s="55" t="s">
+      <c r="A147" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="B147" s="55"/>
-      <c r="C147" s="55"/>
-      <c r="D147" s="55"/>
+      <c r="B147" s="63"/>
+      <c r="C147" s="63"/>
+      <c r="D147" s="63"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="56"/>
-      <c r="B148" s="56"/>
-      <c r="C148" s="56"/>
-      <c r="D148" s="56"/>
+      <c r="A148" s="64"/>
+      <c r="B148" s="64"/>
+      <c r="C148" s="64"/>
+      <c r="D148" s="64"/>
     </row>
     <row r="149" spans="1:4" ht="23" customHeight="1">
-      <c r="A149" s="57" t="s">
+      <c r="A149" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="B149" s="57"/>
-      <c r="C149" s="57"/>
-      <c r="D149" s="57"/>
+      <c r="B149" s="65"/>
+      <c r="C149" s="65"/>
+      <c r="D149" s="65"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="56"/>
-      <c r="B150" s="56"/>
-      <c r="C150" s="56"/>
-      <c r="D150" s="56"/>
+      <c r="A150" s="64"/>
+      <c r="B150" s="64"/>
+      <c r="C150" s="64"/>
+      <c r="D150" s="64"/>
     </row>
     <row r="151" spans="1:4" ht="23" customHeight="1">
-      <c r="A151" s="55" t="s">
+      <c r="A151" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="B151" s="55"/>
-      <c r="C151" s="55"/>
-      <c r="D151" s="55"/>
+      <c r="B151" s="63"/>
+      <c r="C151" s="63"/>
+      <c r="D151" s="63"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="53"/>
-      <c r="B152" s="53"/>
-      <c r="C152" s="53"/>
-      <c r="D152" s="53"/>
-    </row>
-    <row r="153" spans="1:4" ht="17">
+      <c r="A152" s="61"/>
+      <c r="B152" s="61"/>
+      <c r="C152" s="61"/>
+      <c r="D152" s="61"/>
+    </row>
+    <row r="153" spans="1:4" ht="18">
       <c r="A153" s="18" t="s">
         <v>275</v>
       </c>
@@ -6382,7 +6402,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17">
+    <row r="154" spans="1:4" ht="18">
       <c r="A154" s="21" t="s">
         <v>279</v>
       </c>
@@ -6396,7 +6416,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="85">
+    <row r="155" spans="1:4" ht="90">
       <c r="A155" s="21" t="s">
         <v>283</v>
       </c>
@@ -6411,21 +6431,103 @@
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="54"/>
-      <c r="B156" s="54"/>
-      <c r="C156" s="54"/>
-      <c r="D156" s="54"/>
+      <c r="A156" s="62"/>
+      <c r="B156" s="62"/>
+      <c r="C156" s="62"/>
+      <c r="D156" s="62"/>
     </row>
     <row r="157" spans="1:4" ht="23" customHeight="1">
-      <c r="A157" s="55" t="s">
+      <c r="A157" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="B157" s="55"/>
-      <c r="C157" s="55"/>
-      <c r="D157" s="55"/>
+      <c r="B157" s="63"/>
+      <c r="C157" s="63"/>
+      <c r="D157" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A109:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A119:D119"/>
     <mergeCell ref="A145:D146"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:D59"/>
@@ -6450,92 +6552,9 @@
     <mergeCell ref="A123:D123"/>
     <mergeCell ref="A124:D124"/>
     <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A109:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A152:D152"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A88:D88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6586,46 +6605,46 @@
       <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -6696,16 +6715,16 @@
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
     </row>
     <row r="18" spans="1:4" ht="48" customHeight="1">
       <c r="A18" s="66" t="s">
@@ -6716,10 +6735,10 @@
       <c r="D18" s="66"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
     </row>
     <row r="20" spans="1:4" ht="45" customHeight="1">
       <c r="A20" s="67" t="s">
@@ -6730,10 +6749,10 @@
       <c r="D20" s="67"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
     </row>
     <row r="22" spans="1:4" ht="44" customHeight="1">
       <c r="A22" s="66" t="s">
@@ -6744,10 +6763,10 @@
       <c r="D22" s="66"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1">
       <c r="A24" s="34" t="s">
@@ -6806,10 +6825,10 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:4" ht="43" customHeight="1">
       <c r="A29" s="66" t="s">
@@ -6820,58 +6839,58 @@
       <c r="D29" s="66"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
     </row>
     <row r="32" spans="1:4" ht="48" customHeight="1">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
     </row>
     <row r="34" spans="1:4" ht="45" customHeight="1">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
     </row>
     <row r="36" spans="1:4" ht="44" customHeight="1">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
     </row>
     <row r="38" spans="1:4" ht="33" customHeight="1">
       <c r="A38" s="7" t="s">
@@ -6902,72 +6921,72 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
     </row>
     <row r="41" spans="1:4" ht="43" customHeight="1">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
     </row>
     <row r="44" spans="1:4" ht="48" customHeight="1">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
     </row>
     <row r="46" spans="1:4" ht="45" customHeight="1">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
     </row>
     <row r="48" spans="1:4" ht="44" customHeight="1">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
     </row>
     <row r="50" spans="1:4" ht="33" customHeight="1">
       <c r="A50" s="7" t="s">
@@ -6998,31 +7017,33 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
     </row>
     <row r="53" spans="1:4" ht="43" customHeight="1">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
@@ -7035,18 +7056,16 @@
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7060,10 +7079,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD13"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7100,46 +7119,46 @@
       <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:4" ht="44" customHeight="1">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -7184,58 +7203,58 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:4" ht="48" customHeight="1">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
     </row>
     <row r="20" spans="1:4" ht="44" customHeight="1">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -7280,72 +7299,72 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:4" ht="43" customHeight="1">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
     </row>
     <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
     </row>
     <row r="31" spans="1:4" ht="45" customHeight="1">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
     </row>
     <row r="33" spans="1:4" ht="44" customHeight="1">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1">
       <c r="A35" s="7" t="s">
@@ -7390,72 +7409,72 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A3